--- a/conformancelib/testdata/85b_test_definitions_PIV-I_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\python_den\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2DFC16-0100-4E14-8741-9C9A8F149A23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7612A2BD-25B8-419A-B123-0D0CBC94A0C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="825" windowWidth="28710" windowHeight="17760" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6705" yWindow="960" windowWidth="28755" windowHeight="17760" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3760" uniqueCount="1300">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -2979,9 +2979,6 @@
   </si>
   <si>
     <t>Validate that the signature algorithm value for RSA with PKCS #1 v1.5 padding specifies the rsaEncryption OID (as per Section 3.2 of RFC 3370) and for ECDSA and RSA with PSS padding, the signatureAlgorithm is in accordance with Table 3-3 of SP 800-78.</t>
-  </si>
-  <si>
-    <t>1.2.840.113549.1.1.5, 1.2.840.113549.1.1.11, 1.2.840.113549.1.1.10, 1.2.840.10045.4.3.2, 1.2.840.10045.4.3.3</t>
   </si>
   <si>
     <t>CMS_Test_14</t>
@@ -3886,16 +3883,7 @@
     <t>Ensure that RSA key has 2048- or 3072-bit modulus (Table 3-1)</t>
   </si>
   <si>
-    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7,
-X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7,
-X509_CERTIFICATE_FOR_DIGITAL_CERTIFICATE_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7|1.2.840.10045.2.1+1.3.132.0.34,
-X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7|1.2.840.10045.2.1+1.3.132.0.34</t>
-  </si>
-  <si>
     <t>Ensure that ECDSA key is curve P-256 or P-384 (Table 3-2)</t>
-  </si>
-  <si>
-    <t>1.2.840.113549.1.1.1:1.2.840.113549.1.1.10,1.2.840.113549.1.1.1:1.2.840.113549.1.1.11,1.2.840.10045.2.1:1.2.840.10045.3.1.7,1.2.840.10045.2.1:1.3.132.0.34</t>
   </si>
   <si>
     <t>If the algorithm value is id-RSASSA-PSS, verify that the signature-&gt;parameters field is populated with SHA-256 (OID = 2.16.840.1.101.3.4.2.1). For the other RSA algorithms, the parameters field is populated with NULL. For ECDSA, the parameters field is absent. (Table 3-3)</t>
@@ -4049,7 +4037,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4121,6 +4109,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -4179,7 +4179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4357,6 +4357,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8444,7 +8450,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A409" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C422" sqref="C422:D424"/>
     </sheetView>
   </sheetViews>
@@ -8475,13 +8481,13 @@
         <v>55</v>
       </c>
       <c r="E1" s="35" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>1126</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>1127</v>
-      </c>
       <c r="G1" s="35" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8489,7 +8495,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>0</v>
@@ -8519,10 +8525,10 @@
         <v>56</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>1128</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>1129</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
@@ -8544,10 +8550,10 @@
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
@@ -8565,7 +8571,7 @@
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G6" s="39"/>
     </row>
@@ -8584,7 +8590,7 @@
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G7" s="39"/>
     </row>
@@ -8603,7 +8609,7 @@
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G8" s="39"/>
     </row>
@@ -8622,7 +8628,7 @@
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G9" s="39"/>
     </row>
@@ -8641,7 +8647,7 @@
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G10" s="39"/>
     </row>
@@ -8660,7 +8666,7 @@
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G11" s="39"/>
     </row>
@@ -8679,7 +8685,7 @@
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G12" s="39"/>
     </row>
@@ -8698,7 +8704,7 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G13" s="39"/>
     </row>
@@ -8717,7 +8723,7 @@
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G14" s="39"/>
     </row>
@@ -8736,7 +8742,7 @@
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G15" s="39"/>
     </row>
@@ -8760,10 +8766,10 @@
         <v>56</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
@@ -8785,10 +8791,10 @@
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
@@ -8806,7 +8812,7 @@
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G19" s="39"/>
     </row>
@@ -8825,7 +8831,7 @@
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G20" s="39"/>
     </row>
@@ -8844,7 +8850,7 @@
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G21" s="39"/>
     </row>
@@ -8863,7 +8869,7 @@
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G22" s="39"/>
     </row>
@@ -8875,14 +8881,14 @@
         <v>98</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G23" s="39"/>
     </row>
@@ -8894,14 +8900,14 @@
         <v>101</v>
       </c>
       <c r="C24" s="40" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>1134</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>1135</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="40" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G24" s="40"/>
     </row>
@@ -8920,7 +8926,7 @@
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G25" s="39"/>
     </row>
@@ -8932,14 +8938,14 @@
         <v>107</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>106</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G26" s="39"/>
     </row>
@@ -8951,14 +8957,14 @@
         <v>110</v>
       </c>
       <c r="C27" s="40" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>1136</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>1137</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="40" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G27" s="40"/>
     </row>
@@ -8970,14 +8976,14 @@
         <v>113</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>1138</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>1139</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="40" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G28" s="40"/>
     </row>
@@ -8986,34 +8992,34 @@
         <v>56</v>
       </c>
       <c r="B29" s="40" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C29" s="40" t="s">
         <v>1140</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="D29" s="40" t="s">
         <v>1141</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>1142</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="40" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G29" s="40"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="40"/>
       <c r="B30" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C30" s="40" t="s">
         <v>1143</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="D30" s="40" t="s">
         <v>1144</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>1145</v>
       </c>
       <c r="E30" s="40"/>
       <c r="F30" s="40" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G30" s="40"/>
     </row>
@@ -9022,17 +9028,17 @@
         <v>56</v>
       </c>
       <c r="B31" s="39" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C31" s="39" t="s">
         <v>1146</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>1147</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G31" s="39"/>
     </row>
@@ -9041,7 +9047,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>111</v>
@@ -9051,7 +9057,7 @@
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G32" s="39"/>
     </row>
@@ -9060,17 +9066,17 @@
         <v>56</v>
       </c>
       <c r="B33" s="40" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C33" s="40" t="s">
         <v>1149</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="D33" s="40" t="s">
         <v>1150</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>1151</v>
       </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G33" s="40"/>
     </row>
@@ -9079,17 +9085,17 @@
         <v>56</v>
       </c>
       <c r="B34" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C34" s="40" t="s">
         <v>1152</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="D34" s="40" t="s">
         <v>1153</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>1154</v>
       </c>
       <c r="E34" s="40"/>
       <c r="F34" s="40" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G34" s="40"/>
     </row>
@@ -9098,17 +9104,17 @@
         <v>56</v>
       </c>
       <c r="B35" s="40" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C35" s="40" t="s">
         <v>1155</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="D35" s="40" t="s">
         <v>1156</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>1157</v>
       </c>
       <c r="E35" s="40"/>
       <c r="F35" s="40" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G35" s="40"/>
     </row>
@@ -9117,17 +9123,17 @@
         <v>56</v>
       </c>
       <c r="B36" s="40" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C36" s="40" t="s">
         <v>1158</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="D36" s="40" t="s">
         <v>1159</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>1160</v>
       </c>
       <c r="E36" s="40"/>
       <c r="F36" s="40" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G36" s="40"/>
     </row>
@@ -9136,7 +9142,7 @@
         <v>56</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C37" s="39" t="s">
         <v>114</v>
@@ -9146,7 +9152,7 @@
       </c>
       <c r="E37" s="39"/>
       <c r="F37" s="39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G37" s="39"/>
     </row>
@@ -9165,7 +9171,7 @@
       </c>
       <c r="E38" s="39"/>
       <c r="F38" s="39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G38" s="39"/>
     </row>
@@ -9184,7 +9190,7 @@
       </c>
       <c r="E39" s="39"/>
       <c r="F39" s="39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G39" s="39"/>
     </row>
@@ -9203,7 +9209,7 @@
       </c>
       <c r="E40" s="39"/>
       <c r="F40" s="39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G40" s="39"/>
     </row>
@@ -9222,7 +9228,7 @@
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G41" s="39"/>
     </row>
@@ -9231,7 +9237,7 @@
         <v>127</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C42" s="39" t="s">
         <v>129</v>
@@ -9241,7 +9247,7 @@
       </c>
       <c r="E42" s="39"/>
       <c r="F42" s="39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G42" s="39"/>
     </row>
@@ -9265,10 +9271,10 @@
         <v>56</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
@@ -9290,10 +9296,10 @@
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30">
@@ -9311,7 +9317,7 @@
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G46" s="39"/>
     </row>
@@ -9330,7 +9336,7 @@
       </c>
       <c r="E47" s="39"/>
       <c r="F47" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G47" s="39"/>
     </row>
@@ -9349,7 +9355,7 @@
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G48" s="39"/>
     </row>
@@ -9368,7 +9374,7 @@
       </c>
       <c r="E49" s="39"/>
       <c r="F49" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G49" s="39"/>
     </row>
@@ -9387,7 +9393,7 @@
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G50" s="39"/>
     </row>
@@ -9406,7 +9412,7 @@
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G51" s="39"/>
     </row>
@@ -9425,7 +9431,7 @@
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G52" s="39"/>
     </row>
@@ -9444,7 +9450,7 @@
       </c>
       <c r="E53" s="39"/>
       <c r="F53" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G53" s="39"/>
     </row>
@@ -9453,7 +9459,7 @@
         <v>127</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>129</v>
@@ -9463,7 +9469,7 @@
       </c>
       <c r="E54" s="39"/>
       <c r="F54" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G54" s="39"/>
     </row>
@@ -9487,10 +9493,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D56" s="38"/>
       <c r="E56" s="38"/>
@@ -9512,10 +9518,10 @@
       </c>
       <c r="E57" s="39"/>
       <c r="F57" s="39" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G57" s="39" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="30">
@@ -9533,7 +9539,7 @@
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="39" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G58" s="39"/>
     </row>
@@ -9552,7 +9558,7 @@
       </c>
       <c r="E59" s="39"/>
       <c r="F59" s="39" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G59" s="39"/>
     </row>
@@ -9571,7 +9577,7 @@
       </c>
       <c r="E60" s="39"/>
       <c r="F60" s="39" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G60" s="39"/>
     </row>
@@ -9590,7 +9596,7 @@
       </c>
       <c r="E61" s="39"/>
       <c r="F61" s="39" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G61" s="39"/>
     </row>
@@ -9609,7 +9615,7 @@
       </c>
       <c r="E62" s="39"/>
       <c r="F62" s="39" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G62" s="39"/>
     </row>
@@ -9628,7 +9634,7 @@
       </c>
       <c r="E63" s="39"/>
       <c r="F63" s="39" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G63" s="39"/>
     </row>
@@ -9647,7 +9653,7 @@
       </c>
       <c r="E64" s="39"/>
       <c r="F64" s="39" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G64" s="39"/>
     </row>
@@ -9666,7 +9672,7 @@
       </c>
       <c r="E65" s="39"/>
       <c r="F65" s="39" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G65" s="39"/>
     </row>
@@ -9690,10 +9696,10 @@
         <v>56</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D67" s="38"/>
       <c r="E67" s="38"/>
@@ -9715,10 +9721,10 @@
       </c>
       <c r="E68" s="39"/>
       <c r="F68" s="39" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30">
@@ -9736,7 +9742,7 @@
       </c>
       <c r="E69" s="39"/>
       <c r="F69" s="39" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G69" s="39"/>
     </row>
@@ -9755,7 +9761,7 @@
       </c>
       <c r="E70" s="39"/>
       <c r="F70" s="39" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G70" s="39"/>
     </row>
@@ -9774,7 +9780,7 @@
       </c>
       <c r="E71" s="39"/>
       <c r="F71" s="39" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G71" s="39"/>
     </row>
@@ -9793,7 +9799,7 @@
       </c>
       <c r="E72" s="39"/>
       <c r="F72" s="39" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G72" s="39"/>
     </row>
@@ -9812,7 +9818,7 @@
       </c>
       <c r="E73" s="39"/>
       <c r="F73" s="39" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G73" s="39"/>
     </row>
@@ -9824,14 +9830,14 @@
         <v>172</v>
       </c>
       <c r="C74" s="40" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D74" s="40" t="s">
         <v>1170</v>
-      </c>
-      <c r="D74" s="40" t="s">
-        <v>1171</v>
       </c>
       <c r="E74" s="40"/>
       <c r="F74" s="40" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G74" s="40"/>
     </row>
@@ -9843,14 +9849,14 @@
         <v>175</v>
       </c>
       <c r="C75" s="40" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D75" s="40" t="s">
         <v>1172</v>
-      </c>
-      <c r="D75" s="40" t="s">
-        <v>1173</v>
       </c>
       <c r="E75" s="40"/>
       <c r="F75" s="40" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G75" s="40"/>
     </row>
@@ -9869,7 +9875,7 @@
       </c>
       <c r="E76" s="39"/>
       <c r="F76" s="39" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G76" s="39"/>
     </row>
@@ -9878,7 +9884,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C77" s="39" t="s">
         <v>176</v>
@@ -9888,7 +9894,7 @@
       </c>
       <c r="E77" s="39"/>
       <c r="F77" s="39" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G77" s="39"/>
     </row>
@@ -9897,7 +9903,7 @@
         <v>56</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C78" s="39" t="s">
         <v>179</v>
@@ -9907,7 +9913,7 @@
       </c>
       <c r="E78" s="39"/>
       <c r="F78" s="39" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G78" s="39"/>
     </row>
@@ -9916,7 +9922,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C79" s="39" t="s">
         <v>129</v>
@@ -9926,7 +9932,7 @@
       </c>
       <c r="E79" s="39"/>
       <c r="F79" s="39" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G79" s="39"/>
     </row>
@@ -9935,7 +9941,7 @@
         <v>56</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C80" s="38" t="s">
         <v>6</v>
@@ -9950,10 +9956,10 @@
         <v>56</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D81" s="38"/>
       <c r="E81" s="38"/>
@@ -9975,10 +9981,10 @@
       </c>
       <c r="E82" s="39"/>
       <c r="F82" s="39" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="30">
@@ -9996,7 +10002,7 @@
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="39" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G83" s="39"/>
     </row>
@@ -10015,7 +10021,7 @@
       </c>
       <c r="E84" s="39"/>
       <c r="F84" s="39" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G84" s="39"/>
     </row>
@@ -10034,7 +10040,7 @@
       </c>
       <c r="E85" s="39"/>
       <c r="F85" s="39" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G85" s="39"/>
     </row>
@@ -10053,7 +10059,7 @@
       </c>
       <c r="E86" s="39"/>
       <c r="F86" s="39" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G86" s="39"/>
     </row>
@@ -10072,7 +10078,7 @@
       </c>
       <c r="E87" s="39"/>
       <c r="F87" s="39" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G87" s="39"/>
     </row>
@@ -10091,7 +10097,7 @@
       </c>
       <c r="E88" s="39"/>
       <c r="F88" s="39" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G88" s="39"/>
     </row>
@@ -10100,7 +10106,7 @@
         <v>127</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C89" s="39" t="s">
         <v>129</v>
@@ -10110,7 +10116,7 @@
       </c>
       <c r="E89" s="39"/>
       <c r="F89" s="39" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G89" s="39"/>
     </row>
@@ -10134,10 +10140,10 @@
         <v>56</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D91" s="38"/>
       <c r="E91" s="38"/>
@@ -10159,10 +10165,10 @@
       </c>
       <c r="E92" s="39"/>
       <c r="F92" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="30">
@@ -10180,7 +10186,7 @@
       </c>
       <c r="E93" s="39"/>
       <c r="F93" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G93" s="39"/>
     </row>
@@ -10199,7 +10205,7 @@
       </c>
       <c r="E94" s="39"/>
       <c r="F94" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G94" s="39"/>
     </row>
@@ -10218,7 +10224,7 @@
       </c>
       <c r="E95" s="39"/>
       <c r="F95" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G95" s="39"/>
     </row>
@@ -10237,7 +10243,7 @@
       </c>
       <c r="E96" s="39"/>
       <c r="F96" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G96" s="39"/>
     </row>
@@ -10256,7 +10262,7 @@
       </c>
       <c r="E97" s="39"/>
       <c r="F97" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G97" s="39"/>
     </row>
@@ -10275,7 +10281,7 @@
       </c>
       <c r="E98" s="39"/>
       <c r="F98" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G98" s="39"/>
     </row>
@@ -10294,7 +10300,7 @@
       </c>
       <c r="E99" s="39"/>
       <c r="F99" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G99" s="39"/>
     </row>
@@ -10313,7 +10319,7 @@
       </c>
       <c r="E100" s="39"/>
       <c r="F100" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G100" s="39"/>
     </row>
@@ -10322,7 +10328,7 @@
         <v>127</v>
       </c>
       <c r="B101" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C101" s="39" t="s">
         <v>129</v>
@@ -10332,7 +10338,7 @@
       </c>
       <c r="E101" s="39"/>
       <c r="F101" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G101" s="39"/>
     </row>
@@ -10356,10 +10362,10 @@
         <v>56</v>
       </c>
       <c r="B103" s="39" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D103" s="38"/>
       <c r="E103" s="38"/>
@@ -10381,10 +10387,10 @@
       </c>
       <c r="E104" s="39"/>
       <c r="F104" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="30">
@@ -10402,7 +10408,7 @@
       </c>
       <c r="E105" s="39"/>
       <c r="F105" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G105" s="39"/>
     </row>
@@ -10421,7 +10427,7 @@
       </c>
       <c r="E106" s="39"/>
       <c r="F106" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G106" s="39"/>
     </row>
@@ -10440,7 +10446,7 @@
       </c>
       <c r="E107" s="39"/>
       <c r="F107" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G107" s="39"/>
     </row>
@@ -10459,7 +10465,7 @@
       </c>
       <c r="E108" s="39"/>
       <c r="F108" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G108" s="39"/>
     </row>
@@ -10478,7 +10484,7 @@
       </c>
       <c r="E109" s="39"/>
       <c r="F109" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G109" s="39"/>
     </row>
@@ -10497,7 +10503,7 @@
       </c>
       <c r="E110" s="39"/>
       <c r="F110" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G110" s="39"/>
     </row>
@@ -10516,7 +10522,7 @@
       </c>
       <c r="E111" s="39"/>
       <c r="F111" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G111" s="39"/>
     </row>
@@ -10535,7 +10541,7 @@
       </c>
       <c r="E112" s="39"/>
       <c r="F112" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G112" s="39"/>
     </row>
@@ -10544,7 +10550,7 @@
         <v>127</v>
       </c>
       <c r="B113" s="39" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C113" s="39" t="s">
         <v>129</v>
@@ -10554,7 +10560,7 @@
       </c>
       <c r="E113" s="39"/>
       <c r="F113" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G113" s="39"/>
     </row>
@@ -10578,10 +10584,10 @@
         <v>56</v>
       </c>
       <c r="B115" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D115" s="38"/>
       <c r="E115" s="38"/>
@@ -10603,10 +10609,10 @@
       </c>
       <c r="E116" s="39"/>
       <c r="F116" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G116" s="39" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="30">
@@ -10624,7 +10630,7 @@
       </c>
       <c r="E117" s="39"/>
       <c r="F117" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G117" s="39"/>
     </row>
@@ -10643,7 +10649,7 @@
       </c>
       <c r="E118" s="39"/>
       <c r="F118" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G118" s="39"/>
     </row>
@@ -10662,7 +10668,7 @@
       </c>
       <c r="E119" s="39"/>
       <c r="F119" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G119" s="39"/>
     </row>
@@ -10681,7 +10687,7 @@
       </c>
       <c r="E120" s="39"/>
       <c r="F120" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G120" s="39"/>
     </row>
@@ -10700,7 +10706,7 @@
       </c>
       <c r="E121" s="39"/>
       <c r="F121" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G121" s="39"/>
     </row>
@@ -10719,7 +10725,7 @@
       </c>
       <c r="E122" s="39"/>
       <c r="F122" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G122" s="39"/>
     </row>
@@ -10738,7 +10744,7 @@
       </c>
       <c r="E123" s="39"/>
       <c r="F123" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G123" s="39"/>
     </row>
@@ -10757,7 +10763,7 @@
       </c>
       <c r="E124" s="39"/>
       <c r="F124" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G124" s="39"/>
     </row>
@@ -10766,7 +10772,7 @@
         <v>127</v>
       </c>
       <c r="B125" s="39" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C125" s="39" t="s">
         <v>129</v>
@@ -10776,7 +10782,7 @@
       </c>
       <c r="E125" s="39"/>
       <c r="F125" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G125" s="39"/>
     </row>
@@ -10785,7 +10791,7 @@
         <v>56</v>
       </c>
       <c r="B126" s="39" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C126" s="38" t="s">
         <v>10</v>
@@ -10800,10 +10806,10 @@
         <v>56</v>
       </c>
       <c r="B127" s="39" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D127" s="38"/>
       <c r="E127" s="38"/>
@@ -10825,10 +10831,10 @@
       </c>
       <c r="E128" s="39"/>
       <c r="F128" s="39" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G128" s="39" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="30">
@@ -10846,7 +10852,7 @@
       </c>
       <c r="E129" s="39"/>
       <c r="F129" s="39" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G129" s="39"/>
     </row>
@@ -10865,7 +10871,7 @@
       </c>
       <c r="E130" s="39"/>
       <c r="F130" s="39" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G130" s="39"/>
     </row>
@@ -10884,7 +10890,7 @@
       </c>
       <c r="E131" s="39"/>
       <c r="F131" s="39" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G131" s="39"/>
     </row>
@@ -10903,7 +10909,7 @@
       </c>
       <c r="E132" s="39"/>
       <c r="F132" s="39" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G132" s="39"/>
     </row>
@@ -10915,14 +10921,14 @@
         <v>238</v>
       </c>
       <c r="C133" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D133" s="39" t="s">
         <v>240</v>
       </c>
       <c r="E133" s="39"/>
       <c r="F133" s="39" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G133" s="39"/>
     </row>
@@ -10934,14 +10940,14 @@
         <v>241</v>
       </c>
       <c r="C134" s="40" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D134" s="40" t="s">
         <v>1194</v>
-      </c>
-      <c r="D134" s="40" t="s">
-        <v>1195</v>
       </c>
       <c r="E134" s="40"/>
       <c r="F134" s="40" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G134" s="40"/>
     </row>
@@ -10960,7 +10966,7 @@
       </c>
       <c r="E135" s="39"/>
       <c r="F135" s="39" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G135" s="39"/>
     </row>
@@ -10969,7 +10975,7 @@
         <v>56</v>
       </c>
       <c r="B136" s="39" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C136" s="39" t="s">
         <v>245</v>
@@ -10979,7 +10985,7 @@
       </c>
       <c r="E136" s="39"/>
       <c r="F136" s="39" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G136" s="39"/>
     </row>
@@ -11003,10 +11009,10 @@
         <v>56</v>
       </c>
       <c r="B138" s="39" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C138" s="38" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D138" s="38"/>
       <c r="E138" s="38"/>
@@ -11030,10 +11036,10 @@
         <v>249</v>
       </c>
       <c r="F139" s="39" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G139" s="39" t="s">
         <v>1198</v>
-      </c>
-      <c r="G139" s="39" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="30">
@@ -11053,7 +11059,7 @@
         <v>249</v>
       </c>
       <c r="F140" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G140" s="39"/>
     </row>
@@ -11074,7 +11080,7 @@
         <v>249</v>
       </c>
       <c r="F141" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G141" s="39"/>
     </row>
@@ -11095,7 +11101,7 @@
         <v>249</v>
       </c>
       <c r="F142" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G142" s="39"/>
     </row>
@@ -11107,7 +11113,7 @@
         <v>256</v>
       </c>
       <c r="C143" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D143" s="39" t="s">
         <v>258</v>
@@ -11116,7 +11122,7 @@
         <v>249</v>
       </c>
       <c r="F143" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G143" s="39"/>
     </row>
@@ -11128,7 +11134,7 @@
         <v>259</v>
       </c>
       <c r="C144" s="39" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D144" s="39" t="s">
         <v>255</v>
@@ -11137,7 +11143,7 @@
         <v>249</v>
       </c>
       <c r="F144" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G144" s="39"/>
     </row>
@@ -11149,14 +11155,14 @@
         <v>261</v>
       </c>
       <c r="C145" s="40" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D145" s="40" t="s">
         <v>1202</v>
-      </c>
-      <c r="D145" s="40" t="s">
-        <v>1203</v>
       </c>
       <c r="E145" s="40"/>
       <c r="F145" s="40" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G145" s="40"/>
     </row>
@@ -11165,19 +11171,19 @@
         <v>56</v>
       </c>
       <c r="B146" s="39" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C146" s="39" t="s">
         <v>260</v>
       </c>
       <c r="D146" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E146" s="39" t="s">
         <v>249</v>
       </c>
       <c r="F146" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G146" s="39"/>
     </row>
@@ -11186,7 +11192,7 @@
         <v>56</v>
       </c>
       <c r="B147" s="39" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C147" s="39" t="s">
         <v>262</v>
@@ -11198,7 +11204,7 @@
         <v>249</v>
       </c>
       <c r="F147" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G147" s="39"/>
     </row>
@@ -11207,19 +11213,19 @@
         <v>127</v>
       </c>
       <c r="B148" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C148" s="39" t="s">
         <v>129</v>
       </c>
       <c r="D148" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E148" s="39" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F148" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G148" s="39"/>
     </row>
@@ -11228,7 +11234,7 @@
         <v>127</v>
       </c>
       <c r="B149" s="39" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C149" s="39" t="s">
         <v>266</v>
@@ -11238,7 +11244,7 @@
       </c>
       <c r="E149" s="39"/>
       <c r="F149" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G149" s="39"/>
     </row>
@@ -11287,14 +11293,14 @@
         <v>14</v>
       </c>
       <c r="D152" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E152" s="39" t="s">
         <v>270</v>
       </c>
       <c r="F152" s="39"/>
       <c r="G152" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="45">
@@ -11308,14 +11314,14 @@
         <v>15</v>
       </c>
       <c r="D153" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E153" s="39" t="s">
         <v>270</v>
       </c>
       <c r="F153" s="39"/>
       <c r="G153" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="45">
@@ -11329,14 +11335,14 @@
         <v>272</v>
       </c>
       <c r="D154" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E154" s="39" t="s">
         <v>273</v>
       </c>
       <c r="F154" s="39"/>
       <c r="G154" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="30">
@@ -11395,7 +11401,7 @@
         <v>56</v>
       </c>
       <c r="B158" s="36" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C158" s="37" t="s">
         <v>19</v>
@@ -11451,7 +11457,7 @@
       <c r="E161" s="39"/>
       <c r="F161" s="39"/>
       <c r="G161" s="39" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -11536,7 +11542,7 @@
       <c r="E166" s="39"/>
       <c r="F166" s="39"/>
       <c r="G166" s="39" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="30">
@@ -11581,7 +11587,7 @@
         <v>290</v>
       </c>
       <c r="C169" s="39" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D169" s="39" t="s">
         <v>924</v>
@@ -11772,7 +11778,7 @@
       <c r="E180" s="39"/>
       <c r="F180" s="39"/>
       <c r="G180" s="39" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -11857,7 +11863,7 @@
       <c r="E185" s="39"/>
       <c r="F185" s="39"/>
       <c r="G185" s="39" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="30">
@@ -11902,7 +11908,7 @@
         <v>317</v>
       </c>
       <c r="C188" s="39" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D188" s="39" t="s">
         <v>924</v>
@@ -12093,7 +12099,7 @@
       <c r="E199" s="39"/>
       <c r="F199" s="39"/>
       <c r="G199" s="39" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -12178,7 +12184,7 @@
       <c r="E204" s="39"/>
       <c r="F204" s="39"/>
       <c r="G204" s="39" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="30">
@@ -12414,7 +12420,7 @@
       <c r="E218" s="39"/>
       <c r="F218" s="39"/>
       <c r="G218" s="39" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="30">
@@ -12527,13 +12533,13 @@
         <v>368</v>
       </c>
       <c r="C225" s="39" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D225" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E225" s="39" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F225" s="39"/>
       <c r="G225" s="39"/>
@@ -12549,10 +12555,10 @@
         <v>371</v>
       </c>
       <c r="D226" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E226" s="39" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F226" s="39"/>
       <c r="G226" s="39"/>
@@ -12565,7 +12571,7 @@
         <v>372</v>
       </c>
       <c r="C227" s="39" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D227" s="39">
         <v>76.16</v>
@@ -12639,7 +12645,7 @@
       <c r="E231" s="39"/>
       <c r="F231" s="39"/>
       <c r="G231" s="39" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -12707,7 +12713,7 @@
         <v>955</v>
       </c>
       <c r="E235" s="39" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F235" s="39"/>
       <c r="G235" s="39"/>
@@ -12845,7 +12851,7 @@
       <c r="E243" s="39"/>
       <c r="F243" s="39"/>
       <c r="G243" s="39" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -13000,7 +13006,7 @@
         <v>56</v>
       </c>
       <c r="B253" s="36" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C253" s="37" t="s">
         <v>35</v>
@@ -13056,7 +13062,7 @@
       <c r="E256" s="39"/>
       <c r="F256" s="39"/>
       <c r="G256" s="44" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="30">
@@ -13090,7 +13096,7 @@
         <v>425</v>
       </c>
       <c r="E258" s="46" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F258" s="39"/>
       <c r="G258" s="44"/>
@@ -13171,13 +13177,13 @@
         <v>438</v>
       </c>
       <c r="C263" s="44" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D263" s="39" t="s">
         <v>440</v>
       </c>
       <c r="E263" s="46" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F263" s="39"/>
       <c r="G263" s="44"/>
@@ -13187,13 +13193,13 @@
         <v>56</v>
       </c>
       <c r="B264" s="39" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C264" s="44" t="s">
         <v>1215</v>
       </c>
-      <c r="C264" s="44" t="s">
+      <c r="D264" s="39" t="s">
         <v>1216</v>
-      </c>
-      <c r="D264" s="39" t="s">
-        <v>1217</v>
       </c>
       <c r="E264" s="39"/>
       <c r="F264" s="39"/>
@@ -13247,7 +13253,7 @@
         <v>449</v>
       </c>
       <c r="E267" s="46" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F267" s="39"/>
       <c r="G267" s="44"/>
@@ -13257,7 +13263,7 @@
         <v>56</v>
       </c>
       <c r="B268" s="39" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C268" s="44" t="s">
         <v>451</v>
@@ -13315,7 +13321,7 @@
       <c r="E271" s="39"/>
       <c r="F271" s="39"/>
       <c r="G271" s="44" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -13465,7 +13471,7 @@
         <v>473</v>
       </c>
       <c r="D280" s="39" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E280" s="39"/>
       <c r="F280" s="39"/>
@@ -13619,7 +13625,7 @@
       <c r="E289" s="39"/>
       <c r="F289" s="39"/>
       <c r="G289" s="44" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -13769,7 +13775,7 @@
         <v>473</v>
       </c>
       <c r="D298" s="39" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E298" s="39"/>
       <c r="F298" s="39"/>
@@ -13955,7 +13961,7 @@
       <c r="E309" s="47"/>
       <c r="F309" s="47"/>
       <c r="G309" s="39" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -14106,7 +14112,7 @@
       <c r="E318" s="39"/>
       <c r="F318" s="39"/>
       <c r="G318" s="39" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -14199,7 +14205,7 @@
         <v>56</v>
       </c>
       <c r="B324" s="39" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C324" s="39" t="s">
         <v>466</v>
@@ -14216,7 +14222,7 @@
         <v>56</v>
       </c>
       <c r="B325" s="39" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C325" s="39" t="s">
         <v>468</v>
@@ -14256,7 +14262,7 @@
         <v>473</v>
       </c>
       <c r="D327" s="39" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E327" s="39"/>
       <c r="F327" s="39"/>
@@ -14335,7 +14341,7 @@
         <v>56</v>
       </c>
       <c r="B332" s="39" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C332" s="39" t="s">
         <v>484</v>
@@ -14352,7 +14358,7 @@
         <v>56</v>
       </c>
       <c r="B333" s="39" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C333" s="39" t="s">
         <v>487</v>
@@ -14369,7 +14375,7 @@
         <v>56</v>
       </c>
       <c r="B334" s="36" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C334" s="50" t="s">
         <v>40</v>
@@ -14423,13 +14429,13 @@
         <v>78.3</v>
       </c>
       <c r="E337" s="39" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F337" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G337" s="44" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="60">
@@ -14446,10 +14452,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E338" s="39" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F338" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G338" s="44"/>
     </row>
@@ -14461,14 +14467,14 @@
         <v>552</v>
       </c>
       <c r="C339" s="44" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D339" s="39">
         <v>78.099999999999994</v>
       </c>
       <c r="E339" s="39"/>
       <c r="F339" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G339" s="44"/>
     </row>
@@ -14502,10 +14508,10 @@
       </c>
       <c r="E341" s="39"/>
       <c r="F341" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G341" s="44" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -14523,7 +14529,7 @@
       </c>
       <c r="E342" s="39"/>
       <c r="F342" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G342" s="44"/>
     </row>
@@ -14542,7 +14548,7 @@
       </c>
       <c r="E343" s="39"/>
       <c r="F343" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G343" s="39"/>
     </row>
@@ -14561,7 +14567,7 @@
       </c>
       <c r="E344" s="39"/>
       <c r="F344" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G344" s="44"/>
     </row>
@@ -14595,10 +14601,10 @@
       </c>
       <c r="E346" s="39"/>
       <c r="F346" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G346" s="44" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="30">
@@ -14616,7 +14622,7 @@
       </c>
       <c r="E347" s="39"/>
       <c r="F347" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G347" s="44"/>
     </row>
@@ -14628,14 +14634,14 @@
         <v>575</v>
       </c>
       <c r="C348" s="44" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D348" s="39" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E348" s="39"/>
       <c r="F348" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G348" s="44"/>
     </row>
@@ -14654,7 +14660,7 @@
       </c>
       <c r="E349" s="39"/>
       <c r="F349" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G349" s="44"/>
     </row>
@@ -14673,7 +14679,7 @@
       </c>
       <c r="E350" s="39"/>
       <c r="F350" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G350" s="44"/>
     </row>
@@ -14707,10 +14713,10 @@
       </c>
       <c r="E352" s="39"/>
       <c r="F352" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G352" s="44" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="60">
@@ -14728,7 +14734,7 @@
       </c>
       <c r="E353" s="39"/>
       <c r="F353" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G353" s="44"/>
     </row>
@@ -14743,11 +14749,11 @@
         <v>592</v>
       </c>
       <c r="D354" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E354" s="39"/>
       <c r="F354" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G354" s="39"/>
     </row>
@@ -14766,7 +14772,7 @@
       </c>
       <c r="E355" s="39"/>
       <c r="F355" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G355" s="44"/>
     </row>
@@ -14785,7 +14791,7 @@
       </c>
       <c r="E356" s="39"/>
       <c r="F356" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G356" s="44"/>
     </row>
@@ -14819,10 +14825,10 @@
       </c>
       <c r="E358" s="39"/>
       <c r="F358" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G358" s="39" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -14836,11 +14842,11 @@
         <v>604</v>
       </c>
       <c r="D359" s="39" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E359" s="39"/>
       <c r="F359" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G359" s="39"/>
     </row>
@@ -14874,10 +14880,10 @@
       </c>
       <c r="E361" s="39"/>
       <c r="F361" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G361" s="44" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="30">
@@ -14891,11 +14897,11 @@
         <v>609</v>
       </c>
       <c r="D362" s="39" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E362" s="47"/>
       <c r="F362" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G362" s="44"/>
     </row>
@@ -14914,7 +14920,7 @@
       </c>
       <c r="E363" s="39"/>
       <c r="F363" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G363" s="44"/>
     </row>
@@ -14929,11 +14935,11 @@
         <v>613</v>
       </c>
       <c r="D364" s="39" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E364" s="39"/>
       <c r="F364" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G364" s="44"/>
     </row>
@@ -14948,13 +14954,13 @@
         <v>615</v>
       </c>
       <c r="D365" s="39" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E365" s="39" t="s">
         <v>616</v>
       </c>
       <c r="F365" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G365" s="39"/>
     </row>
@@ -14999,16 +15005,16 @@
         <v>549</v>
       </c>
       <c r="D368" s="39" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E368" s="39" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F368" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G368" s="44" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="75">
@@ -15022,13 +15028,13 @@
         <v>620</v>
       </c>
       <c r="D369" s="39" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E369" s="39" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F369" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G369" s="44"/>
     </row>
@@ -15046,10 +15052,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E370" s="39" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F370" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G370" s="44"/>
     </row>
@@ -15098,10 +15104,10 @@
       </c>
       <c r="E373" s="39"/>
       <c r="F373" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G373" s="44" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="30">
@@ -15119,7 +15125,7 @@
       </c>
       <c r="E374" s="39"/>
       <c r="F374" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G374" s="44"/>
     </row>
@@ -15138,7 +15144,7 @@
       </c>
       <c r="E375" s="39"/>
       <c r="F375" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G375" s="44"/>
     </row>
@@ -15157,7 +15163,7 @@
       </c>
       <c r="E376" s="39"/>
       <c r="F376" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G376" s="44"/>
     </row>
@@ -15176,7 +15182,7 @@
       </c>
       <c r="E377" s="39"/>
       <c r="F377" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G377" s="44"/>
     </row>
@@ -15195,7 +15201,7 @@
       </c>
       <c r="E378" s="39"/>
       <c r="F378" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G378" s="44"/>
     </row>
@@ -15229,10 +15235,10 @@
       </c>
       <c r="E380" s="39"/>
       <c r="F380" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G380" s="44" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -15246,13 +15252,13 @@
         <v>604</v>
       </c>
       <c r="D381" s="39" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E381" s="39" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F381" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G381" s="39"/>
     </row>
@@ -15286,10 +15292,10 @@
       </c>
       <c r="E383" s="39"/>
       <c r="F383" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G383" s="44" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="30">
@@ -15303,11 +15309,11 @@
         <v>645</v>
       </c>
       <c r="D384" s="39" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E384" s="47"/>
       <c r="F384" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G384" s="44"/>
     </row>
@@ -15326,7 +15332,7 @@
       </c>
       <c r="E385" s="39"/>
       <c r="F385" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G385" s="44"/>
     </row>
@@ -15341,11 +15347,11 @@
         <v>613</v>
       </c>
       <c r="D386" s="39" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E386" s="39"/>
       <c r="F386" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G386" s="39"/>
     </row>
@@ -15360,13 +15366,13 @@
         <v>615</v>
       </c>
       <c r="D387" s="39" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E387" s="39" t="s">
         <v>616</v>
       </c>
       <c r="F387" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G387" s="39"/>
     </row>
@@ -15414,13 +15420,13 @@
         <v>78.3</v>
       </c>
       <c r="E390" s="39" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F390" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G390" s="44" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="60">
@@ -15434,13 +15440,13 @@
         <v>653</v>
       </c>
       <c r="D391" s="39" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E391" s="39" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F391" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G391" s="39"/>
     </row>
@@ -15458,10 +15464,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E392" s="39" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F392" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G392" s="44"/>
     </row>
@@ -15506,14 +15512,14 @@
         <v>659</v>
       </c>
       <c r="D395" s="39" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E395" s="39"/>
       <c r="F395" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G395" s="44" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="45">
@@ -15531,7 +15537,7 @@
       </c>
       <c r="E396" s="39"/>
       <c r="F396" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G396" s="44"/>
     </row>
@@ -15550,7 +15556,7 @@
       </c>
       <c r="E397" s="39"/>
       <c r="F397" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G397" s="44"/>
     </row>
@@ -15569,7 +15575,7 @@
       </c>
       <c r="E398" s="39"/>
       <c r="F398" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G398" s="44"/>
     </row>
@@ -15588,7 +15594,7 @@
       </c>
       <c r="E399" s="39"/>
       <c r="F399" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G399" s="44"/>
     </row>
@@ -15607,7 +15613,7 @@
       </c>
       <c r="E400" s="39"/>
       <c r="F400" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G400" s="44"/>
     </row>
@@ -15641,10 +15647,10 @@
       </c>
       <c r="E402" s="39"/>
       <c r="F402" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G402" s="44" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -15658,13 +15664,13 @@
         <v>604</v>
       </c>
       <c r="D403" s="39" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E403" s="39" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F403" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G403" s="39"/>
     </row>
@@ -15698,10 +15704,10 @@
       </c>
       <c r="E405" s="39"/>
       <c r="F405" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G405" s="44" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="30">
@@ -15715,11 +15721,11 @@
         <v>645</v>
       </c>
       <c r="D406" s="39" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E406" s="47"/>
       <c r="F406" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G406" s="44"/>
     </row>
@@ -15738,7 +15744,7 @@
       </c>
       <c r="E407" s="39"/>
       <c r="F407" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G407" s="44"/>
     </row>
@@ -15753,11 +15759,11 @@
         <v>613</v>
       </c>
       <c r="D408" s="39" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E408" s="39"/>
       <c r="F408" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G408" s="39"/>
     </row>
@@ -15772,13 +15778,13 @@
         <v>615</v>
       </c>
       <c r="D409" s="39" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E409" s="39" t="s">
         <v>616</v>
       </c>
       <c r="F409" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G409" s="39"/>
     </row>
@@ -15826,13 +15832,13 @@
         <v>78.3</v>
       </c>
       <c r="E412" s="6" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F412" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G412" s="44" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="90">
@@ -15849,10 +15855,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E413" s="39" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F413" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G413" s="44"/>
     </row>
@@ -15870,10 +15876,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E414" s="39" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F414" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G414" s="44"/>
     </row>
@@ -15922,10 +15928,10 @@
       </c>
       <c r="E417" s="39"/>
       <c r="F417" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G417" s="39" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -15943,7 +15949,7 @@
       </c>
       <c r="E418" s="39"/>
       <c r="F418" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G418" s="44"/>
     </row>
@@ -15962,7 +15968,7 @@
       </c>
       <c r="E419" s="39"/>
       <c r="F419" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G419" s="44"/>
     </row>
@@ -15981,7 +15987,7 @@
       </c>
       <c r="E420" s="39"/>
       <c r="F420" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G420" s="39"/>
     </row>
@@ -16008,17 +16014,17 @@
         <v>695</v>
       </c>
       <c r="C422" s="60" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="D422" s="39" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E422" s="39"/>
       <c r="F422" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G422" s="39" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="423" spans="1:7" ht="30">
@@ -16029,14 +16035,14 @@
         <v>698</v>
       </c>
       <c r="C423" s="60" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="D423" s="39" t="s">
         <v>697</v>
       </c>
       <c r="E423" s="39"/>
       <c r="F423" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G423" s="39"/>
     </row>
@@ -16055,7 +16061,7 @@
       </c>
       <c r="E424" s="39"/>
       <c r="F424" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G424" s="39"/>
     </row>
@@ -16089,10 +16095,10 @@
       </c>
       <c r="E426" s="39"/>
       <c r="F426" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G426" s="44" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -16110,7 +16116,7 @@
       </c>
       <c r="E427" s="39"/>
       <c r="F427" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G427" s="44"/>
     </row>
@@ -16129,7 +16135,7 @@
       </c>
       <c r="E428" s="39"/>
       <c r="F428" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G428" s="44"/>
     </row>
@@ -16148,7 +16154,7 @@
       </c>
       <c r="E429" s="39"/>
       <c r="F429" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G429" s="39"/>
     </row>
@@ -16167,7 +16173,7 @@
       </c>
       <c r="E430" s="39"/>
       <c r="F430" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G430" s="44"/>
     </row>
@@ -16186,7 +16192,7 @@
       </c>
       <c r="E431" s="39"/>
       <c r="F431" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G431" s="44"/>
     </row>
@@ -16203,7 +16209,7 @@
       <c r="D432" s="41"/>
       <c r="E432" s="41"/>
       <c r="F432" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G432" s="41"/>
     </row>
@@ -16222,10 +16228,10 @@
       </c>
       <c r="E433" s="39"/>
       <c r="F433" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G433" s="44" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="434" spans="1:7" ht="60">
@@ -16243,7 +16249,7 @@
       </c>
       <c r="E434" s="39"/>
       <c r="F434" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G434" s="44"/>
     </row>
@@ -16262,7 +16268,7 @@
       </c>
       <c r="E435" s="39"/>
       <c r="F435" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G435" s="44" t="s">
         <v>586</v>
@@ -16283,7 +16289,7 @@
       </c>
       <c r="E436" s="39"/>
       <c r="F436" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G436" s="44"/>
     </row>
@@ -16300,7 +16306,7 @@
       <c r="D437" s="41"/>
       <c r="E437" s="41"/>
       <c r="F437" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G437" s="41"/>
     </row>
@@ -16319,10 +16325,10 @@
       </c>
       <c r="E438" s="39"/>
       <c r="F438" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G438" s="44" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -16336,13 +16342,13 @@
         <v>604</v>
       </c>
       <c r="D439" s="39" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E439" s="39" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F439" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G439" s="39"/>
     </row>
@@ -16354,12 +16360,12 @@
         <v>720</v>
       </c>
       <c r="C440" s="41" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D440" s="41"/>
       <c r="E440" s="41"/>
       <c r="F440" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G440" s="41"/>
     </row>
@@ -16374,13 +16380,13 @@
         <v>615</v>
       </c>
       <c r="D441" s="39" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E441" s="39" t="s">
         <v>616</v>
       </c>
       <c r="F441" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G441" s="39"/>
     </row>
@@ -16397,7 +16403,7 @@
       <c r="D442" s="41"/>
       <c r="E442" s="41"/>
       <c r="F442" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G442" s="38"/>
     </row>
@@ -16416,7 +16422,7 @@
         <v>268</v>
       </c>
       <c r="F443" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G443" s="44"/>
     </row>
@@ -16435,7 +16441,7 @@
         <v>268</v>
       </c>
       <c r="F444" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G444" s="44"/>
     </row>
@@ -16454,7 +16460,7 @@
         <v>268</v>
       </c>
       <c r="F445" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G445" s="44"/>
     </row>
@@ -16471,7 +16477,7 @@
       <c r="D446" s="41"/>
       <c r="E446" s="38"/>
       <c r="F446" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G446" s="38"/>
     </row>
@@ -16490,7 +16496,7 @@
         <v>268</v>
       </c>
       <c r="F447" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G447" s="44"/>
     </row>
@@ -16509,7 +16515,7 @@
         <v>268</v>
       </c>
       <c r="F448" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G448" s="44"/>
     </row>
@@ -16526,7 +16532,7 @@
       <c r="D449" s="41"/>
       <c r="E449" s="41"/>
       <c r="F449" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G449" s="38"/>
     </row>
@@ -16543,7 +16549,7 @@
       <c r="D450" s="41"/>
       <c r="E450" s="41"/>
       <c r="F450" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G450" s="41"/>
     </row>
@@ -16562,10 +16568,10 @@
       </c>
       <c r="E451" s="39"/>
       <c r="F451" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G451" s="44" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="452" spans="1:7" ht="30">
@@ -16583,7 +16589,7 @@
       </c>
       <c r="E452" s="39"/>
       <c r="F452" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G452" s="44"/>
     </row>
@@ -16602,7 +16608,7 @@
       </c>
       <c r="E453" s="39"/>
       <c r="F453" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G453" s="44"/>
     </row>
@@ -16619,7 +16625,7 @@
       <c r="D454" s="41"/>
       <c r="E454" s="41"/>
       <c r="F454" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G454" s="41"/>
     </row>
@@ -16636,7 +16642,7 @@
       <c r="D455" s="41"/>
       <c r="E455" s="41"/>
       <c r="F455" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G455" s="41"/>
     </row>
@@ -16655,10 +16661,10 @@
       </c>
       <c r="E456" s="39"/>
       <c r="F456" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G456" s="44" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -16676,7 +16682,7 @@
       </c>
       <c r="E457" s="39"/>
       <c r="F457" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G457" s="44"/>
     </row>
@@ -16691,11 +16697,11 @@
         <v>741</v>
       </c>
       <c r="D458" s="39" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E458" s="39"/>
       <c r="F458" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G458" s="39"/>
     </row>
@@ -16714,7 +16720,7 @@
       </c>
       <c r="E459" s="39"/>
       <c r="F459" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G459" s="39"/>
     </row>
@@ -16726,12 +16732,12 @@
         <v>744</v>
       </c>
       <c r="C460" s="39" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D460" s="39"/>
       <c r="E460" s="39"/>
       <c r="F460" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G460" s="39"/>
     </row>
@@ -16740,7 +16746,7 @@
         <v>56</v>
       </c>
       <c r="B461" s="39" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C461" s="39" t="s">
         <v>745</v>
@@ -16750,7 +16756,7 @@
       </c>
       <c r="E461" s="39"/>
       <c r="F461" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G461" s="39"/>
     </row>
@@ -16759,17 +16765,17 @@
         <v>56</v>
       </c>
       <c r="B462" s="39" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C462" s="39" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D462" s="39" t="s">
         <v>700</v>
       </c>
       <c r="E462" s="39"/>
       <c r="F462" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G462" s="39"/>
     </row>
@@ -16786,7 +16792,7 @@
       <c r="D463" s="41"/>
       <c r="E463" s="41"/>
       <c r="F463" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G463" s="41"/>
     </row>
@@ -16805,10 +16811,10 @@
       </c>
       <c r="E464" s="39"/>
       <c r="F464" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G464" s="44" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -16822,11 +16828,11 @@
         <v>604</v>
       </c>
       <c r="D465" s="39" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E465" s="39"/>
       <c r="F465" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G465" s="39"/>
     </row>
@@ -16843,7 +16849,7 @@
       <c r="D466" s="41"/>
       <c r="E466" s="41"/>
       <c r="F466" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G466" s="41"/>
     </row>
@@ -16862,10 +16868,10 @@
       </c>
       <c r="E467" s="39"/>
       <c r="F467" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G467" s="44" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="468" spans="1:7" ht="30">
@@ -16883,7 +16889,7 @@
       </c>
       <c r="E468" s="39"/>
       <c r="F468" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G468" s="44"/>
     </row>
@@ -16902,7 +16908,7 @@
       </c>
       <c r="E469" s="39"/>
       <c r="F469" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G469" s="44"/>
     </row>
@@ -16917,11 +16923,11 @@
         <v>613</v>
       </c>
       <c r="D470" s="39" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E470" s="39"/>
       <c r="F470" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G470" s="39"/>
     </row>
@@ -16936,11 +16942,11 @@
         <v>615</v>
       </c>
       <c r="D471" s="39" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E471" s="39"/>
       <c r="F471" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G471" s="39"/>
     </row>
@@ -16996,7 +17002,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>763</v>
@@ -17015,7 +17021,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>765</v>
@@ -17034,7 +17040,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>766</v>
@@ -17055,7 +17061,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>767</v>
@@ -17074,7 +17080,7 @@
         <v>770</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>771</v>
@@ -17853,7 +17859,7 @@
         <v>267</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>829</v>
@@ -17872,13 +17878,13 @@
         <v>258</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C40" s="54" t="s">
         <v>830</v>
       </c>
       <c r="D40" s="54" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
@@ -17891,13 +17897,13 @@
         <v>255</v>
       </c>
       <c r="B41" s="54" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>831</v>
       </c>
       <c r="D41" s="53" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
@@ -17910,7 +17916,7 @@
         <v>263</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>832</v>
@@ -17926,16 +17932,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="55" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B43" s="55" t="s">
         <v>787</v>
       </c>
       <c r="C43" s="55" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D43" s="55" t="s">
         <v>1234</v>
-      </c>
-      <c r="D43" s="55" t="s">
-        <v>1235</v>
       </c>
       <c r="E43" s="55"/>
       <c r="F43" s="55" t="s">
@@ -17945,16 +17951,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="55" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B44" s="55" t="s">
         <v>787</v>
       </c>
       <c r="C44" s="55" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D44" s="55" t="s">
         <v>1236</v>
-      </c>
-      <c r="D44" s="55" t="s">
-        <v>1237</v>
       </c>
       <c r="E44" s="55"/>
       <c r="F44" s="55" t="s">
@@ -17964,16 +17970,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="55" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B45" s="55" t="s">
         <v>787</v>
       </c>
       <c r="C45" s="55" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D45" s="55" t="s">
         <v>1238</v>
-      </c>
-      <c r="D45" s="55" t="s">
-        <v>1239</v>
       </c>
       <c r="E45" s="55"/>
       <c r="F45" s="55" t="s">
@@ -17983,16 +17989,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="55" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B46" s="55" t="s">
         <v>787</v>
       </c>
       <c r="C46" s="55" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D46" s="55" t="s">
         <v>1240</v>
-      </c>
-      <c r="D46" s="55" t="s">
-        <v>1241</v>
       </c>
       <c r="E46" s="55"/>
       <c r="F46" s="55" t="s">
@@ -18002,16 +18008,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="55" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B47" s="55" t="s">
         <v>787</v>
       </c>
       <c r="C47" s="55" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D47" s="55" t="s">
         <v>1242</v>
-      </c>
-      <c r="D47" s="55" t="s">
-        <v>1243</v>
       </c>
       <c r="E47" s="55"/>
       <c r="F47" s="55" t="s">
@@ -18021,16 +18027,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="55" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B48" s="55" t="s">
         <v>787</v>
       </c>
       <c r="C48" s="55" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D48" s="55" t="s">
         <v>1244</v>
-      </c>
-      <c r="D48" s="55" t="s">
-        <v>1245</v>
       </c>
       <c r="E48" s="55"/>
       <c r="F48" s="55" t="s">
@@ -18040,16 +18046,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="55" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B49" s="55" t="s">
         <v>787</v>
       </c>
       <c r="C49" s="55" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D49" s="55" t="s">
         <v>1246</v>
-      </c>
-      <c r="D49" s="55" t="s">
-        <v>1247</v>
       </c>
       <c r="E49" s="55"/>
       <c r="F49" s="55" t="s">
@@ -18059,16 +18065,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="55" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B50" s="55" t="s">
         <v>787</v>
       </c>
       <c r="C50" s="55" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D50" s="55" t="s">
         <v>1248</v>
-      </c>
-      <c r="D50" s="55" t="s">
-        <v>1249</v>
       </c>
       <c r="E50" s="55"/>
       <c r="F50" s="55" t="s">
@@ -18078,16 +18084,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="55" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B51" s="55" t="s">
         <v>787</v>
       </c>
       <c r="C51" s="55" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D51" s="55" t="s">
         <v>1250</v>
-      </c>
-      <c r="D51" s="55" t="s">
-        <v>1251</v>
       </c>
       <c r="E51" s="55"/>
       <c r="F51" s="55" t="s">
@@ -18097,16 +18103,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="55" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B52" s="55" t="s">
         <v>814</v>
       </c>
       <c r="C52" s="55" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D52" s="55" t="s">
         <v>1252</v>
-      </c>
-      <c r="D52" s="55" t="s">
-        <v>1253</v>
       </c>
       <c r="E52" s="55"/>
       <c r="F52" s="55" t="s">
@@ -18116,16 +18122,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="55" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B53" s="55" t="s">
         <v>814</v>
       </c>
       <c r="C53" s="55" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D53" s="55" t="s">
         <v>1254</v>
-      </c>
-      <c r="D53" s="55" t="s">
-        <v>1255</v>
       </c>
       <c r="E53" s="55"/>
       <c r="F53" s="55" t="s">
@@ -18135,16 +18141,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="55" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B54" s="55" t="s">
         <v>822</v>
       </c>
       <c r="C54" s="55" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D54" s="55" t="s">
         <v>1256</v>
-      </c>
-      <c r="D54" s="55" t="s">
-        <v>1257</v>
       </c>
       <c r="E54" s="55"/>
       <c r="F54" s="55" t="s">
@@ -18154,16 +18160,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="55" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B55" s="55" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C55" s="55" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D55" s="55" t="s">
         <v>1258</v>
-      </c>
-      <c r="D55" s="55" t="s">
-        <v>1259</v>
       </c>
       <c r="E55" s="55"/>
       <c r="F55" s="55" t="s">
@@ -18739,16 +18745,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="54" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>835</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
@@ -18758,16 +18764,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="54" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>835</v>
       </c>
       <c r="C17" s="54" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D17" s="54" t="s">
         <v>1062</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>1063</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
@@ -18786,7 +18792,7 @@
         <v>869</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -19365,7 +19371,7 @@
         <v>956</v>
       </c>
       <c r="D49" s="54" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -19634,9 +19640,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -19680,7 +19684,7 @@
         <v>419</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>957</v>
@@ -19699,7 +19703,7 @@
         <v>422</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C3" s="52" t="s">
         <v>959</v>
@@ -19718,7 +19722,7 @@
         <v>425</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C4" s="52" t="s">
         <v>961</v>
@@ -19737,7 +19741,7 @@
         <v>440</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>963</v>
@@ -19756,7 +19760,7 @@
         <v>428</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C6" s="52" t="s">
         <v>965</v>
@@ -19775,7 +19779,7 @@
         <v>431</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>967</v>
@@ -19794,7 +19798,7 @@
         <v>434</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>969</v>
@@ -19813,7 +19817,7 @@
         <v>437</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>971</v>
@@ -19832,7 +19836,7 @@
         <v>443</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C10" s="52" t="s">
         <v>973</v>
@@ -19851,7 +19855,7 @@
         <v>975</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>976</v>
@@ -19870,7 +19874,7 @@
         <v>446</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C12" s="52" t="s">
         <v>978</v>
@@ -19889,7 +19893,7 @@
         <v>449</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C13" s="52" t="s">
         <v>980</v>
@@ -19897,9 +19901,7 @@
       <c r="D13" s="52" t="s">
         <v>981</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>982</v>
-      </c>
+      <c r="E13" s="61"/>
       <c r="F13" s="52" t="s">
         <v>764</v>
       </c>
@@ -19910,13 +19912,13 @@
         <v>452</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C14" s="52" t="s">
+        <v>982</v>
+      </c>
+      <c r="D14" s="52" t="s">
         <v>983</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>984</v>
       </c>
       <c r="E14" s="52"/>
       <c r="F14" s="52" t="s">
@@ -19929,22 +19931,22 @@
         <v>485</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C15" s="52" t="s">
+        <v>984</v>
+      </c>
+      <c r="D15" s="52" t="s">
         <v>985</v>
       </c>
-      <c r="D15" s="52" t="s">
-        <v>986</v>
-      </c>
       <c r="E15" s="52" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>764</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="47.25" customHeight="1">
@@ -19952,13 +19954,13 @@
         <v>476</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C16" s="52" t="s">
+        <v>986</v>
+      </c>
+      <c r="D16" s="52" t="s">
         <v>987</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>988</v>
       </c>
       <c r="E16" s="52"/>
       <c r="F16" s="52" t="s">
@@ -19971,22 +19973,22 @@
         <v>488</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C17" s="52" t="s">
+        <v>988</v>
+      </c>
+      <c r="D17" s="52" t="s">
         <v>989</v>
       </c>
-      <c r="D17" s="52" t="s">
-        <v>990</v>
-      </c>
       <c r="E17" s="51" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F17" s="52" t="s">
         <v>764</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1">
@@ -19994,10 +19996,10 @@
         <v>515</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>514</v>
@@ -20013,10 +20015,10 @@
         <v>518</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>517</v>
@@ -20032,13 +20034,13 @@
         <v>521</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C20" s="52" t="s">
+        <v>992</v>
+      </c>
+      <c r="D20" s="52" t="s">
         <v>993</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>994</v>
       </c>
       <c r="E20" s="52"/>
       <c r="F20" s="52" t="s">
@@ -20051,13 +20053,13 @@
         <v>524</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C21" s="52" t="s">
+        <v>994</v>
+      </c>
+      <c r="D21" s="52" t="s">
         <v>995</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>996</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="52" t="s">
@@ -20070,13 +20072,13 @@
         <v>529</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C22" s="52" t="s">
+        <v>996</v>
+      </c>
+      <c r="D22" s="52" t="s">
         <v>997</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>998</v>
       </c>
       <c r="E22" s="52"/>
       <c r="F22" s="52" t="s">
@@ -20089,10 +20091,10 @@
         <v>471</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D23" s="52" t="s">
         <v>526</v>
@@ -20103,16 +20105,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="55" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B24" s="55" t="s">
         <v>1261</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="C24" s="55" t="s">
         <v>1262</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="D24" s="55" t="s">
         <v>1263</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>1264</v>
       </c>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
@@ -20120,16 +20122,16 @@
     </row>
     <row r="25" spans="1:7" ht="45">
       <c r="A25" s="55" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C25" s="55" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D25" s="55" t="s">
         <v>1265</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>1266</v>
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
@@ -20137,16 +20139,16 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="55" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C26" s="55" t="s">
         <v>1267</v>
       </c>
-      <c r="B26" s="55" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C26" s="55" t="s">
+      <c r="D26" s="55" t="s">
         <v>1268</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>1269</v>
       </c>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
@@ -20154,16 +20156,16 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="55" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C27" s="55" t="s">
         <v>1270</v>
       </c>
-      <c r="B27" s="55" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C27" s="55" t="s">
+      <c r="D27" s="55" t="s">
         <v>1271</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>1272</v>
       </c>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
@@ -20171,16 +20173,16 @@
     </row>
     <row r="28" spans="1:7" ht="30">
       <c r="A28" s="55" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C28" s="55" t="s">
         <v>1273</v>
       </c>
-      <c r="B28" s="55" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C28" s="55" t="s">
+      <c r="D28" s="55" t="s">
         <v>1274</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>1275</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
@@ -20188,16 +20190,16 @@
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="55" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C29" s="55" t="s">
         <v>1276</v>
       </c>
-      <c r="B29" s="55" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C29" s="55" t="s">
+      <c r="D29" s="55" t="s">
         <v>1277</v>
-      </c>
-      <c r="D29" s="55" t="s">
-        <v>1278</v>
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
@@ -20205,16 +20207,16 @@
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="55" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C30" s="55" t="s">
         <v>1279</v>
       </c>
-      <c r="B30" s="55" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C30" s="55" t="s">
+      <c r="D30" s="55" t="s">
         <v>1280</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>1281</v>
       </c>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
@@ -20234,7 +20236,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:IV4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -20271,43 +20275,39 @@
         <v>762</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="126">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="51" t="s">
         <v>1001</v>
       </c>
-      <c r="C2" s="51" t="s">
-        <v>1002</v>
-      </c>
       <c r="D2" s="51" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1283</v>
-      </c>
+        <v>1281</v>
+      </c>
+      <c r="E2" s="61"/>
       <c r="F2" s="54" t="s">
         <v>764</v>
       </c>
       <c r="G2" s="54"/>
     </row>
-    <row r="3" spans="1:7" ht="31.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>1003</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>1004</v>
-      </c>
       <c r="D3" s="52" t="s">
-        <v>1284</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>1285</v>
-      </c>
+        <v>1282</v>
+      </c>
+      <c r="E3" s="62"/>
       <c r="F3" s="6" t="s">
         <v>764</v>
       </c>
@@ -20315,20 +20315,18 @@
     </row>
     <row r="4" spans="1:7" ht="63">
       <c r="A4" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="52" t="s">
         <v>1005</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>1006</v>
-      </c>
       <c r="D4" s="51" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1230</v>
-      </c>
+        <v>1283</v>
+      </c>
+      <c r="E4" s="61"/>
       <c r="F4" s="6" t="s">
         <v>764</v>
       </c>
@@ -20638,23 +20636,23 @@
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1007</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>1009</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>1010</v>
       </c>
       <c r="E2" s="56"/>
       <c r="F2" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
@@ -20662,13 +20660,13 @@
         <v>627</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>1012</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1013</v>
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="6" t="s">
@@ -20681,13 +20679,13 @@
         <v>557</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>1014</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1015</v>
       </c>
       <c r="E4" s="57"/>
       <c r="F4" s="6" t="s">
@@ -20700,13 +20698,13 @@
         <v>560</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>1016</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>1017</v>
       </c>
       <c r="E5" s="57"/>
       <c r="F5" s="6" t="s">
@@ -20719,13 +20717,13 @@
         <v>563</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>1018</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>1019</v>
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="6" t="s">
@@ -20738,22 +20736,22 @@
         <v>566</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>1020</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>1021</v>
-      </c>
       <c r="E7" s="59" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5" customHeight="1">
@@ -20761,13 +20759,13 @@
         <v>571</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>1022</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1023</v>
       </c>
       <c r="E8" s="57"/>
       <c r="F8" s="6" t="s">
@@ -20780,13 +20778,13 @@
         <v>574</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>1024</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1025</v>
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="6" t="s">
@@ -20799,13 +20797,13 @@
         <v>577</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>1026</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1027</v>
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="6" t="s">
@@ -20818,13 +20816,13 @@
         <v>580</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>1028</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>1029</v>
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="6" t="s">
@@ -20837,10 +20835,10 @@
         <v>583</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>582</v>
@@ -20856,22 +20854,22 @@
         <v>586</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>1031</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>1032</v>
-      </c>
       <c r="E13" s="57" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -20879,20 +20877,20 @@
         <v>595</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>1033</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>1034</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1">
@@ -20900,13 +20898,13 @@
         <v>598</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>1035</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>1036</v>
       </c>
       <c r="E15" s="57"/>
       <c r="F15" s="6" t="s">
@@ -20919,13 +20917,13 @@
         <v>630</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>1037</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>1038</v>
       </c>
       <c r="E16" s="57"/>
       <c r="F16" s="6" t="s">
@@ -20935,16 +20933,16 @@
     </row>
     <row r="17" spans="1:256" ht="31.5" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>1040</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1041</v>
       </c>
       <c r="E17" s="57"/>
       <c r="F17" s="6" t="s">
@@ -20957,13 +20955,13 @@
         <v>662</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>1042</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>1043</v>
       </c>
       <c r="E18" s="57"/>
       <c r="F18" s="6" t="s">
@@ -20973,25 +20971,25 @@
     </row>
     <row r="19" spans="1:256" ht="31.5" customHeight="1">
       <c r="A19" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>1044</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>1045</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>1046</v>
-      </c>
       <c r="E19" s="59" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G19" s="54" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1">
@@ -20999,13 +20997,13 @@
         <v>697</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>1047</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>1048</v>
       </c>
       <c r="E20" s="57"/>
       <c r="F20" s="6" t="s">
@@ -21018,56 +21016,56 @@
         <v>700</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>1049</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="57" t="s">
         <v>1050</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>1051</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="22" spans="1:256" ht="31.5" customHeight="1">
       <c r="A22" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>1053</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>1054</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>1055</v>
-      </c>
       <c r="E22" s="59" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>783</v>
       </c>
       <c r="G22" s="54" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="23" spans="1:256" s="33" customFormat="1" ht="31.5">
       <c r="A23" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>1073</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>1074</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>609</v>
@@ -21327,13 +21325,13 @@
     </row>
     <row r="24" spans="1:256" s="33" customFormat="1">
       <c r="A24" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>613</v>
@@ -21593,13 +21591,13 @@
     </row>
     <row r="25" spans="1:256" s="33" customFormat="1">
       <c r="A25" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>604</v>
@@ -21859,13 +21857,13 @@
     </row>
     <row r="26" spans="1:256" s="33" customFormat="1" ht="31.5">
       <c r="A26" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>615</v>
@@ -22125,13 +22123,13 @@
     </row>
     <row r="27" spans="1:256" s="33" customFormat="1">
       <c r="A27" s="58" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>741</v>
@@ -22691,40 +22689,40 @@
     </row>
     <row r="2" spans="1:256" ht="31.5">
       <c r="A2" s="53" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="31.5">
       <c r="A3" s="53" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B3" s="53" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1293</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>1296</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>783</v>
@@ -22733,19 +22731,19 @@
     </row>
     <row r="4" spans="1:256" ht="31.5">
       <c r="A4" s="6" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>783</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_Production_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9351E9E-26C7-456F-AABC-D6C12091E33A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADAB12F-7622-4E86-B7FC-22FA06CE9A39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1710" windowWidth="26190" windowHeight="12315" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="1306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="1307">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3953,6 +3953,9 @@
   </si>
   <si>
     <t>The Patron Header Version field has a value of 0x03.</t>
+  </si>
+  <si>
+    <t>9.3.2.5</t>
   </si>
 </sst>
 </file>
@@ -4793,13 +4796,13 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.3984375" style="4" customWidth="1"/>
     <col min="3" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
+    <col min="6" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -5456,7 +5459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.5">
+    <row r="74" spans="1:5" ht="31.2">
       <c r="A74" s="3" t="s">
         <v>197</v>
       </c>
@@ -5544,7 +5547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31.5">
+    <row r="85" spans="1:2" ht="31.2">
       <c r="A85" s="3" t="s">
         <v>208</v>
       </c>
@@ -5632,7 +5635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.5">
+    <row r="96" spans="1:2" ht="31.2">
       <c r="A96" s="3" t="s">
         <v>219</v>
       </c>
@@ -5720,7 +5723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" ht="31.2">
       <c r="A107" s="3" t="s">
         <v>230</v>
       </c>
@@ -5776,7 +5779,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.5">
+    <row r="114" spans="1:2" ht="31.2">
       <c r="A114" s="3" t="s">
         <v>244</v>
       </c>
@@ -5792,7 +5795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="28.5">
+    <row r="116" spans="1:2" ht="27.6">
       <c r="A116" s="3" t="s">
         <v>247</v>
       </c>
@@ -5832,7 +5835,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="47.25">
+    <row r="121" spans="1:2" ht="46.8">
       <c r="A121" s="3" t="s">
         <v>256</v>
       </c>
@@ -5848,7 +5851,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="63">
+    <row r="123" spans="1:2" ht="62.4">
       <c r="A123" s="3" t="s">
         <v>261</v>
       </c>
@@ -6000,7 +6003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.5">
+    <row r="142" spans="1:2" ht="31.2">
       <c r="A142" s="3" t="s">
         <v>284</v>
       </c>
@@ -6016,7 +6019,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="31.5">
+    <row r="144" spans="1:2" ht="31.2">
       <c r="A144" s="3" t="s">
         <v>288</v>
       </c>
@@ -6024,7 +6027,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="47.25">
+    <row r="145" spans="1:2" ht="46.8">
       <c r="A145" s="3" t="s">
         <v>290</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="47.25">
+    <row r="146" spans="1:2" ht="46.8">
       <c r="A146" s="3" t="s">
         <v>292</v>
       </c>
@@ -6056,7 +6059,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="47.25">
+    <row r="149" spans="1:2" ht="46.8">
       <c r="A149" s="3" t="s">
         <v>298</v>
       </c>
@@ -6072,7 +6075,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="63">
+    <row r="151" spans="1:2" ht="62.4">
       <c r="A151" s="3" t="s">
         <v>302</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31.5">
+    <row r="152" spans="1:2" ht="31.2">
       <c r="A152" s="3" t="s">
         <v>304</v>
       </c>
@@ -6088,7 +6091,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31.5">
+    <row r="153" spans="1:2" ht="31.2">
       <c r="A153" s="3" t="s">
         <v>306</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="31.5">
+    <row r="161" spans="1:2" ht="31.2">
       <c r="A161" s="3" t="s">
         <v>314</v>
       </c>
@@ -6168,7 +6171,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="31.5">
+    <row r="163" spans="1:2" ht="31.2">
       <c r="A163" s="3" t="s">
         <v>316</v>
       </c>
@@ -6176,7 +6179,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.5">
+    <row r="164" spans="1:2" ht="31.2">
       <c r="A164" s="3" t="s">
         <v>317</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="47.25">
+    <row r="165" spans="1:2" ht="46.8">
       <c r="A165" s="3" t="s">
         <v>319</v>
       </c>
@@ -6208,7 +6211,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="31.5">
+    <row r="168" spans="1:2" ht="31.2">
       <c r="A168" s="3" t="s">
         <v>323</v>
       </c>
@@ -6224,7 +6227,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="63">
+    <row r="170" spans="1:2" ht="62.4">
       <c r="A170" s="3" t="s">
         <v>327</v>
       </c>
@@ -6232,7 +6235,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="31.5">
+    <row r="171" spans="1:2" ht="31.2">
       <c r="A171" s="3" t="s">
         <v>328</v>
       </c>
@@ -6240,7 +6243,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31.5">
+    <row r="172" spans="1:2" ht="31.2">
       <c r="A172" s="3" t="s">
         <v>329</v>
       </c>
@@ -6336,7 +6339,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="47.25">
+    <row r="184" spans="1:2" ht="46.8">
       <c r="A184" s="3" t="s">
         <v>319</v>
       </c>
@@ -6352,7 +6355,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" ht="31.2">
       <c r="A186" s="3" t="s">
         <v>344</v>
       </c>
@@ -6360,7 +6363,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="31.5">
+    <row r="187" spans="1:2" ht="31.2">
       <c r="A187" s="3" t="s">
         <v>346</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="63">
+    <row r="189" spans="1:2" ht="62.4">
       <c r="A189" s="3" t="s">
         <v>349</v>
       </c>
@@ -6384,7 +6387,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.5">
+    <row r="190" spans="1:2" ht="31.2">
       <c r="A190" s="3" t="s">
         <v>350</v>
       </c>
@@ -6392,7 +6395,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31.5">
+    <row r="191" spans="1:2" ht="31.2">
       <c r="A191" s="3" t="s">
         <v>351</v>
       </c>
@@ -6440,7 +6443,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="47.25">
+    <row r="197" spans="1:2" ht="46.8">
       <c r="A197" s="3" t="s">
         <v>361</v>
       </c>
@@ -6448,7 +6451,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="47.25">
+    <row r="198" spans="1:2" ht="46.8">
       <c r="A198" s="3" t="s">
         <v>363</v>
       </c>
@@ -6472,7 +6475,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="31.5">
+    <row r="201" spans="1:2" ht="31.2">
       <c r="A201" s="3" t="s">
         <v>368</v>
       </c>
@@ -6480,7 +6483,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="31.5">
+    <row r="202" spans="1:2" ht="31.2">
       <c r="A202" s="3" t="s">
         <v>370</v>
       </c>
@@ -6584,7 +6587,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="31.5">
+    <row r="215" spans="1:2" ht="31.2">
       <c r="A215" s="3" t="s">
         <v>395</v>
       </c>
@@ -6728,7 +6731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="47.25">
+    <row r="233" spans="1:2" ht="46.8">
       <c r="A233" s="3" t="s">
         <v>417</v>
       </c>
@@ -6744,7 +6747,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="31.5">
+    <row r="235" spans="1:2" ht="31.2">
       <c r="A235" s="3" t="s">
         <v>423</v>
       </c>
@@ -6752,7 +6755,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="31.5">
+    <row r="236" spans="1:2" ht="31.2">
       <c r="A236" s="3" t="s">
         <v>426</v>
       </c>
@@ -6768,7 +6771,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" ht="31.2">
       <c r="A238" s="3" t="s">
         <v>432</v>
       </c>
@@ -6776,7 +6779,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="47.25">
+    <row r="239" spans="1:2" ht="62.4">
       <c r="A239" s="3" t="s">
         <v>435</v>
       </c>
@@ -6784,7 +6787,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="47.25">
+    <row r="240" spans="1:2" ht="46.8">
       <c r="A240" s="3" t="s">
         <v>438</v>
       </c>
@@ -6792,7 +6795,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="78.75">
+    <row r="241" spans="1:2" ht="78">
       <c r="A241" s="3" t="s">
         <v>441</v>
       </c>
@@ -6800,7 +6803,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="47.25">
+    <row r="242" spans="1:2" ht="62.4">
       <c r="A242" s="3" t="s">
         <v>444</v>
       </c>
@@ -6808,7 +6811,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="78.75">
+    <row r="243" spans="1:2" ht="78">
       <c r="A243" s="3" t="s">
         <v>447</v>
       </c>
@@ -6816,7 +6819,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="31.5">
+    <row r="244" spans="1:2" ht="31.2">
       <c r="A244" s="3" t="s">
         <v>450</v>
       </c>
@@ -6840,7 +6843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="47.25">
+    <row r="247" spans="1:2" ht="46.8">
       <c r="A247" s="3" t="s">
         <v>455</v>
       </c>
@@ -6856,7 +6859,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="31.5">
+    <row r="249" spans="1:2" ht="31.2">
       <c r="A249" s="3" t="s">
         <v>459</v>
       </c>
@@ -6864,7 +6867,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="31.5">
+    <row r="250" spans="1:2" ht="31.2">
       <c r="A250" s="3" t="s">
         <v>461</v>
       </c>
@@ -6880,7 +6883,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" ht="31.2">
       <c r="A252" s="3" t="s">
         <v>464</v>
       </c>
@@ -6896,7 +6899,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="31.5">
+    <row r="254" spans="1:2" ht="31.2">
       <c r="A254" s="3" t="s">
         <v>467</v>
       </c>
@@ -6904,7 +6907,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="31.5">
+    <row r="255" spans="1:2" ht="31.2">
       <c r="A255" s="3" t="s">
         <v>469</v>
       </c>
@@ -6912,7 +6915,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="31.5">
+    <row r="256" spans="1:2" ht="31.2">
       <c r="A256" s="3" t="s">
         <v>472</v>
       </c>
@@ -6920,7 +6923,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="47.25">
+    <row r="257" spans="1:2" ht="46.8">
       <c r="A257" s="3" t="s">
         <v>474</v>
       </c>
@@ -6928,7 +6931,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="47.25">
+    <row r="258" spans="1:2" ht="62.4">
       <c r="A258" s="3" t="s">
         <v>477</v>
       </c>
@@ -6936,7 +6939,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="63">
+    <row r="259" spans="1:2" ht="62.4">
       <c r="A259" s="3" t="s">
         <v>479</v>
       </c>
@@ -6944,7 +6947,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="78.75">
+    <row r="260" spans="1:2" ht="78">
       <c r="A260" s="3" t="s">
         <v>481</v>
       </c>
@@ -6952,7 +6955,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="78.75">
+    <row r="261" spans="1:2" ht="78">
       <c r="A261" s="3" t="s">
         <v>483</v>
       </c>
@@ -6960,7 +6963,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="47.25">
+    <row r="262" spans="1:2" ht="46.8">
       <c r="A262" s="3" t="s">
         <v>486</v>
       </c>
@@ -6984,7 +6987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="47.25">
+    <row r="265" spans="1:2" ht="46.8">
       <c r="A265" s="3" t="s">
         <v>490</v>
       </c>
@@ -7000,7 +7003,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="31.5">
+    <row r="267" spans="1:2" ht="31.2">
       <c r="A267" s="3" t="s">
         <v>492</v>
       </c>
@@ -7008,7 +7011,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="31.5">
+    <row r="268" spans="1:2" ht="31.2">
       <c r="A268" s="3" t="s">
         <v>493</v>
       </c>
@@ -7024,7 +7027,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" ht="31.2">
       <c r="A270" s="3" t="s">
         <v>495</v>
       </c>
@@ -7040,7 +7043,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="31.5">
+    <row r="272" spans="1:2" ht="31.2">
       <c r="A272" s="3" t="s">
         <v>497</v>
       </c>
@@ -7048,7 +7051,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="31.5">
+    <row r="273" spans="1:2" ht="31.2">
       <c r="A273" s="3" t="s">
         <v>498</v>
       </c>
@@ -7056,7 +7059,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="31.5">
+    <row r="274" spans="1:2" ht="31.2">
       <c r="A274" s="3" t="s">
         <v>499</v>
       </c>
@@ -7064,7 +7067,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="47.25">
+    <row r="275" spans="1:2" ht="46.8">
       <c r="A275" s="3" t="s">
         <v>500</v>
       </c>
@@ -7072,7 +7075,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="47.25">
+    <row r="276" spans="1:2" ht="62.4">
       <c r="A276" s="3" t="s">
         <v>501</v>
       </c>
@@ -7080,7 +7083,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="63">
+    <row r="277" spans="1:2" ht="62.4">
       <c r="A277" s="3" t="s">
         <v>502</v>
       </c>
@@ -7088,7 +7091,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="78.75">
+    <row r="278" spans="1:2" ht="78">
       <c r="A278" s="3" t="s">
         <v>503</v>
       </c>
@@ -7096,7 +7099,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="78.75">
+    <row r="279" spans="1:2" ht="78">
       <c r="A279" s="3" t="s">
         <v>504</v>
       </c>
@@ -7104,7 +7107,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="47.25">
+    <row r="280" spans="1:2" ht="46.8">
       <c r="A280" s="3" t="s">
         <v>505</v>
       </c>
@@ -7128,7 +7131,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="31.5">
+    <row r="283" spans="1:2" ht="31.2">
       <c r="A283" s="3" t="s">
         <v>507</v>
       </c>
@@ -7144,7 +7147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="31.5">
+    <row r="285" spans="1:2" ht="31.2">
       <c r="A285" s="3" t="s">
         <v>511</v>
       </c>
@@ -7168,7 +7171,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="47.25">
+    <row r="288" spans="1:2" ht="46.8">
       <c r="A288" s="3" t="s">
         <v>519</v>
       </c>
@@ -7192,7 +7195,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="78.75">
+    <row r="291" spans="1:2" ht="78">
       <c r="A291" s="3" t="s">
         <v>527</v>
       </c>
@@ -7216,7 +7219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="47.25">
+    <row r="294" spans="1:2" ht="46.8">
       <c r="A294" s="3" t="s">
         <v>531</v>
       </c>
@@ -7232,7 +7235,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="31.5">
+    <row r="296" spans="1:2" ht="31.2">
       <c r="A296" s="3" t="s">
         <v>533</v>
       </c>
@@ -7240,7 +7243,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="31.5">
+    <row r="297" spans="1:2" ht="31.2">
       <c r="A297" s="3" t="s">
         <v>534</v>
       </c>
@@ -7256,7 +7259,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" ht="31.2">
       <c r="A299" s="3" t="s">
         <v>536</v>
       </c>
@@ -7272,7 +7275,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="31.5">
+    <row r="301" spans="1:2" ht="31.2">
       <c r="A301" s="3" t="s">
         <v>538</v>
       </c>
@@ -7280,7 +7283,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="31.5">
+    <row r="302" spans="1:2" ht="31.2">
       <c r="A302" s="3" t="s">
         <v>539</v>
       </c>
@@ -7288,7 +7291,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="31.5">
+    <row r="303" spans="1:2" ht="31.2">
       <c r="A303" s="3" t="s">
         <v>540</v>
       </c>
@@ -7296,7 +7299,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="47.25">
+    <row r="304" spans="1:2" ht="46.8">
       <c r="A304" s="3" t="s">
         <v>541</v>
       </c>
@@ -7304,7 +7307,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="47.25">
+    <row r="305" spans="1:2" ht="62.4">
       <c r="A305" s="3" t="s">
         <v>542</v>
       </c>
@@ -7312,7 +7315,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="63">
+    <row r="306" spans="1:2" ht="62.4">
       <c r="A306" s="3" t="s">
         <v>543</v>
       </c>
@@ -7320,7 +7323,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="78.75">
+    <row r="307" spans="1:2" ht="78">
       <c r="A307" s="3" t="s">
         <v>544</v>
       </c>
@@ -7328,7 +7331,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="78.75">
+    <row r="308" spans="1:2" ht="78">
       <c r="A308" s="3" t="s">
         <v>545</v>
       </c>
@@ -7336,7 +7339,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="47.25">
+    <row r="309" spans="1:2" ht="46.8">
       <c r="A309" s="3" t="s">
         <v>546</v>
       </c>
@@ -7368,7 +7371,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="94.5">
+    <row r="313" spans="1:2" ht="93.6">
       <c r="A313" s="3" t="s">
         <v>548</v>
       </c>
@@ -7376,7 +7379,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="31.5">
+    <row r="314" spans="1:2" ht="31.2">
       <c r="A314" s="3" t="s">
         <v>550</v>
       </c>
@@ -7424,7 +7427,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="31.5">
+    <row r="320" spans="1:2" ht="31.2">
       <c r="A320" s="3" t="s">
         <v>564</v>
       </c>
@@ -7456,7 +7459,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="31.5">
+    <row r="324" spans="1:2" ht="46.8">
       <c r="A324" s="3" t="s">
         <v>575</v>
       </c>
@@ -7472,7 +7475,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="31.5">
+    <row r="326" spans="1:2" ht="31.2">
       <c r="A326" s="3" t="s">
         <v>581</v>
       </c>
@@ -7488,7 +7491,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="63">
+    <row r="328" spans="1:2" ht="62.4">
       <c r="A328" s="3" t="s">
         <v>587</v>
       </c>
@@ -7496,7 +7499,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="47.25">
+    <row r="329" spans="1:2" ht="46.8">
       <c r="A329" s="3" t="s">
         <v>589</v>
       </c>
@@ -7512,7 +7515,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="31.5">
+    <row r="331" spans="1:2" ht="31.2">
       <c r="A331" s="3" t="s">
         <v>593</v>
       </c>
@@ -7520,7 +7523,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="31.5">
+    <row r="332" spans="1:2" ht="31.2">
       <c r="A332" s="3" t="s">
         <v>596</v>
       </c>
@@ -7576,7 +7579,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="31.5">
+    <row r="339" spans="1:2" ht="31.2">
       <c r="A339" s="3" t="s">
         <v>610</v>
       </c>
@@ -7616,7 +7619,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="94.5">
+    <row r="344" spans="1:2" ht="93.6">
       <c r="A344" s="3" t="s">
         <v>618</v>
       </c>
@@ -7624,7 +7627,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="31.5">
+    <row r="345" spans="1:2" ht="31.2">
       <c r="A345" s="3" t="s">
         <v>619</v>
       </c>
@@ -7672,7 +7675,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="31.5">
+    <row r="351" spans="1:2" ht="31.2">
       <c r="A351" s="3" t="s">
         <v>631</v>
       </c>
@@ -7680,7 +7683,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="31.5">
+    <row r="352" spans="1:2" ht="31.2">
       <c r="A352" s="3" t="s">
         <v>633</v>
       </c>
@@ -7688,7 +7691,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="31.5">
+    <row r="353" spans="1:2" ht="31.2">
       <c r="A353" s="3" t="s">
         <v>635</v>
       </c>
@@ -7696,7 +7699,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="31.5">
+    <row r="354" spans="1:2" ht="46.8">
       <c r="A354" s="3" t="s">
         <v>637</v>
       </c>
@@ -7752,7 +7755,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="31.5">
+    <row r="361" spans="1:2" ht="31.2">
       <c r="A361" s="3" t="s">
         <v>646</v>
       </c>
@@ -7792,7 +7795,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="78.75">
+    <row r="366" spans="1:2" ht="78">
       <c r="A366" s="3" t="s">
         <v>650</v>
       </c>
@@ -7800,7 +7803,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="31.5">
+    <row r="367" spans="1:2" ht="31.2">
       <c r="A367" s="3" t="s">
         <v>652</v>
       </c>
@@ -7832,7 +7835,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="31.5">
+    <row r="371" spans="1:2" ht="31.2">
       <c r="A371" s="3" t="s">
         <v>658</v>
       </c>
@@ -7840,7 +7843,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="31.5">
+    <row r="372" spans="1:2" ht="31.2">
       <c r="A372" s="3" t="s">
         <v>660</v>
       </c>
@@ -7856,7 +7859,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="31.5">
+    <row r="374" spans="1:2" ht="31.2">
       <c r="A374" s="3" t="s">
         <v>665</v>
       </c>
@@ -7864,7 +7867,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="31.5">
+    <row r="375" spans="1:2" ht="31.2">
       <c r="A375" s="3" t="s">
         <v>667</v>
       </c>
@@ -7872,7 +7875,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="31.5">
+    <row r="376" spans="1:2" ht="46.8">
       <c r="A376" s="3" t="s">
         <v>669</v>
       </c>
@@ -7928,7 +7931,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="31.5">
+    <row r="383" spans="1:2" ht="31.2">
       <c r="A383" s="3" t="s">
         <v>676</v>
       </c>
@@ -7968,7 +7971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="78.75">
+    <row r="388" spans="1:2" ht="78">
       <c r="A388" s="3" t="s">
         <v>680</v>
       </c>
@@ -7976,7 +7979,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="31.5">
+    <row r="389" spans="1:2" ht="31.2">
       <c r="A389" s="3" t="s">
         <v>681</v>
       </c>
@@ -8032,7 +8035,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="31.5">
+    <row r="396" spans="1:2" ht="31.2">
       <c r="A396" s="3" t="s">
         <v>691</v>
       </c>
@@ -8056,7 +8059,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="31.5">
+    <row r="399" spans="1:2" ht="31.2">
       <c r="A399" s="3" t="s">
         <v>698</v>
       </c>
@@ -8096,7 +8099,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="31.5">
+    <row r="404" spans="1:2" ht="31.2">
       <c r="A404" s="3" t="s">
         <v>707</v>
       </c>
@@ -8120,7 +8123,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="31.5">
+    <row r="407" spans="1:2" ht="31.2">
       <c r="A407" s="3" t="s">
         <v>710</v>
       </c>
@@ -8136,7 +8139,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="63">
+    <row r="409" spans="1:2" ht="62.4">
       <c r="A409" s="3" t="s">
         <v>712</v>
       </c>
@@ -8144,7 +8147,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="47.25">
+    <row r="410" spans="1:2" ht="46.8">
       <c r="A410" s="3" t="s">
         <v>713</v>
       </c>
@@ -8160,7 +8163,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="31.5">
+    <row r="412" spans="1:2" ht="31.2">
       <c r="A412" s="3" t="s">
         <v>716</v>
       </c>
@@ -8216,7 +8219,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31.5">
+    <row r="419" spans="1:2" ht="31.2">
       <c r="A419" s="3" t="s">
         <v>723</v>
       </c>
@@ -8312,7 +8315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="78.75">
+    <row r="431" spans="1:2" ht="78">
       <c r="A431" s="3" t="s">
         <v>732</v>
       </c>
@@ -8320,7 +8323,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31.5">
+    <row r="432" spans="1:2" ht="31.2">
       <c r="A432" s="3" t="s">
         <v>733</v>
       </c>
@@ -8376,7 +8379,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="31.5">
+    <row r="439" spans="1:2" ht="31.2">
       <c r="A439" s="3" t="s">
         <v>742</v>
       </c>
@@ -8384,7 +8387,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="47.25">
+    <row r="440" spans="1:2" ht="46.8">
       <c r="A440" s="3" t="s">
         <v>744</v>
       </c>
@@ -8448,7 +8451,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="31.5">
+    <row r="448" spans="1:2" ht="31.2">
       <c r="A448" s="3" t="s">
         <v>753</v>
       </c>
@@ -8487,24 +8490,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145:XFD145"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="43.69921875" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="84.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="80.875" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.09765625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="84.59765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="80.8984375" style="31" customWidth="1"/>
     <col min="8" max="1026" width="8.5" style="17" customWidth="1"/>
     <col min="1027" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="30" customFormat="1" ht="18.75">
+    <row r="1" spans="1:7" s="30" customFormat="1" ht="18">
       <c r="A1" s="35" t="s">
         <v>52</v>
       </c>
@@ -11718,7 +11721,7 @@
       <c r="F174" s="39"/>
       <c r="G174" s="39"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" ht="30">
       <c r="A175" s="39" t="s">
         <v>56</v>
       </c>
@@ -12039,7 +12042,7 @@
       <c r="F193" s="39"/>
       <c r="G193" s="39"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" ht="30">
       <c r="A194" s="39" t="s">
         <v>56</v>
       </c>
@@ -12297,7 +12300,7 @@
         <v>56</v>
       </c>
       <c r="B209" s="39" t="s">
-        <v>319</v>
+        <v>1306</v>
       </c>
       <c r="C209" s="39" t="s">
         <v>293</v>
@@ -12360,7 +12363,7 @@
       <c r="F212" s="39"/>
       <c r="G212" s="39"/>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" ht="30">
       <c r="A213" s="39" t="s">
         <v>56</v>
       </c>
@@ -13206,7 +13209,7 @@
       <c r="F262" s="39"/>
       <c r="G262" s="43"/>
     </row>
-    <row r="263" spans="1:7" ht="60">
+    <row r="263" spans="1:7" ht="75">
       <c r="A263" s="39" t="s">
         <v>56</v>
       </c>
@@ -13223,7 +13226,7 @@
       <c r="F263" s="39"/>
       <c r="G263" s="43"/>
     </row>
-    <row r="264" spans="1:7" ht="30">
+    <row r="264" spans="1:7" ht="45">
       <c r="A264" s="39" t="s">
         <v>56</v>
       </c>
@@ -14018,7 +14021,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" ht="30">
       <c r="A311" s="39" t="s">
         <v>56</v>
       </c>
@@ -14052,7 +14055,7 @@
       <c r="F312" s="39"/>
       <c r="G312" s="43"/>
     </row>
-    <row r="313" spans="1:7" ht="45">
+    <row r="313" spans="1:7" ht="60">
       <c r="A313" s="39" t="s">
         <v>56</v>
       </c>
@@ -17017,14 +17020,14 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="81.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.09765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="81.3984375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -17110,7 +17113,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="126">
+    <row r="5" spans="1:7" ht="140.4">
       <c r="A5" s="3" t="s">
         <v>68</v>
       </c>
@@ -17166,15 +17169,15 @@
       <selection sqref="A1:G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="100" style="4" customWidth="1"/>
-    <col min="5" max="6" width="22.875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="22.8984375" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -17315,7 +17318,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5">
+    <row r="8" spans="1:7" ht="31.2">
       <c r="A8" s="6" t="s">
         <v>784</v>
       </c>
@@ -17868,7 +17871,7 @@
       </c>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" ht="63">
+    <row r="37" spans="1:7" ht="78">
       <c r="A37" s="6" t="s">
         <v>246</v>
       </c>
@@ -17889,7 +17892,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.5">
+    <row r="38" spans="1:7" ht="31.2">
       <c r="A38" s="6" t="s">
         <v>509</v>
       </c>
@@ -17965,7 +17968,7 @@
       </c>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25">
+    <row r="42" spans="1:7" ht="46.8">
       <c r="A42" s="6" t="s">
         <v>263</v>
       </c>
@@ -18249,19 +18252,19 @@
       <selection sqref="A1:D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="80.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="80.8984375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="22" customFormat="1" ht="30.95" customHeight="1">
+    <row r="1" spans="1:256" s="22" customFormat="1" ht="30.9" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>756</v>
       </c>
@@ -19255,7 +19258,7 @@
       </c>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" ht="30.95" customHeight="1">
+    <row r="40" spans="1:7" ht="30.9" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>924</v>
       </c>
@@ -19308,7 +19311,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7" ht="30.95" customHeight="1">
+    <row r="43" spans="1:7" ht="30.9" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>934</v>
       </c>
@@ -19416,7 +19419,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:256" s="29" customFormat="1" ht="31.5">
+    <row r="49" spans="1:256" s="29" customFormat="1" ht="31.2">
       <c r="A49" s="53" t="s">
         <v>955</v>
       </c>
@@ -19712,17 +19715,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.3984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.3984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="4" customWidth="1"/>
     <col min="7" max="7" width="29" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -20190,7 +20193,7 @@
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
     </row>
-    <row r="25" spans="1:7" ht="45">
+    <row r="25" spans="1:7" ht="43.2">
       <c r="A25" s="54" t="s">
         <v>1216</v>
       </c>
@@ -20207,7 +20210,7 @@
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
     </row>
-    <row r="26" spans="1:7" ht="30">
+    <row r="26" spans="1:7" ht="28.8">
       <c r="A26" s="54" t="s">
         <v>1266</v>
       </c>
@@ -20224,7 +20227,7 @@
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
     </row>
-    <row r="27" spans="1:7" ht="30">
+    <row r="27" spans="1:7" ht="28.8">
       <c r="A27" s="54" t="s">
         <v>1269</v>
       </c>
@@ -20241,7 +20244,7 @@
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
     </row>
-    <row r="28" spans="1:7" ht="30">
+    <row r="28" spans="1:7" ht="28.8">
       <c r="A28" s="54" t="s">
         <v>1272</v>
       </c>
@@ -20258,7 +20261,7 @@
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
     </row>
-    <row r="29" spans="1:7" ht="30">
+    <row r="29" spans="1:7" ht="28.8">
       <c r="A29" s="54" t="s">
         <v>1275</v>
       </c>
@@ -20275,7 +20278,7 @@
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
     </row>
-    <row r="30" spans="1:7" ht="30">
+    <row r="30" spans="1:7" ht="28.8">
       <c r="A30" s="54" t="s">
         <v>1278</v>
       </c>
@@ -20310,15 +20313,15 @@
       <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="75.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="75.59765625" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -20383,7 +20386,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="63">
+    <row r="4" spans="1:7" ht="62.4">
       <c r="A4" s="5" t="s">
         <v>1004</v>
       </c>
@@ -20418,17 +20421,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="18" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="18" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="31.8984375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="18" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="18" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="18" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="18" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -21127,7 +21130,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="23" spans="1:256" s="33" customFormat="1" ht="31.5">
+    <row r="23" spans="1:256" s="33" customFormat="1" ht="31.2">
       <c r="A23" s="6" t="s">
         <v>1072</v>
       </c>
@@ -21925,7 +21928,7 @@
       <c r="IU25" s="32"/>
       <c r="IV25" s="32"/>
     </row>
-    <row r="26" spans="1:256" s="33" customFormat="1" ht="31.5">
+    <row r="26" spans="1:256" s="33" customFormat="1" ht="31.2">
       <c r="A26" s="6" t="s">
         <v>1068</v>
       </c>
@@ -22473,15 +22476,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="17" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="17" customWidth="1"/>
     <col min="4" max="5" width="44.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="17" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="17" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="17" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -22757,7 +22760,7 @@
       <c r="IU1" s="21"/>
       <c r="IV1" s="21"/>
     </row>
-    <row r="2" spans="1:256" ht="31.5">
+    <row r="2" spans="1:256" ht="31.2">
       <c r="A2" s="52" t="s">
         <v>1204</v>
       </c>
@@ -22778,7 +22781,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="31.5">
+    <row r="3" spans="1:256" ht="31.2">
       <c r="A3" s="52" t="s">
         <v>1292</v>
       </c>
@@ -22799,7 +22802,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:256" ht="31.5">
+    <row r="4" spans="1:256" ht="31.2">
       <c r="A4" s="6" t="s">
         <v>1295</v>
       </c>

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD55F3D-06FD-4C99-BDE3-9D0B7E2011D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2562E5-5A77-40B4-BB02-77E2C7079707}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="2850" windowWidth="22215" windowHeight="13845" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="26190" windowHeight="13845" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -2426,9 +2426,6 @@
     <t>sp800_73_4_Test_16</t>
   </si>
   <si>
-    <t>CHUID_OID:5</t>
-  </si>
-  <si>
     <t>73-4.17</t>
   </si>
   <si>
@@ -3965,6 +3962,10 @@
   </si>
   <si>
     <t>1.3.6.1.4.1.45606.3.1.22</t>
+  </si>
+  <si>
+    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:15
+:5</t>
   </si>
 </sst>
 </file>
@@ -8517,7 +8518,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G470"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView topLeftCell="A108" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -8546,13 +8549,13 @@
         <v>55</v>
       </c>
       <c r="E1" s="35" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>1121</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>1122</v>
-      </c>
       <c r="G1" s="35" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8560,7 +8563,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>0</v>
@@ -8590,10 +8593,10 @@
         <v>56</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>1123</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>1124</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
@@ -8615,10 +8618,10 @@
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
@@ -8636,7 +8639,7 @@
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G6" s="39"/>
     </row>
@@ -8655,7 +8658,7 @@
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G7" s="39"/>
     </row>
@@ -8674,7 +8677,7 @@
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G8" s="39"/>
     </row>
@@ -8693,7 +8696,7 @@
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G9" s="39"/>
     </row>
@@ -8712,7 +8715,7 @@
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G10" s="39"/>
     </row>
@@ -8731,7 +8734,7 @@
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G11" s="39"/>
     </row>
@@ -8750,7 +8753,7 @@
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G12" s="39"/>
     </row>
@@ -8769,7 +8772,7 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G13" s="39"/>
     </row>
@@ -8788,7 +8791,7 @@
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G14" s="39"/>
     </row>
@@ -8807,7 +8810,7 @@
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G15" s="39"/>
     </row>
@@ -8831,10 +8834,10 @@
         <v>56</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
@@ -8856,10 +8859,10 @@
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
@@ -8877,7 +8880,7 @@
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G19" s="39"/>
     </row>
@@ -8896,7 +8899,7 @@
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G20" s="39"/>
     </row>
@@ -8915,7 +8918,7 @@
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G21" s="39"/>
     </row>
@@ -8934,7 +8937,7 @@
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G22" s="39"/>
     </row>
@@ -8946,14 +8949,14 @@
         <v>98</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G23" s="39"/>
     </row>
@@ -8965,14 +8968,14 @@
         <v>101</v>
       </c>
       <c r="C24" s="63" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D24" s="63" t="s">
         <v>1129</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>1130</v>
       </c>
       <c r="E24" s="63"/>
       <c r="F24" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G24" s="63"/>
     </row>
@@ -8991,7 +8994,7 @@
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G25" s="39"/>
     </row>
@@ -9003,14 +9006,14 @@
         <v>107</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>106</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G26" s="39"/>
     </row>
@@ -9022,14 +9025,14 @@
         <v>110</v>
       </c>
       <c r="C27" s="63" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D27" s="63" t="s">
         <v>1131</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>1132</v>
       </c>
       <c r="E27" s="63"/>
       <c r="F27" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G27" s="63"/>
     </row>
@@ -9041,14 +9044,14 @@
         <v>113</v>
       </c>
       <c r="C28" s="63" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D28" s="63" t="s">
         <v>1133</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>1134</v>
       </c>
       <c r="E28" s="63"/>
       <c r="F28" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G28" s="63"/>
     </row>
@@ -9057,34 +9060,34 @@
         <v>56</v>
       </c>
       <c r="B29" s="63" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C29" s="63" t="s">
         <v>1135</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="D29" s="63" t="s">
         <v>1136</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>1137</v>
       </c>
       <c r="E29" s="63"/>
       <c r="F29" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G29" s="63"/>
     </row>
     <row r="30" spans="1:7" s="33" customFormat="1">
       <c r="A30" s="63"/>
       <c r="B30" s="63" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C30" s="63" t="s">
         <v>1138</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="D30" s="63" t="s">
         <v>1139</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>1140</v>
       </c>
       <c r="E30" s="63"/>
       <c r="F30" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G30" s="63"/>
     </row>
@@ -9093,17 +9096,17 @@
         <v>56</v>
       </c>
       <c r="B31" s="39" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C31" s="39" t="s">
         <v>1141</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>1142</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G31" s="39"/>
     </row>
@@ -9112,7 +9115,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>111</v>
@@ -9122,7 +9125,7 @@
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G32" s="39"/>
     </row>
@@ -9131,17 +9134,17 @@
         <v>56</v>
       </c>
       <c r="B33" s="63" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C33" s="63" t="s">
         <v>1144</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="D33" s="63" t="s">
         <v>1145</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>1146</v>
       </c>
       <c r="E33" s="63"/>
       <c r="F33" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G33" s="63"/>
     </row>
@@ -9150,17 +9153,17 @@
         <v>56</v>
       </c>
       <c r="B34" s="63" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C34" s="63" t="s">
         <v>1147</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="D34" s="63" t="s">
         <v>1148</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>1149</v>
       </c>
       <c r="E34" s="63"/>
       <c r="F34" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G34" s="63"/>
     </row>
@@ -9169,17 +9172,17 @@
         <v>56</v>
       </c>
       <c r="B35" s="63" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C35" s="63" t="s">
         <v>1150</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="D35" s="63" t="s">
         <v>1151</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>1152</v>
       </c>
       <c r="E35" s="63"/>
       <c r="F35" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G35" s="63"/>
     </row>
@@ -9188,17 +9191,17 @@
         <v>56</v>
       </c>
       <c r="B36" s="63" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C36" s="63" t="s">
         <v>1153</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="D36" s="63" t="s">
         <v>1154</v>
-      </c>
-      <c r="D36" s="63" t="s">
-        <v>1155</v>
       </c>
       <c r="E36" s="63"/>
       <c r="F36" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G36" s="63"/>
     </row>
@@ -9207,7 +9210,7 @@
         <v>56</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C37" s="39" t="s">
         <v>114</v>
@@ -9217,7 +9220,7 @@
       </c>
       <c r="E37" s="39"/>
       <c r="F37" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G37" s="39"/>
     </row>
@@ -9236,7 +9239,7 @@
       </c>
       <c r="E38" s="39"/>
       <c r="F38" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G38" s="39"/>
     </row>
@@ -9255,7 +9258,7 @@
       </c>
       <c r="E39" s="39"/>
       <c r="F39" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G39" s="39"/>
     </row>
@@ -9274,7 +9277,7 @@
       </c>
       <c r="E40" s="39"/>
       <c r="F40" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G40" s="39"/>
     </row>
@@ -9293,7 +9296,7 @@
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G41" s="39"/>
     </row>
@@ -9302,7 +9305,7 @@
         <v>127</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C42" s="39" t="s">
         <v>129</v>
@@ -9312,7 +9315,7 @@
       </c>
       <c r="E42" s="39"/>
       <c r="F42" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G42" s="39"/>
     </row>
@@ -9336,10 +9339,10 @@
         <v>56</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
@@ -9361,10 +9364,10 @@
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30">
@@ -9382,7 +9385,7 @@
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G46" s="39"/>
     </row>
@@ -9401,7 +9404,7 @@
       </c>
       <c r="E47" s="39"/>
       <c r="F47" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G47" s="39"/>
     </row>
@@ -9420,11 +9423,11 @@
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G48" s="39"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="30">
       <c r="A49" s="39" t="s">
         <v>56</v>
       </c>
@@ -9435,11 +9438,11 @@
         <v>136</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>137</v>
+        <v>1199</v>
       </c>
       <c r="E49" s="39"/>
       <c r="F49" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G49" s="39"/>
     </row>
@@ -9458,7 +9461,7 @@
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G50" s="39"/>
     </row>
@@ -9477,7 +9480,7 @@
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G51" s="39"/>
     </row>
@@ -9496,7 +9499,7 @@
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G52" s="39"/>
     </row>
@@ -9515,7 +9518,7 @@
       </c>
       <c r="E53" s="39"/>
       <c r="F53" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G53" s="39"/>
     </row>
@@ -9524,7 +9527,7 @@
         <v>127</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>129</v>
@@ -9534,7 +9537,7 @@
       </c>
       <c r="E54" s="39"/>
       <c r="F54" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G54" s="39"/>
     </row>
@@ -9558,10 +9561,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D56" s="38"/>
       <c r="E56" s="38"/>
@@ -9583,10 +9586,10 @@
       </c>
       <c r="E57" s="39"/>
       <c r="F57" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G57" s="39" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="30">
@@ -9604,7 +9607,7 @@
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G58" s="39"/>
     </row>
@@ -9623,7 +9626,7 @@
       </c>
       <c r="E59" s="39"/>
       <c r="F59" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G59" s="39"/>
     </row>
@@ -9642,7 +9645,7 @@
       </c>
       <c r="E60" s="39"/>
       <c r="F60" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G60" s="39"/>
     </row>
@@ -9661,7 +9664,7 @@
       </c>
       <c r="E61" s="39"/>
       <c r="F61" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G61" s="39"/>
     </row>
@@ -9680,7 +9683,7 @@
       </c>
       <c r="E62" s="39"/>
       <c r="F62" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G62" s="39"/>
     </row>
@@ -9699,7 +9702,7 @@
       </c>
       <c r="E63" s="39"/>
       <c r="F63" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G63" s="39"/>
     </row>
@@ -9718,7 +9721,7 @@
       </c>
       <c r="E64" s="39"/>
       <c r="F64" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G64" s="39"/>
     </row>
@@ -9737,7 +9740,7 @@
       </c>
       <c r="E65" s="39"/>
       <c r="F65" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G65" s="39"/>
     </row>
@@ -9761,10 +9764,10 @@
         <v>56</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D67" s="38"/>
       <c r="E67" s="38"/>
@@ -9786,10 +9789,10 @@
       </c>
       <c r="E68" s="39"/>
       <c r="F68" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30">
@@ -9807,7 +9810,7 @@
       </c>
       <c r="E69" s="39"/>
       <c r="F69" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G69" s="39"/>
     </row>
@@ -9826,7 +9829,7 @@
       </c>
       <c r="E70" s="39"/>
       <c r="F70" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G70" s="39"/>
     </row>
@@ -9845,7 +9848,7 @@
       </c>
       <c r="E71" s="39"/>
       <c r="F71" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G71" s="39"/>
     </row>
@@ -9864,7 +9867,7 @@
       </c>
       <c r="E72" s="39"/>
       <c r="F72" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G72" s="39"/>
     </row>
@@ -9883,7 +9886,7 @@
       </c>
       <c r="E73" s="39"/>
       <c r="F73" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G73" s="39"/>
     </row>
@@ -9895,14 +9898,14 @@
         <v>172</v>
       </c>
       <c r="C74" s="63" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D74" s="63" t="s">
         <v>1165</v>
-      </c>
-      <c r="D74" s="63" t="s">
-        <v>1166</v>
       </c>
       <c r="E74" s="63"/>
       <c r="F74" s="63" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G74" s="63"/>
     </row>
@@ -9914,14 +9917,14 @@
         <v>175</v>
       </c>
       <c r="C75" s="63" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D75" s="63" t="s">
         <v>1167</v>
-      </c>
-      <c r="D75" s="63" t="s">
-        <v>1168</v>
       </c>
       <c r="E75" s="63"/>
       <c r="F75" s="63" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G75" s="63"/>
     </row>
@@ -9940,7 +9943,7 @@
       </c>
       <c r="E76" s="39"/>
       <c r="F76" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G76" s="39"/>
     </row>
@@ -9949,7 +9952,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C77" s="39" t="s">
         <v>176</v>
@@ -9959,7 +9962,7 @@
       </c>
       <c r="E77" s="39"/>
       <c r="F77" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G77" s="39"/>
     </row>
@@ -9968,7 +9971,7 @@
         <v>56</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C78" s="39" t="s">
         <v>179</v>
@@ -9978,7 +9981,7 @@
       </c>
       <c r="E78" s="39"/>
       <c r="F78" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G78" s="39"/>
     </row>
@@ -9987,7 +9990,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C79" s="39" t="s">
         <v>129</v>
@@ -9997,7 +10000,7 @@
       </c>
       <c r="E79" s="39"/>
       <c r="F79" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G79" s="39"/>
     </row>
@@ -10006,7 +10009,7 @@
         <v>56</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C80" s="38" t="s">
         <v>6</v>
@@ -10021,10 +10024,10 @@
         <v>56</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D81" s="38"/>
       <c r="E81" s="38"/>
@@ -10046,10 +10049,10 @@
       </c>
       <c r="E82" s="39"/>
       <c r="F82" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="30">
@@ -10067,7 +10070,7 @@
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G83" s="39"/>
     </row>
@@ -10086,7 +10089,7 @@
       </c>
       <c r="E84" s="39"/>
       <c r="F84" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G84" s="39"/>
     </row>
@@ -10105,7 +10108,7 @@
       </c>
       <c r="E85" s="39"/>
       <c r="F85" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G85" s="39"/>
     </row>
@@ -10124,7 +10127,7 @@
       </c>
       <c r="E86" s="39"/>
       <c r="F86" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G86" s="39"/>
     </row>
@@ -10143,7 +10146,7 @@
       </c>
       <c r="E87" s="39"/>
       <c r="F87" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G87" s="39"/>
     </row>
@@ -10162,7 +10165,7 @@
       </c>
       <c r="E88" s="39"/>
       <c r="F88" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G88" s="39"/>
     </row>
@@ -10171,7 +10174,7 @@
         <v>127</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C89" s="39" t="s">
         <v>129</v>
@@ -10181,7 +10184,7 @@
       </c>
       <c r="E89" s="39"/>
       <c r="F89" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G89" s="39"/>
     </row>
@@ -10205,10 +10208,10 @@
         <v>56</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D91" s="38"/>
       <c r="E91" s="38"/>
@@ -10230,10 +10233,10 @@
       </c>
       <c r="E92" s="39"/>
       <c r="F92" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="30">
@@ -10251,7 +10254,7 @@
       </c>
       <c r="E93" s="39"/>
       <c r="F93" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G93" s="39"/>
     </row>
@@ -10270,7 +10273,7 @@
       </c>
       <c r="E94" s="39"/>
       <c r="F94" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G94" s="39"/>
     </row>
@@ -10289,11 +10292,11 @@
       </c>
       <c r="E95" s="39"/>
       <c r="F95" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G95" s="39"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" ht="30">
       <c r="A96" s="39" t="s">
         <v>56</v>
       </c>
@@ -10304,11 +10307,11 @@
         <v>136</v>
       </c>
       <c r="D96" s="39" t="s">
-        <v>137</v>
+        <v>1199</v>
       </c>
       <c r="E96" s="39"/>
       <c r="F96" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G96" s="39"/>
     </row>
@@ -10327,7 +10330,7 @@
       </c>
       <c r="E97" s="39"/>
       <c r="F97" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G97" s="39"/>
     </row>
@@ -10346,7 +10349,7 @@
       </c>
       <c r="E98" s="39"/>
       <c r="F98" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G98" s="39"/>
     </row>
@@ -10365,7 +10368,7 @@
       </c>
       <c r="E99" s="39"/>
       <c r="F99" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G99" s="39"/>
     </row>
@@ -10384,7 +10387,7 @@
       </c>
       <c r="E100" s="39"/>
       <c r="F100" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G100" s="39"/>
     </row>
@@ -10393,7 +10396,7 @@
         <v>127</v>
       </c>
       <c r="B101" s="39" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C101" s="39" t="s">
         <v>129</v>
@@ -10403,7 +10406,7 @@
       </c>
       <c r="E101" s="39"/>
       <c r="F101" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G101" s="39"/>
     </row>
@@ -10427,10 +10430,10 @@
         <v>56</v>
       </c>
       <c r="B103" s="39" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D103" s="38"/>
       <c r="E103" s="38"/>
@@ -10452,10 +10455,10 @@
       </c>
       <c r="E104" s="39"/>
       <c r="F104" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="30">
@@ -10473,7 +10476,7 @@
       </c>
       <c r="E105" s="39"/>
       <c r="F105" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G105" s="39"/>
     </row>
@@ -10492,7 +10495,7 @@
       </c>
       <c r="E106" s="39"/>
       <c r="F106" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G106" s="39"/>
     </row>
@@ -10511,11 +10514,11 @@
       </c>
       <c r="E107" s="39"/>
       <c r="F107" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G107" s="39"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" ht="30">
       <c r="A108" s="39" t="s">
         <v>56</v>
       </c>
@@ -10526,11 +10529,11 @@
         <v>136</v>
       </c>
       <c r="D108" s="39" t="s">
-        <v>137</v>
+        <v>1199</v>
       </c>
       <c r="E108" s="39"/>
       <c r="F108" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G108" s="39"/>
     </row>
@@ -10549,7 +10552,7 @@
       </c>
       <c r="E109" s="39"/>
       <c r="F109" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G109" s="39"/>
     </row>
@@ -10568,7 +10571,7 @@
       </c>
       <c r="E110" s="39"/>
       <c r="F110" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G110" s="39"/>
     </row>
@@ -10587,7 +10590,7 @@
       </c>
       <c r="E111" s="39"/>
       <c r="F111" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G111" s="39"/>
     </row>
@@ -10606,7 +10609,7 @@
       </c>
       <c r="E112" s="39"/>
       <c r="F112" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G112" s="39"/>
     </row>
@@ -10615,7 +10618,7 @@
         <v>127</v>
       </c>
       <c r="B113" s="39" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C113" s="39" t="s">
         <v>129</v>
@@ -10625,7 +10628,7 @@
       </c>
       <c r="E113" s="39"/>
       <c r="F113" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G113" s="39"/>
     </row>
@@ -10649,10 +10652,10 @@
         <v>56</v>
       </c>
       <c r="B115" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D115" s="38"/>
       <c r="E115" s="38"/>
@@ -10674,10 +10677,10 @@
       </c>
       <c r="E116" s="39"/>
       <c r="F116" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G116" s="39" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="30">
@@ -10695,7 +10698,7 @@
       </c>
       <c r="E117" s="39"/>
       <c r="F117" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G117" s="39"/>
     </row>
@@ -10714,7 +10717,7 @@
       </c>
       <c r="E118" s="39"/>
       <c r="F118" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G118" s="39"/>
     </row>
@@ -10733,11 +10736,11 @@
       </c>
       <c r="E119" s="39"/>
       <c r="F119" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G119" s="39"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" ht="30">
       <c r="A120" s="39" t="s">
         <v>56</v>
       </c>
@@ -10748,11 +10751,11 @@
         <v>136</v>
       </c>
       <c r="D120" s="39" t="s">
-        <v>137</v>
+        <v>1199</v>
       </c>
       <c r="E120" s="39"/>
       <c r="F120" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G120" s="39"/>
     </row>
@@ -10771,7 +10774,7 @@
       </c>
       <c r="E121" s="39"/>
       <c r="F121" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G121" s="39"/>
     </row>
@@ -10790,7 +10793,7 @@
       </c>
       <c r="E122" s="39"/>
       <c r="F122" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G122" s="39"/>
     </row>
@@ -10809,7 +10812,7 @@
       </c>
       <c r="E123" s="39"/>
       <c r="F123" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G123" s="39"/>
     </row>
@@ -10828,7 +10831,7 @@
       </c>
       <c r="E124" s="39"/>
       <c r="F124" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G124" s="39"/>
     </row>
@@ -10837,7 +10840,7 @@
         <v>127</v>
       </c>
       <c r="B125" s="39" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C125" s="39" t="s">
         <v>129</v>
@@ -10847,7 +10850,7 @@
       </c>
       <c r="E125" s="39"/>
       <c r="F125" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G125" s="39"/>
     </row>
@@ -10856,7 +10859,7 @@
         <v>56</v>
       </c>
       <c r="B126" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C126" s="38" t="s">
         <v>10</v>
@@ -10871,10 +10874,10 @@
         <v>56</v>
       </c>
       <c r="B127" s="39" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D127" s="38"/>
       <c r="E127" s="38"/>
@@ -10896,10 +10899,10 @@
       </c>
       <c r="E128" s="39"/>
       <c r="F128" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G128" s="39" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="30">
@@ -10917,7 +10920,7 @@
       </c>
       <c r="E129" s="39"/>
       <c r="F129" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G129" s="39"/>
     </row>
@@ -10936,7 +10939,7 @@
       </c>
       <c r="E130" s="39"/>
       <c r="F130" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G130" s="39"/>
     </row>
@@ -10955,7 +10958,7 @@
       </c>
       <c r="E131" s="39"/>
       <c r="F131" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G131" s="39"/>
     </row>
@@ -10974,7 +10977,7 @@
       </c>
       <c r="E132" s="39"/>
       <c r="F132" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G132" s="39"/>
     </row>
@@ -10986,14 +10989,14 @@
         <v>238</v>
       </c>
       <c r="C133" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D133" s="39" t="s">
         <v>240</v>
       </c>
       <c r="E133" s="39"/>
       <c r="F133" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G133" s="39"/>
     </row>
@@ -11005,14 +11008,14 @@
         <v>241</v>
       </c>
       <c r="C134" s="63" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D134" s="63" t="s">
         <v>1189</v>
-      </c>
-      <c r="D134" s="63" t="s">
-        <v>1190</v>
       </c>
       <c r="E134" s="63"/>
       <c r="F134" s="63" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G134" s="63"/>
     </row>
@@ -11031,7 +11034,7 @@
       </c>
       <c r="E135" s="39"/>
       <c r="F135" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G135" s="39"/>
     </row>
@@ -11040,7 +11043,7 @@
         <v>56</v>
       </c>
       <c r="B136" s="39" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C136" s="39" t="s">
         <v>245</v>
@@ -11050,7 +11053,7 @@
       </c>
       <c r="E136" s="39"/>
       <c r="F136" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G136" s="39"/>
     </row>
@@ -11074,10 +11077,10 @@
         <v>56</v>
       </c>
       <c r="B138" s="39" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C138" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D138" s="38"/>
       <c r="E138" s="38"/>
@@ -11101,10 +11104,10 @@
         <v>249</v>
       </c>
       <c r="F139" s="39" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G139" s="39" t="s">
         <v>1193</v>
-      </c>
-      <c r="G139" s="39" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="30">
@@ -11124,7 +11127,7 @@
         <v>249</v>
       </c>
       <c r="F140" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G140" s="39"/>
     </row>
@@ -11145,7 +11148,7 @@
         <v>249</v>
       </c>
       <c r="F141" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G141" s="39"/>
     </row>
@@ -11166,7 +11169,7 @@
         <v>249</v>
       </c>
       <c r="F142" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G142" s="39"/>
     </row>
@@ -11178,7 +11181,7 @@
         <v>256</v>
       </c>
       <c r="C143" s="39" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D143" s="39" t="s">
         <v>258</v>
@@ -11187,7 +11190,7 @@
         <v>249</v>
       </c>
       <c r="F143" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G143" s="39"/>
     </row>
@@ -11199,7 +11202,7 @@
         <v>259</v>
       </c>
       <c r="C144" s="39" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D144" s="39" t="s">
         <v>255</v>
@@ -11208,7 +11211,7 @@
         <v>249</v>
       </c>
       <c r="F144" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G144" s="39"/>
     </row>
@@ -11220,14 +11223,14 @@
         <v>261</v>
       </c>
       <c r="C145" s="63" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D145" s="63" t="s">
         <v>1197</v>
-      </c>
-      <c r="D145" s="63" t="s">
-        <v>1198</v>
       </c>
       <c r="E145" s="63"/>
       <c r="F145" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G145" s="63"/>
     </row>
@@ -11236,19 +11239,19 @@
         <v>56</v>
       </c>
       <c r="B146" s="39" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C146" s="39" t="s">
         <v>260</v>
       </c>
       <c r="D146" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E146" s="39" t="s">
         <v>249</v>
       </c>
       <c r="F146" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G146" s="39"/>
     </row>
@@ -11257,7 +11260,7 @@
         <v>56</v>
       </c>
       <c r="B147" s="39" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C147" s="39" t="s">
         <v>262</v>
@@ -11269,7 +11272,7 @@
         <v>249</v>
       </c>
       <c r="F147" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G147" s="39"/>
     </row>
@@ -11278,19 +11281,19 @@
         <v>127</v>
       </c>
       <c r="B148" s="39" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C148" s="39" t="s">
         <v>129</v>
       </c>
       <c r="D148" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E148" s="39" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F148" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G148" s="39"/>
     </row>
@@ -11299,7 +11302,7 @@
         <v>127</v>
       </c>
       <c r="B149" s="39" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C149" s="39" t="s">
         <v>266</v>
@@ -11309,7 +11312,7 @@
       </c>
       <c r="E149" s="39"/>
       <c r="F149" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G149" s="39"/>
     </row>
@@ -11358,14 +11361,14 @@
         <v>14</v>
       </c>
       <c r="D152" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E152" s="39" t="s">
         <v>270</v>
       </c>
       <c r="F152" s="39"/>
       <c r="G152" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="30">
@@ -11379,14 +11382,14 @@
         <v>15</v>
       </c>
       <c r="D153" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E153" s="39" t="s">
         <v>270</v>
       </c>
       <c r="F153" s="39"/>
       <c r="G153" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="30">
@@ -11400,14 +11403,14 @@
         <v>272</v>
       </c>
       <c r="D154" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E154" s="39" t="s">
         <v>273</v>
       </c>
       <c r="F154" s="39"/>
       <c r="G154" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="30">
@@ -11516,7 +11519,7 @@
         <v>277</v>
       </c>
       <c r="C161" s="59" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D161" s="59">
         <v>76.2</v>
@@ -11524,7 +11527,7 @@
       <c r="E161" s="39"/>
       <c r="F161" s="39"/>
       <c r="G161" s="39" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -11538,7 +11541,7 @@
         <v>282</v>
       </c>
       <c r="D162" s="59" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E162" s="39"/>
       <c r="F162" s="39"/>
@@ -11552,10 +11555,10 @@
         <v>281</v>
       </c>
       <c r="C163" s="59" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D163" s="59" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E163" s="39"/>
       <c r="F163" s="39"/>
@@ -11566,18 +11569,18 @@
         <v>56</v>
       </c>
       <c r="B164" s="39" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C164" s="39" t="s">
         <v>285</v>
       </c>
       <c r="D164" s="39" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E164" s="39"/>
       <c r="F164" s="39"/>
       <c r="G164" s="39" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -11603,10 +11606,10 @@
         <v>284</v>
       </c>
       <c r="C166" s="59" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D166" s="59" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E166" s="59"/>
       <c r="F166" s="59"/>
@@ -11654,10 +11657,10 @@
         <v>290</v>
       </c>
       <c r="C169" s="39" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D169" s="39" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E169" s="39"/>
       <c r="F169" s="39"/>
@@ -11845,7 +11848,7 @@
       <c r="E180" s="39"/>
       <c r="F180" s="39"/>
       <c r="G180" s="39" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -11930,7 +11933,7 @@
       <c r="E185" s="39"/>
       <c r="F185" s="39"/>
       <c r="G185" s="39" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="30">
@@ -11975,10 +11978,10 @@
         <v>317</v>
       </c>
       <c r="C188" s="39" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D188" s="39" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E188" s="39"/>
       <c r="F188" s="39"/>
@@ -12166,7 +12169,7 @@
       <c r="E199" s="39"/>
       <c r="F199" s="39"/>
       <c r="G199" s="39" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -12246,12 +12249,12 @@
         <v>337</v>
       </c>
       <c r="D204" s="39" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E204" s="39"/>
       <c r="F204" s="39"/>
       <c r="G204" s="39" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="30">
@@ -12299,7 +12302,7 @@
         <v>342</v>
       </c>
       <c r="D207" s="39" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E207" s="39"/>
       <c r="F207" s="39"/>
@@ -12310,7 +12313,7 @@
         <v>56</v>
       </c>
       <c r="B208" s="39" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C208" s="39" t="s">
         <v>293</v>
@@ -12487,7 +12490,7 @@
       <c r="E218" s="39"/>
       <c r="F218" s="39"/>
       <c r="G218" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="30">
@@ -12569,7 +12572,7 @@
         <v>365</v>
       </c>
       <c r="D223" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E223" s="39"/>
       <c r="F223" s="39"/>
@@ -12600,13 +12603,13 @@
         <v>368</v>
       </c>
       <c r="C225" s="39" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D225" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E225" s="39" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F225" s="39"/>
       <c r="G225" s="39"/>
@@ -12622,10 +12625,10 @@
         <v>371</v>
       </c>
       <c r="D226" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E226" s="39" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F226" s="39"/>
       <c r="G226" s="39"/>
@@ -12638,7 +12641,7 @@
         <v>372</v>
       </c>
       <c r="C227" s="39" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D227" s="39">
         <v>76.16</v>
@@ -12712,7 +12715,7 @@
       <c r="E231" s="39"/>
       <c r="F231" s="39"/>
       <c r="G231" s="39" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -12726,7 +12729,7 @@
         <v>384</v>
       </c>
       <c r="D232" s="39" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E232" s="39"/>
       <c r="F232" s="39"/>
@@ -12777,10 +12780,10 @@
         <v>390</v>
       </c>
       <c r="D235" s="39" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E235" s="39" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F235" s="39"/>
       <c r="G235" s="39"/>
@@ -12918,7 +12921,7 @@
       <c r="E243" s="39"/>
       <c r="F243" s="39"/>
       <c r="G243" s="39" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -13073,7 +13076,7 @@
         <v>56</v>
       </c>
       <c r="B253" s="36" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C253" s="37" t="s">
         <v>35</v>
@@ -13129,7 +13132,7 @@
       <c r="E256" s="39"/>
       <c r="F256" s="39"/>
       <c r="G256" s="43" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="30">
@@ -13163,7 +13166,7 @@
         <v>425</v>
       </c>
       <c r="E258" s="45" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F258" s="39"/>
       <c r="G258" s="43"/>
@@ -13219,7 +13222,7 @@
       <c r="F261" s="39"/>
       <c r="G261" s="43"/>
     </row>
-    <row r="262" spans="1:7" ht="75">
+    <row r="262" spans="1:7" ht="60">
       <c r="A262" s="39" t="s">
         <v>56</v>
       </c>
@@ -13244,13 +13247,13 @@
         <v>438</v>
       </c>
       <c r="C263" s="43" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D263" s="39" t="s">
         <v>440</v>
       </c>
       <c r="E263" s="45" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F263" s="39"/>
       <c r="G263" s="43"/>
@@ -13260,13 +13263,13 @@
         <v>56</v>
       </c>
       <c r="B264" s="39" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C264" s="43" t="s">
         <v>1209</v>
       </c>
-      <c r="C264" s="43" t="s">
+      <c r="D264" s="39" t="s">
         <v>1210</v>
-      </c>
-      <c r="D264" s="39" t="s">
-        <v>1211</v>
       </c>
       <c r="E264" s="39"/>
       <c r="F264" s="39"/>
@@ -13320,7 +13323,7 @@
         <v>449</v>
       </c>
       <c r="E267" s="45" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F267" s="39"/>
       <c r="G267" s="43"/>
@@ -13330,7 +13333,7 @@
         <v>56</v>
       </c>
       <c r="B268" s="39" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C268" s="43" t="s">
         <v>451</v>
@@ -13372,7 +13375,7 @@
       <c r="F270" s="40"/>
       <c r="G270" s="40"/>
     </row>
-    <row r="271" spans="1:7" ht="75">
+    <row r="271" spans="1:7" ht="60">
       <c r="A271" s="39" t="s">
         <v>56</v>
       </c>
@@ -13388,7 +13391,7 @@
       <c r="E271" s="39"/>
       <c r="F271" s="39"/>
       <c r="G271" s="43" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -13538,7 +13541,7 @@
         <v>473</v>
       </c>
       <c r="D280" s="39" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E280" s="39"/>
       <c r="F280" s="39"/>
@@ -13643,7 +13646,7 @@
       <c r="E286" s="39"/>
       <c r="F286" s="39"/>
       <c r="G286" s="43" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -13676,7 +13679,7 @@
       <c r="F288" s="40"/>
       <c r="G288" s="40"/>
     </row>
-    <row r="289" spans="1:7" ht="75">
+    <row r="289" spans="1:7" ht="60">
       <c r="A289" s="39" t="s">
         <v>56</v>
       </c>
@@ -13692,7 +13695,7 @@
       <c r="E289" s="39"/>
       <c r="F289" s="39"/>
       <c r="G289" s="43" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -13842,7 +13845,7 @@
         <v>473</v>
       </c>
       <c r="D298" s="39" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E298" s="39"/>
       <c r="F298" s="39"/>
@@ -13948,7 +13951,7 @@
       </c>
       <c r="E304" s="39"/>
       <c r="F304" s="59" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G304" s="43"/>
     </row>
@@ -14030,10 +14033,10 @@
       <c r="E309" s="46"/>
       <c r="F309" s="46"/>
       <c r="G309" s="39" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" ht="30">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310" s="39" t="s">
         <v>56</v>
       </c>
@@ -14067,7 +14070,7 @@
       <c r="F311" s="39"/>
       <c r="G311" s="43"/>
     </row>
-    <row r="312" spans="1:7" ht="60">
+    <row r="312" spans="1:7" ht="45">
       <c r="A312" s="39" t="s">
         <v>56</v>
       </c>
@@ -14165,7 +14168,7 @@
       <c r="F317" s="40"/>
       <c r="G317" s="48"/>
     </row>
-    <row r="318" spans="1:7" ht="75">
+    <row r="318" spans="1:7" ht="60">
       <c r="A318" s="39" t="s">
         <v>56</v>
       </c>
@@ -14181,7 +14184,7 @@
       <c r="E318" s="39"/>
       <c r="F318" s="39"/>
       <c r="G318" s="39" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -14274,7 +14277,7 @@
         <v>56</v>
       </c>
       <c r="B324" s="39" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C324" s="39" t="s">
         <v>466</v>
@@ -14291,7 +14294,7 @@
         <v>56</v>
       </c>
       <c r="B325" s="39" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C325" s="39" t="s">
         <v>468</v>
@@ -14331,7 +14334,7 @@
         <v>473</v>
       </c>
       <c r="D327" s="39" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E327" s="39"/>
       <c r="F327" s="39"/>
@@ -14410,7 +14413,7 @@
         <v>56</v>
       </c>
       <c r="B332" s="39" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C332" s="39" t="s">
         <v>484</v>
@@ -14427,7 +14430,7 @@
         <v>56</v>
       </c>
       <c r="B333" s="39" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C333" s="39" t="s">
         <v>487</v>
@@ -14437,7 +14440,7 @@
       </c>
       <c r="E333" s="39"/>
       <c r="F333" s="59" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G333" s="39"/>
     </row>
@@ -14446,7 +14449,7 @@
         <v>56</v>
       </c>
       <c r="B334" s="36" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C334" s="49" t="s">
         <v>40</v>
@@ -14500,13 +14503,13 @@
         <v>78.3</v>
       </c>
       <c r="E337" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F337" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G337" s="43" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="60">
@@ -14523,10 +14526,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E338" s="39" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F338" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G338" s="43"/>
     </row>
@@ -14538,14 +14541,14 @@
         <v>552</v>
       </c>
       <c r="C339" s="43" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D339" s="39">
         <v>78.099999999999994</v>
       </c>
       <c r="E339" s="39"/>
       <c r="F339" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G339" s="43"/>
     </row>
@@ -14579,10 +14582,10 @@
       </c>
       <c r="E341" s="39"/>
       <c r="F341" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G341" s="43" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -14600,7 +14603,7 @@
       </c>
       <c r="E342" s="39"/>
       <c r="F342" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G342" s="43"/>
     </row>
@@ -14619,7 +14622,7 @@
       </c>
       <c r="E343" s="39"/>
       <c r="F343" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G343" s="39"/>
     </row>
@@ -14638,7 +14641,7 @@
       </c>
       <c r="E344" s="39"/>
       <c r="F344" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G344" s="43"/>
     </row>
@@ -14672,10 +14675,10 @@
       </c>
       <c r="E346" s="39"/>
       <c r="F346" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G346" s="43" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="30">
@@ -14693,7 +14696,7 @@
       </c>
       <c r="E347" s="39"/>
       <c r="F347" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G347" s="43"/>
     </row>
@@ -14705,14 +14708,14 @@
         <v>575</v>
       </c>
       <c r="C348" s="43" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D348" s="39" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E348" s="39"/>
       <c r="F348" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G348" s="43"/>
     </row>
@@ -14731,7 +14734,7 @@
       </c>
       <c r="E349" s="39"/>
       <c r="F349" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G349" s="43"/>
     </row>
@@ -14765,10 +14768,10 @@
       </c>
       <c r="E351" s="39"/>
       <c r="F351" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G351" s="43" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="60">
@@ -14786,7 +14789,7 @@
       </c>
       <c r="E352" s="39"/>
       <c r="F352" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G352" s="43"/>
     </row>
@@ -14801,11 +14804,11 @@
         <v>592</v>
       </c>
       <c r="D353" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E353" s="39"/>
       <c r="F353" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G353" s="39"/>
     </row>
@@ -14824,7 +14827,7 @@
       </c>
       <c r="E354" s="39"/>
       <c r="F354" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G354" s="43"/>
     </row>
@@ -14843,7 +14846,7 @@
       </c>
       <c r="E355" s="39"/>
       <c r="F355" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G355" s="43"/>
     </row>
@@ -14877,10 +14880,10 @@
       </c>
       <c r="E357" s="39"/>
       <c r="F357" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G357" s="39" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -14894,11 +14897,11 @@
         <v>604</v>
       </c>
       <c r="D358" s="39" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E358" s="39"/>
       <c r="F358" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G358" s="39"/>
     </row>
@@ -14932,10 +14935,10 @@
       </c>
       <c r="E360" s="39"/>
       <c r="F360" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G360" s="43" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="30">
@@ -14949,11 +14952,11 @@
         <v>609</v>
       </c>
       <c r="D361" s="39" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E361" s="46"/>
       <c r="F361" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G361" s="43"/>
     </row>
@@ -14972,7 +14975,7 @@
       </c>
       <c r="E362" s="39"/>
       <c r="F362" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G362" s="43"/>
     </row>
@@ -14987,11 +14990,11 @@
         <v>613</v>
       </c>
       <c r="D363" s="39" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E363" s="39"/>
       <c r="F363" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G363" s="43"/>
     </row>
@@ -15006,13 +15009,13 @@
         <v>615</v>
       </c>
       <c r="D364" s="39" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E364" s="39" t="s">
         <v>616</v>
       </c>
       <c r="F364" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G364" s="39"/>
     </row>
@@ -15057,16 +15060,16 @@
         <v>549</v>
       </c>
       <c r="D367" s="39" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E367" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F367" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G367" s="43" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="75">
@@ -15080,13 +15083,13 @@
         <v>620</v>
       </c>
       <c r="D368" s="39" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E368" s="39" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F368" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G368" s="43"/>
     </row>
@@ -15104,10 +15107,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E369" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F369" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G369" s="43"/>
     </row>
@@ -15156,10 +15159,10 @@
       </c>
       <c r="E372" s="39"/>
       <c r="F372" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G372" s="43" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="30">
@@ -15177,7 +15180,7 @@
       </c>
       <c r="E373" s="39"/>
       <c r="F373" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G373" s="43"/>
     </row>
@@ -15196,7 +15199,7 @@
       </c>
       <c r="E374" s="39"/>
       <c r="F374" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G374" s="43"/>
     </row>
@@ -15215,7 +15218,7 @@
       </c>
       <c r="E375" s="39"/>
       <c r="F375" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G375" s="43"/>
     </row>
@@ -15234,7 +15237,7 @@
       </c>
       <c r="E376" s="39"/>
       <c r="F376" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G376" s="43"/>
     </row>
@@ -15253,7 +15256,7 @@
       </c>
       <c r="E377" s="39"/>
       <c r="F377" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G377" s="43"/>
     </row>
@@ -15287,10 +15290,10 @@
       </c>
       <c r="E379" s="39"/>
       <c r="F379" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G379" s="43" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -15304,13 +15307,13 @@
         <v>604</v>
       </c>
       <c r="D380" s="39" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E380" s="39" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F380" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G380" s="39"/>
     </row>
@@ -15344,10 +15347,10 @@
       </c>
       <c r="E382" s="39"/>
       <c r="F382" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G382" s="43" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="30">
@@ -15361,11 +15364,11 @@
         <v>645</v>
       </c>
       <c r="D383" s="39" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E383" s="46"/>
       <c r="F383" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G383" s="43"/>
     </row>
@@ -15384,7 +15387,7 @@
       </c>
       <c r="E384" s="39"/>
       <c r="F384" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G384" s="43"/>
     </row>
@@ -15399,11 +15402,11 @@
         <v>613</v>
       </c>
       <c r="D385" s="39" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E385" s="39"/>
       <c r="F385" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G385" s="39"/>
     </row>
@@ -15418,13 +15421,13 @@
         <v>615</v>
       </c>
       <c r="D386" s="39" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E386" s="39" t="s">
         <v>616</v>
       </c>
       <c r="F386" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G386" s="39"/>
     </row>
@@ -15472,13 +15475,13 @@
         <v>78.3</v>
       </c>
       <c r="E389" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F389" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G389" s="43" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="60">
@@ -15492,13 +15495,13 @@
         <v>653</v>
       </c>
       <c r="D390" s="39" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E390" s="39" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F390" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G390" s="39"/>
     </row>
@@ -15516,10 +15519,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E391" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F391" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G391" s="43"/>
     </row>
@@ -15564,14 +15567,14 @@
         <v>659</v>
       </c>
       <c r="D394" s="39" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E394" s="39"/>
       <c r="F394" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G394" s="43" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="45">
@@ -15589,7 +15592,7 @@
       </c>
       <c r="E395" s="39"/>
       <c r="F395" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G395" s="43"/>
     </row>
@@ -15608,7 +15611,7 @@
       </c>
       <c r="E396" s="39"/>
       <c r="F396" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G396" s="43"/>
     </row>
@@ -15627,7 +15630,7 @@
       </c>
       <c r="E397" s="39"/>
       <c r="F397" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G397" s="43"/>
     </row>
@@ -15646,7 +15649,7 @@
       </c>
       <c r="E398" s="39"/>
       <c r="F398" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G398" s="43"/>
     </row>
@@ -15665,7 +15668,7 @@
       </c>
       <c r="E399" s="39"/>
       <c r="F399" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G399" s="43"/>
     </row>
@@ -15699,10 +15702,10 @@
       </c>
       <c r="E401" s="39"/>
       <c r="F401" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G401" s="43" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -15716,13 +15719,13 @@
         <v>604</v>
       </c>
       <c r="D402" s="39" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E402" s="39" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F402" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G402" s="39"/>
     </row>
@@ -15756,10 +15759,10 @@
       </c>
       <c r="E404" s="39"/>
       <c r="F404" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G404" s="43" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="30">
@@ -15773,11 +15776,11 @@
         <v>645</v>
       </c>
       <c r="D405" s="39" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E405" s="46"/>
       <c r="F405" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G405" s="43"/>
     </row>
@@ -15796,7 +15799,7 @@
       </c>
       <c r="E406" s="39"/>
       <c r="F406" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G406" s="43"/>
     </row>
@@ -15811,11 +15814,11 @@
         <v>613</v>
       </c>
       <c r="D407" s="39" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E407" s="39"/>
       <c r="F407" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G407" s="39"/>
     </row>
@@ -15830,13 +15833,13 @@
         <v>615</v>
       </c>
       <c r="D408" s="39" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E408" s="39" t="s">
         <v>616</v>
       </c>
       <c r="F408" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G408" s="39"/>
     </row>
@@ -15884,13 +15887,13 @@
         <v>78.3</v>
       </c>
       <c r="E411" s="6" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F411" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G411" s="43" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="90">
@@ -15907,10 +15910,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E412" s="39" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F412" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G412" s="43"/>
     </row>
@@ -15928,10 +15931,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E413" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F413" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G413" s="43"/>
     </row>
@@ -15980,10 +15983,10 @@
       </c>
       <c r="E416" s="39"/>
       <c r="F416" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G416" s="39" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -16001,7 +16004,7 @@
       </c>
       <c r="E417" s="39"/>
       <c r="F417" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G417" s="43"/>
     </row>
@@ -16020,7 +16023,7 @@
       </c>
       <c r="E418" s="39"/>
       <c r="F418" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G418" s="43"/>
     </row>
@@ -16039,7 +16042,7 @@
       </c>
       <c r="E419" s="39"/>
       <c r="F419" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G419" s="39"/>
     </row>
@@ -16066,17 +16069,17 @@
         <v>695</v>
       </c>
       <c r="C421" s="39" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D421" s="39" t="s">
         <v>697</v>
       </c>
       <c r="E421" s="39"/>
       <c r="F421" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G421" s="39" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="422" spans="1:7" ht="30">
@@ -16087,14 +16090,14 @@
         <v>698</v>
       </c>
       <c r="C422" s="39" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D422" s="39" t="s">
         <v>700</v>
       </c>
       <c r="E422" s="39"/>
       <c r="F422" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G422" s="39"/>
     </row>
@@ -16113,7 +16116,7 @@
       </c>
       <c r="E423" s="39"/>
       <c r="F423" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G423" s="39"/>
     </row>
@@ -16147,10 +16150,10 @@
       </c>
       <c r="E425" s="39"/>
       <c r="F425" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G425" s="43" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -16168,7 +16171,7 @@
       </c>
       <c r="E426" s="39"/>
       <c r="F426" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G426" s="43"/>
     </row>
@@ -16187,7 +16190,7 @@
       </c>
       <c r="E427" s="39"/>
       <c r="F427" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G427" s="43"/>
     </row>
@@ -16206,7 +16209,7 @@
       </c>
       <c r="E428" s="39"/>
       <c r="F428" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G428" s="39"/>
     </row>
@@ -16225,7 +16228,7 @@
       </c>
       <c r="E429" s="39"/>
       <c r="F429" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G429" s="43"/>
     </row>
@@ -16244,7 +16247,7 @@
       </c>
       <c r="E430" s="39"/>
       <c r="F430" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G430" s="43"/>
     </row>
@@ -16278,10 +16281,10 @@
       </c>
       <c r="E432" s="39"/>
       <c r="F432" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G432" s="43" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="433" spans="1:7" ht="60">
@@ -16299,7 +16302,7 @@
       </c>
       <c r="E433" s="39"/>
       <c r="F433" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G433" s="43"/>
     </row>
@@ -16318,7 +16321,7 @@
       </c>
       <c r="E434" s="39"/>
       <c r="F434" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G434" s="43" t="s">
         <v>586</v>
@@ -16339,7 +16342,7 @@
       </c>
       <c r="E435" s="39"/>
       <c r="F435" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G435" s="43"/>
     </row>
@@ -16373,10 +16376,10 @@
       </c>
       <c r="E437" s="39"/>
       <c r="F437" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G437" s="43" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -16390,13 +16393,13 @@
         <v>604</v>
       </c>
       <c r="D438" s="39" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E438" s="39" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F438" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G438" s="39"/>
     </row>
@@ -16408,7 +16411,7 @@
         <v>720</v>
       </c>
       <c r="C439" s="40" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D439" s="40"/>
       <c r="E439" s="40"/>
@@ -16426,13 +16429,13 @@
         <v>615</v>
       </c>
       <c r="D440" s="39" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E440" s="39" t="s">
         <v>616</v>
       </c>
       <c r="F440" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G440" s="39"/>
     </row>
@@ -16466,7 +16469,7 @@
         <v>268</v>
       </c>
       <c r="F442" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G442" s="43"/>
     </row>
@@ -16485,7 +16488,7 @@
         <v>268</v>
       </c>
       <c r="F443" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G443" s="43"/>
     </row>
@@ -16504,7 +16507,7 @@
         <v>268</v>
       </c>
       <c r="F444" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G444" s="43"/>
     </row>
@@ -16538,7 +16541,7 @@
         <v>268</v>
       </c>
       <c r="F446" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G446" s="43"/>
     </row>
@@ -16557,7 +16560,7 @@
         <v>268</v>
       </c>
       <c r="F447" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G447" s="43"/>
     </row>
@@ -16606,10 +16609,10 @@
       </c>
       <c r="E450" s="39"/>
       <c r="F450" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G450" s="43" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="451" spans="1:7" ht="30">
@@ -16627,7 +16630,7 @@
       </c>
       <c r="E451" s="39"/>
       <c r="F451" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G451" s="43"/>
     </row>
@@ -16646,7 +16649,7 @@
       </c>
       <c r="E452" s="39"/>
       <c r="F452" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G452" s="43"/>
     </row>
@@ -16695,10 +16698,10 @@
       </c>
       <c r="E455" s="39"/>
       <c r="F455" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G455" s="43" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -16716,7 +16719,7 @@
       </c>
       <c r="E456" s="39"/>
       <c r="F456" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G456" s="43"/>
     </row>
@@ -16731,11 +16734,11 @@
         <v>741</v>
       </c>
       <c r="D457" s="39" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E457" s="39"/>
       <c r="F457" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G457" s="39"/>
     </row>
@@ -16754,7 +16757,7 @@
       </c>
       <c r="E458" s="39"/>
       <c r="F458" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G458" s="39"/>
     </row>
@@ -16766,12 +16769,12 @@
         <v>744</v>
       </c>
       <c r="C459" s="39" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D459" s="39"/>
       <c r="E459" s="39"/>
       <c r="F459" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G459" s="39"/>
     </row>
@@ -16780,7 +16783,7 @@
         <v>56</v>
       </c>
       <c r="B460" s="39" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C460" s="39" t="s">
         <v>745</v>
@@ -16790,7 +16793,7 @@
       </c>
       <c r="E460" s="39"/>
       <c r="F460" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G460" s="39"/>
     </row>
@@ -16799,17 +16802,17 @@
         <v>56</v>
       </c>
       <c r="B461" s="39" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C461" s="39" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D461" s="39" t="s">
         <v>700</v>
       </c>
       <c r="E461" s="39"/>
       <c r="F461" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G461" s="39"/>
     </row>
@@ -16843,10 +16846,10 @@
       </c>
       <c r="E463" s="39"/>
       <c r="F463" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G463" s="43" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -16860,11 +16863,11 @@
         <v>604</v>
       </c>
       <c r="D464" s="39" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E464" s="39"/>
       <c r="F464" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G464" s="39"/>
     </row>
@@ -16898,10 +16901,10 @@
       </c>
       <c r="E466" s="39"/>
       <c r="F466" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G466" s="43" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="467" spans="1:7" ht="30">
@@ -16919,7 +16922,7 @@
       </c>
       <c r="E467" s="39"/>
       <c r="F467" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G467" s="43"/>
     </row>
@@ -16938,7 +16941,7 @@
       </c>
       <c r="E468" s="39"/>
       <c r="F468" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G468" s="43"/>
     </row>
@@ -16953,11 +16956,11 @@
         <v>613</v>
       </c>
       <c r="D469" s="39" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E469" s="39"/>
       <c r="F469" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G469" s="39"/>
     </row>
@@ -16972,11 +16975,11 @@
         <v>615</v>
       </c>
       <c r="D470" s="39" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E470" s="39"/>
       <c r="F470" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G470" s="39"/>
     </row>
@@ -17032,7 +17035,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>763</v>
@@ -17051,7 +17054,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>765</v>
@@ -17070,7 +17073,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>766</v>
@@ -17091,7 +17094,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>767</v>
@@ -17110,7 +17113,7 @@
         <v>770</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>771</v>
@@ -17138,8 +17141,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -17462,7 +17465,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="47.25">
       <c r="A17" s="6" t="s">
         <v>121</v>
       </c>
@@ -17475,8 +17478,8 @@
       <c r="D17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>797</v>
+      <c r="E17" s="53" t="s">
+        <v>1308</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>764</v>
@@ -17485,16 +17488,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>787</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>799</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>800</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -17507,10 +17510,10 @@
         <v>137</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>801</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>802</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>136</v>
@@ -17526,10 +17529,10 @@
         <v>140</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>139</v>
@@ -17545,10 +17548,10 @@
         <v>143</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>142</v>
@@ -17564,10 +17567,10 @@
         <v>146</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>145</v>
@@ -17583,10 +17586,10 @@
         <v>149</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>148</v>
@@ -17602,10 +17605,10 @@
         <v>89</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>88</v>
@@ -17621,13 +17624,13 @@
         <v>126</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>809</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>810</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
@@ -17640,13 +17643,13 @@
         <v>192</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>811</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>812</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
@@ -17659,10 +17662,10 @@
         <v>195</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>194</v>
@@ -17678,10 +17681,10 @@
         <v>168</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>814</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>815</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>167</v>
@@ -17697,10 +17700,10 @@
         <v>171</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>170</v>
@@ -17716,10 +17719,10 @@
         <v>174</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>173</v>
@@ -17735,10 +17738,10 @@
         <v>177</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>176</v>
@@ -17754,10 +17757,10 @@
         <v>180</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>179</v>
@@ -17773,10 +17776,10 @@
         <v>189</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>820</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>821</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>188</v>
@@ -17792,10 +17795,10 @@
         <v>237</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>822</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>823</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>236</v>
@@ -17811,10 +17814,10 @@
         <v>240</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>239</v>
@@ -17830,10 +17833,10 @@
         <v>243</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>242</v>
@@ -17849,10 +17852,10 @@
         <v>246</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>245</v>
@@ -17862,7 +17865,7 @@
         <v>783</v>
       </c>
       <c r="G37" s="52" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="31.5">
@@ -17870,10 +17873,10 @@
         <v>509</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>508</v>
@@ -17889,10 +17892,10 @@
         <v>267</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>266</v>
@@ -17908,13 +17911,13 @@
         <v>258</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D40" s="53" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
@@ -17927,13 +17930,13 @@
         <v>255</v>
       </c>
       <c r="B41" s="53" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
@@ -17946,13 +17949,13 @@
         <v>263</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C42" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>832</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>833</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6" t="s">
@@ -17962,16 +17965,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="54" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B43" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C43" s="54" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D43" s="54" t="s">
         <v>1228</v>
-      </c>
-      <c r="D43" s="54" t="s">
-        <v>1229</v>
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="54" t="s">
@@ -17981,16 +17984,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="54" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B44" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C44" s="54" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D44" s="54" t="s">
         <v>1230</v>
-      </c>
-      <c r="D44" s="54" t="s">
-        <v>1231</v>
       </c>
       <c r="E44" s="54"/>
       <c r="F44" s="54" t="s">
@@ -18000,16 +18003,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="54" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B45" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C45" s="54" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D45" s="54" t="s">
         <v>1232</v>
-      </c>
-      <c r="D45" s="54" t="s">
-        <v>1233</v>
       </c>
       <c r="E45" s="54"/>
       <c r="F45" s="54" t="s">
@@ -18019,16 +18022,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="54" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B46" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C46" s="54" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D46" s="54" t="s">
         <v>1234</v>
-      </c>
-      <c r="D46" s="54" t="s">
-        <v>1235</v>
       </c>
       <c r="E46" s="54"/>
       <c r="F46" s="54" t="s">
@@ -18038,16 +18041,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="54" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B47" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C47" s="54" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D47" s="54" t="s">
         <v>1236</v>
-      </c>
-      <c r="D47" s="54" t="s">
-        <v>1237</v>
       </c>
       <c r="E47" s="54"/>
       <c r="F47" s="54" t="s">
@@ -18057,16 +18060,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="54" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B48" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C48" s="54" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D48" s="54" t="s">
         <v>1238</v>
-      </c>
-      <c r="D48" s="54" t="s">
-        <v>1239</v>
       </c>
       <c r="E48" s="54"/>
       <c r="F48" s="54" t="s">
@@ -18076,16 +18079,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="54" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B49" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C49" s="54" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D49" s="54" t="s">
         <v>1240</v>
-      </c>
-      <c r="D49" s="54" t="s">
-        <v>1241</v>
       </c>
       <c r="E49" s="54"/>
       <c r="F49" s="54" t="s">
@@ -18095,16 +18098,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="54" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B50" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C50" s="54" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D50" s="54" t="s">
         <v>1242</v>
-      </c>
-      <c r="D50" s="54" t="s">
-        <v>1243</v>
       </c>
       <c r="E50" s="54"/>
       <c r="F50" s="54" t="s">
@@ -18114,16 +18117,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="54" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B51" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C51" s="54" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D51" s="54" t="s">
         <v>1244</v>
-      </c>
-      <c r="D51" s="54" t="s">
-        <v>1245</v>
       </c>
       <c r="E51" s="54"/>
       <c r="F51" s="54" t="s">
@@ -18133,16 +18136,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="54" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C52" s="54" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D52" s="54" t="s">
         <v>1246</v>
-      </c>
-      <c r="D52" s="54" t="s">
-        <v>1247</v>
       </c>
       <c r="E52" s="54"/>
       <c r="F52" s="54" t="s">
@@ -18152,16 +18155,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="54" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B53" s="54" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C53" s="54" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D53" s="54" t="s">
         <v>1248</v>
-      </c>
-      <c r="D53" s="54" t="s">
-        <v>1249</v>
       </c>
       <c r="E53" s="54"/>
       <c r="F53" s="54" t="s">
@@ -18171,16 +18174,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="54" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B54" s="54" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C54" s="54" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D54" s="54" t="s">
         <v>1250</v>
-      </c>
-      <c r="D54" s="54" t="s">
-        <v>1251</v>
       </c>
       <c r="E54" s="54"/>
       <c r="F54" s="54" t="s">
@@ -18190,16 +18193,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="54" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C55" s="54" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D55" s="54" t="s">
         <v>1252</v>
-      </c>
-      <c r="D55" s="54" t="s">
-        <v>1253</v>
       </c>
       <c r="E55" s="54"/>
       <c r="F55" s="54" t="s">
@@ -18511,13 +18514,13 @@
     </row>
     <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>835</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>836</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>278</v>
@@ -18530,16 +18533,16 @@
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>838</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
@@ -18549,13 +18552,13 @@
     </row>
     <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>839</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>840</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>282</v>
@@ -18568,13 +18571,13 @@
     </row>
     <row r="5" spans="1:256" ht="31.5" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>841</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>842</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>285</v>
@@ -18587,16 +18590,16 @@
     </row>
     <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>844</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>845</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
@@ -18606,16 +18609,16 @@
     </row>
     <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>847</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>848</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
@@ -18625,16 +18628,16 @@
     </row>
     <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>850</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>851</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
@@ -18644,16 +18647,16 @@
     </row>
     <row r="9" spans="1:256" ht="31.5" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>853</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>854</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
@@ -18663,13 +18666,13 @@
     </row>
     <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>855</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>856</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>356</v>
@@ -18682,13 +18685,13 @@
     </row>
     <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>857</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>858</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>358</v>
@@ -18701,16 +18704,16 @@
     </row>
     <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>860</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>861</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
@@ -18720,13 +18723,13 @@
     </row>
     <row r="13" spans="1:256" ht="31.5" customHeight="1">
       <c r="A13" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>862</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>863</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>362</v>
@@ -18739,13 +18742,13 @@
     </row>
     <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>864</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>865</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>365</v>
@@ -18758,13 +18761,13 @@
     </row>
     <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>866</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>867</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>367</v>
@@ -18777,16 +18780,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="53" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
@@ -18796,16 +18799,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="53" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C17" s="53" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D17" s="53" t="s">
         <v>1060</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>1061</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
@@ -18815,16 +18818,16 @@
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>869</v>
-      </c>
       <c r="D18" s="53" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -18834,13 +18837,13 @@
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>870</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>871</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>376</v>
@@ -18853,13 +18856,13 @@
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>872</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>873</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>378</v>
@@ -18872,16 +18875,16 @@
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>875</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>876</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
@@ -18891,13 +18894,13 @@
     </row>
     <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>877</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>878</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>384</v>
@@ -18910,13 +18913,13 @@
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>879</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>880</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>386</v>
@@ -18929,13 +18932,13 @@
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>881</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>882</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>388</v>
@@ -18948,16 +18951,16 @@
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>884</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>885</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
@@ -18967,13 +18970,13 @@
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>886</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>887</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>394</v>
@@ -18986,16 +18989,16 @@
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>889</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>890</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
@@ -19005,13 +19008,13 @@
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>891</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>892</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>398</v>
@@ -19024,13 +19027,13 @@
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>893</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>894</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>400</v>
@@ -19043,13 +19046,13 @@
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>895</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>896</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>402</v>
@@ -19062,16 +19065,16 @@
     </row>
     <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>897</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>898</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>899</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
@@ -19081,16 +19084,16 @@
     </row>
     <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>901</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>902</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
@@ -19100,16 +19103,16 @@
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>904</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>905</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
@@ -19119,16 +19122,16 @@
     </row>
     <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>906</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>907</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>908</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
@@ -19138,16 +19141,16 @@
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>909</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>910</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>911</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
@@ -19157,16 +19160,16 @@
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>912</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>913</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>914</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
@@ -19176,16 +19179,16 @@
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>915</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>916</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>917</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
@@ -19195,16 +19198,16 @@
     </row>
     <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>918</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>919</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>920</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
@@ -19214,16 +19217,16 @@
     </row>
     <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>921</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>922</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>923</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
@@ -19233,35 +19236,35 @@
     </row>
     <row r="40" spans="1:7" ht="30.95" customHeight="1">
       <c r="A40" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>926</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>927</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7" ht="31.5" customHeight="1">
       <c r="A41" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>929</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>930</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -19269,16 +19272,16 @@
     </row>
     <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>932</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>933</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -19286,73 +19289,73 @@
     </row>
     <row r="43" spans="1:7" ht="30.95" customHeight="1">
       <c r="A43" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>934</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>935</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>936</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>937</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" ht="47.25" customHeight="1">
       <c r="A44" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>938</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>939</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>940</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>941</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>942</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>943</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>944</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>945</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7" ht="31.5" customHeight="1">
       <c r="A46" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>947</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>948</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -19360,16 +19363,16 @@
     </row>
     <row r="47" spans="1:7" ht="31.5" customHeight="1">
       <c r="A47" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>949</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>950</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>951</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -19377,16 +19380,16 @@
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>953</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>954</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -19394,16 +19397,16 @@
     </row>
     <row r="49" spans="1:256" s="29" customFormat="1" ht="31.5">
       <c r="A49" s="53" t="s">
+        <v>954</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C49" s="62" t="s">
         <v>955</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>956</v>
-      </c>
       <c r="D49" s="62" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -19660,16 +19663,16 @@
     </row>
     <row r="50" spans="1:256">
       <c r="A50" s="53" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>1293</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
   </sheetData>
@@ -19730,13 +19733,13 @@
         <v>419</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C2" s="53" t="s">
+        <v>956</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>957</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>958</v>
       </c>
       <c r="E2" s="53"/>
       <c r="F2" s="53" t="s">
@@ -19749,13 +19752,13 @@
         <v>422</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C3" s="53" t="s">
+        <v>958</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>959</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>960</v>
       </c>
       <c r="E3" s="53"/>
       <c r="F3" s="53" t="s">
@@ -19768,13 +19771,13 @@
         <v>425</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C4" s="53" t="s">
+        <v>960</v>
+      </c>
+      <c r="D4" s="53" t="s">
         <v>961</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>962</v>
       </c>
       <c r="E4" s="53"/>
       <c r="F4" s="53" t="s">
@@ -19787,13 +19790,13 @@
         <v>440</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C5" s="53" t="s">
+        <v>962</v>
+      </c>
+      <c r="D5" s="53" t="s">
         <v>963</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>964</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="53" t="s">
@@ -19806,13 +19809,13 @@
         <v>428</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C6" s="53" t="s">
+        <v>964</v>
+      </c>
+      <c r="D6" s="53" t="s">
         <v>965</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>966</v>
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="53" t="s">
@@ -19825,13 +19828,13 @@
         <v>431</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C7" s="53" t="s">
+        <v>966</v>
+      </c>
+      <c r="D7" s="53" t="s">
         <v>967</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>968</v>
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="53" t="s">
@@ -19844,13 +19847,13 @@
         <v>434</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C8" s="53" t="s">
+        <v>968</v>
+      </c>
+      <c r="D8" s="53" t="s">
         <v>969</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>970</v>
       </c>
       <c r="E8" s="53"/>
       <c r="F8" s="53" t="s">
@@ -19863,13 +19866,13 @@
         <v>437</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C9" s="53" t="s">
+        <v>970</v>
+      </c>
+      <c r="D9" s="53" t="s">
         <v>971</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>972</v>
       </c>
       <c r="E9" s="53"/>
       <c r="F9" s="53" t="s">
@@ -19882,13 +19885,13 @@
         <v>443</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C10" s="53" t="s">
+        <v>972</v>
+      </c>
+      <c r="D10" s="53" t="s">
         <v>973</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>974</v>
       </c>
       <c r="E10" s="53"/>
       <c r="F10" s="53" t="s">
@@ -19898,16 +19901,16 @@
     </row>
     <row r="11" spans="1:7" ht="47.25" customHeight="1">
       <c r="A11" s="53" t="s">
+        <v>974</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C11" s="53" t="s">
         <v>975</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C11" s="53" t="s">
+      <c r="D11" s="53" t="s">
         <v>976</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>977</v>
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="53" t="s">
@@ -19920,13 +19923,13 @@
         <v>446</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C12" s="53" t="s">
+        <v>977</v>
+      </c>
+      <c r="D12" s="53" t="s">
         <v>978</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>979</v>
       </c>
       <c r="E12" s="53"/>
       <c r="F12" s="53" t="s">
@@ -19939,20 +19942,20 @@
         <v>449</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C13" s="53" t="s">
+        <v>979</v>
+      </c>
+      <c r="D13" s="53" t="s">
         <v>980</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>981</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="53" t="s">
         <v>764</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1">
@@ -19960,13 +19963,13 @@
         <v>452</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C14" s="53" t="s">
+        <v>981</v>
+      </c>
+      <c r="D14" s="53" t="s">
         <v>982</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>983</v>
       </c>
       <c r="E14" s="53"/>
       <c r="F14" s="53" t="s">
@@ -19979,22 +19982,22 @@
         <v>485</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C15" s="53" t="s">
+        <v>983</v>
+      </c>
+      <c r="D15" s="53" t="s">
         <v>984</v>
       </c>
-      <c r="D15" s="53" t="s">
-        <v>985</v>
-      </c>
       <c r="E15" s="53" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F15" s="53" t="s">
         <v>764</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="47.25" customHeight="1">
@@ -20002,13 +20005,13 @@
         <v>476</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C16" s="53" t="s">
+        <v>985</v>
+      </c>
+      <c r="D16" s="53" t="s">
         <v>986</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>987</v>
       </c>
       <c r="E16" s="53"/>
       <c r="F16" s="53" t="s">
@@ -20021,22 +20024,22 @@
         <v>488</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C17" s="53" t="s">
+        <v>987</v>
+      </c>
+      <c r="D17" s="53" t="s">
         <v>988</v>
       </c>
-      <c r="D17" s="53" t="s">
-        <v>989</v>
-      </c>
       <c r="E17" s="53" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F17" s="53" t="s">
         <v>764</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1">
@@ -20044,10 +20047,10 @@
         <v>515</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D18" s="53" t="s">
         <v>514</v>
@@ -20063,10 +20066,10 @@
         <v>518</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D19" s="53" t="s">
         <v>517</v>
@@ -20082,13 +20085,13 @@
         <v>521</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C20" s="53" t="s">
+        <v>991</v>
+      </c>
+      <c r="D20" s="53" t="s">
         <v>992</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>993</v>
       </c>
       <c r="E20" s="53"/>
       <c r="F20" s="53" t="s">
@@ -20101,13 +20104,13 @@
         <v>524</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C21" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="D21" s="53" t="s">
         <v>994</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>995</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="53" t="s">
@@ -20120,13 +20123,13 @@
         <v>529</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C22" s="53" t="s">
+        <v>995</v>
+      </c>
+      <c r="D22" s="53" t="s">
         <v>996</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>997</v>
       </c>
       <c r="E22" s="53"/>
       <c r="F22" s="53" t="s">
@@ -20139,10 +20142,10 @@
         <v>471</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D23" s="53" t="s">
         <v>526</v>
@@ -20153,16 +20156,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="66" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B24" s="66" t="s">
         <v>1254</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="C24" s="66" t="s">
         <v>1255</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="D24" s="66" t="s">
         <v>1256</v>
-      </c>
-      <c r="D24" s="66" t="s">
-        <v>1257</v>
       </c>
       <c r="E24" s="66"/>
       <c r="F24" s="66"/>
@@ -20170,16 +20173,16 @@
     </row>
     <row r="25" spans="1:7" ht="45">
       <c r="A25" s="66" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C25" s="66" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D25" s="66" t="s">
         <v>1258</v>
-      </c>
-      <c r="D25" s="66" t="s">
-        <v>1259</v>
       </c>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
@@ -20187,16 +20190,16 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="66" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C26" s="66" t="s">
         <v>1260</v>
       </c>
-      <c r="B26" s="66" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C26" s="66" t="s">
+      <c r="D26" s="66" t="s">
         <v>1261</v>
-      </c>
-      <c r="D26" s="66" t="s">
-        <v>1262</v>
       </c>
       <c r="E26" s="66"/>
       <c r="F26" s="66"/>
@@ -20204,16 +20207,16 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="66" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C27" s="66" t="s">
         <v>1263</v>
       </c>
-      <c r="B27" s="66" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C27" s="66" t="s">
+      <c r="D27" s="66" t="s">
         <v>1264</v>
-      </c>
-      <c r="D27" s="66" t="s">
-        <v>1265</v>
       </c>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
@@ -20221,16 +20224,16 @@
     </row>
     <row r="28" spans="1:7" ht="30">
       <c r="A28" s="66" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C28" s="66" t="s">
         <v>1266</v>
       </c>
-      <c r="B28" s="66" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C28" s="66" t="s">
+      <c r="D28" s="66" t="s">
         <v>1267</v>
-      </c>
-      <c r="D28" s="66" t="s">
-        <v>1268</v>
       </c>
       <c r="E28" s="66"/>
       <c r="F28" s="66"/>
@@ -20238,16 +20241,16 @@
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="66" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C29" s="66" t="s">
         <v>1269</v>
       </c>
-      <c r="B29" s="66" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C29" s="66" t="s">
+      <c r="D29" s="66" t="s">
         <v>1270</v>
-      </c>
-      <c r="D29" s="66" t="s">
-        <v>1271</v>
       </c>
       <c r="E29" s="66"/>
       <c r="F29" s="66"/>
@@ -20255,16 +20258,16 @@
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="66" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C30" s="66" t="s">
         <v>1272</v>
       </c>
-      <c r="B30" s="66" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C30" s="66" t="s">
+      <c r="D30" s="66" t="s">
         <v>1273</v>
-      </c>
-      <c r="D30" s="66" t="s">
-        <v>1274</v>
       </c>
       <c r="E30" s="66"/>
       <c r="F30" s="66"/>
@@ -20325,16 +20328,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="50" t="s">
         <v>1000</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>1001</v>
-      </c>
       <c r="D2" s="50" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E2" s="60"/>
       <c r="F2" s="53" t="s">
@@ -20344,16 +20347,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>1002</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>1003</v>
-      </c>
       <c r="D3" s="51" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E3" s="61"/>
       <c r="F3" s="6" t="s">
@@ -20363,16 +20366,16 @@
     </row>
     <row r="4" spans="1:7" ht="63">
       <c r="A4" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>1004</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>1005</v>
-      </c>
       <c r="D4" s="50" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E4" s="60"/>
       <c r="F4" s="6" t="s">
@@ -20686,16 +20689,16 @@
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>1007</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>1008</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>1009</v>
       </c>
       <c r="E2" s="55"/>
       <c r="F2" s="6" t="s">
@@ -20708,13 +20711,13 @@
         <v>627</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>1010</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1011</v>
       </c>
       <c r="E3" s="55"/>
       <c r="F3" s="6" t="s">
@@ -20727,13 +20730,13 @@
         <v>557</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>1012</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1013</v>
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="6" t="s">
@@ -20746,13 +20749,13 @@
         <v>560</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>1014</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>1015</v>
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="6" t="s">
@@ -20765,13 +20768,13 @@
         <v>563</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>1016</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>1017</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="6" t="s">
@@ -20784,22 +20787,22 @@
         <v>566</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>1018</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>1019</v>
-      </c>
       <c r="E7" s="67" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5">
@@ -20807,13 +20810,13 @@
         <v>571</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>1020</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1021</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="6" t="s">
@@ -20826,13 +20829,13 @@
         <v>574</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>1022</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1023</v>
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="6" t="s">
@@ -20845,13 +20848,13 @@
         <v>577</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>1024</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1025</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="6" t="s">
@@ -20864,13 +20867,13 @@
         <v>580</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>1026</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>1027</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="6" t="s">
@@ -20883,10 +20886,10 @@
         <v>583</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>582</v>
@@ -20902,22 +20905,22 @@
         <v>586</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>1029</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>1030</v>
-      </c>
       <c r="E13" s="56" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -20925,20 +20928,20 @@
         <v>595</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>1031</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>1032</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1">
@@ -20946,13 +20949,13 @@
         <v>598</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>1033</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>1034</v>
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="6" t="s">
@@ -20965,13 +20968,13 @@
         <v>630</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>1035</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>1036</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="6" t="s">
@@ -20981,16 +20984,16 @@
     </row>
     <row r="17" spans="1:256" ht="31.5" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>1038</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1039</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="6" t="s">
@@ -21003,13 +21006,13 @@
         <v>662</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>1040</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>1041</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="6" t="s">
@@ -21019,25 +21022,25 @@
     </row>
     <row r="19" spans="1:256" ht="31.5" customHeight="1">
       <c r="A19" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>1043</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>1044</v>
-      </c>
       <c r="E19" s="58" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1">
@@ -21045,13 +21048,13 @@
         <v>697</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>1045</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>1046</v>
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="6" t="s">
@@ -21064,56 +21067,56 @@
         <v>700</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>1047</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>1048</v>
-      </c>
       <c r="E21" s="53" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="22" spans="1:256" ht="31.5" customHeight="1">
       <c r="A22" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>1051</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>1053</v>
-      </c>
       <c r="E22" s="68" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>783</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="23" spans="1:256" s="33" customFormat="1" ht="31.5">
       <c r="A23" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>1071</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>1072</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>609</v>
@@ -21373,13 +21376,13 @@
     </row>
     <row r="24" spans="1:256" s="33" customFormat="1">
       <c r="A24" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>613</v>
@@ -21639,19 +21642,19 @@
     </row>
     <row r="25" spans="1:256" s="33" customFormat="1">
       <c r="A25" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>604</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -21907,13 +21910,13 @@
     </row>
     <row r="26" spans="1:256" s="33" customFormat="1" ht="31.5">
       <c r="A26" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>615</v>
@@ -22173,13 +22176,13 @@
     </row>
     <row r="27" spans="1:256" s="33" customFormat="1">
       <c r="A27" s="57" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>741</v>
@@ -22739,40 +22742,40 @@
     </row>
     <row r="2" spans="1:256" ht="31.5">
       <c r="A2" s="52" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B2" s="52" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>1282</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>1283</v>
-      </c>
       <c r="D2" s="52" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="31.5">
       <c r="A3" s="52" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1284</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>1285</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1286</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>783</v>
@@ -22781,19 +22784,19 @@
     </row>
     <row r="4" spans="1:256" ht="31.5">
       <c r="A4" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>1287</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>1288</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1289</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>783</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_Production_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance-pkix-11\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2562E5-5A77-40B4-BB02-77E2C7079707}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99035DF0-8C32-4F08-8CC6-09D1C78BD672}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="26190" windowHeight="13845" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3755" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="1309">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -8516,10 +8516,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G470"/>
+  <dimension ref="A1:G469"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A418" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A429" sqref="A429:XFD429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -13222,7 +13222,7 @@
       <c r="F261" s="39"/>
       <c r="G261" s="43"/>
     </row>
-    <row r="262" spans="1:7" ht="60">
+    <row r="262" spans="1:7" ht="75">
       <c r="A262" s="39" t="s">
         <v>56</v>
       </c>
@@ -13375,7 +13375,7 @@
       <c r="F270" s="40"/>
       <c r="G270" s="40"/>
     </row>
-    <row r="271" spans="1:7" ht="60">
+    <row r="271" spans="1:7" ht="75">
       <c r="A271" s="39" t="s">
         <v>56</v>
       </c>
@@ -13629,7 +13629,9 @@
         <v>485</v>
       </c>
       <c r="E285" s="39"/>
-      <c r="F285" s="39"/>
+      <c r="F285" s="39" t="s">
+        <v>1126</v>
+      </c>
       <c r="G285" s="43"/>
     </row>
     <row r="286" spans="1:7" ht="75">
@@ -13679,7 +13681,7 @@
       <c r="F288" s="40"/>
       <c r="G288" s="40"/>
     </row>
-    <row r="289" spans="1:7" ht="60">
+    <row r="289" spans="1:7" ht="75">
       <c r="A289" s="39" t="s">
         <v>56</v>
       </c>
@@ -13933,7 +13935,9 @@
         <v>485</v>
       </c>
       <c r="E303" s="39"/>
-      <c r="F303" s="39"/>
+      <c r="F303" s="39" t="s">
+        <v>1126</v>
+      </c>
       <c r="G303" s="43"/>
     </row>
     <row r="304" spans="1:7" ht="75">
@@ -14036,7 +14040,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" ht="30">
       <c r="A310" s="39" t="s">
         <v>56</v>
       </c>
@@ -14070,7 +14074,7 @@
       <c r="F311" s="39"/>
       <c r="G311" s="43"/>
     </row>
-    <row r="312" spans="1:7" ht="45">
+    <row r="312" spans="1:7" ht="60">
       <c r="A312" s="39" t="s">
         <v>56</v>
       </c>
@@ -14168,7 +14172,7 @@
       <c r="F317" s="40"/>
       <c r="G317" s="48"/>
     </row>
-    <row r="318" spans="1:7" ht="60">
+    <row r="318" spans="1:7" ht="75">
       <c r="A318" s="39" t="s">
         <v>56</v>
       </c>
@@ -14422,7 +14426,9 @@
         <v>485</v>
       </c>
       <c r="E332" s="39"/>
-      <c r="F332" s="39"/>
+      <c r="F332" s="39" t="s">
+        <v>1126</v>
+      </c>
       <c r="G332" s="39"/>
     </row>
     <row r="333" spans="1:7" ht="75">
@@ -16213,18 +16219,18 @@
       </c>
       <c r="G428" s="39"/>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" ht="45">
       <c r="A429" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B429" s="39" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C429" s="43" t="s">
-        <v>579</v>
+        <v>666</v>
       </c>
       <c r="D429" s="39" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E429" s="39"/>
       <c r="F429" s="39" t="s">
@@ -16232,49 +16238,51 @@
       </c>
       <c r="G429" s="43"/>
     </row>
-    <row r="430" spans="1:7" ht="45">
+    <row r="430" spans="1:7">
       <c r="A430" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B430" s="39" t="s">
-        <v>710</v>
-      </c>
-      <c r="C430" s="43" t="s">
-        <v>666</v>
-      </c>
-      <c r="D430" s="39" t="s">
-        <v>583</v>
-      </c>
-      <c r="E430" s="39"/>
-      <c r="F430" s="39" t="s">
+        <v>711</v>
+      </c>
+      <c r="C430" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="D430" s="40"/>
+      <c r="E430" s="40"/>
+      <c r="F430" s="40"/>
+      <c r="G430" s="40"/>
+    </row>
+    <row r="431" spans="1:7" ht="90">
+      <c r="A431" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B431" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="C431" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="D431" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="E431" s="39"/>
+      <c r="F431" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G430" s="43"/>
-    </row>
-    <row r="431" spans="1:7">
-      <c r="A431" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B431" s="39" t="s">
-        <v>711</v>
-      </c>
-      <c r="C431" s="40" t="s">
-        <v>585</v>
-      </c>
-      <c r="D431" s="40"/>
-      <c r="E431" s="40"/>
-      <c r="F431" s="40"/>
-      <c r="G431" s="40"/>
-    </row>
-    <row r="432" spans="1:7" ht="90">
+      <c r="G431" s="43" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" ht="60">
       <c r="A432" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B432" s="39" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C432" s="43" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D432" s="39" t="s">
         <v>586</v>
@@ -16283,19 +16291,17 @@
       <c r="F432" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G432" s="43" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" ht="60">
+      <c r="G432" s="43"/>
+    </row>
+    <row r="433" spans="1:7" ht="30">
       <c r="A433" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B433" s="39" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C433" s="43" t="s">
-        <v>590</v>
+        <v>715</v>
       </c>
       <c r="D433" s="39" t="s">
         <v>586</v>
@@ -16304,165 +16310,165 @@
       <c r="F433" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G433" s="43"/>
+      <c r="G433" s="43" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="434" spans="1:7" ht="30">
       <c r="A434" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B434" s="39" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C434" s="43" t="s">
-        <v>715</v>
+        <v>668</v>
       </c>
       <c r="D434" s="39" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="E434" s="39"/>
       <c r="F434" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G434" s="43" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" ht="30">
+      <c r="G434" s="43"/>
+    </row>
+    <row r="435" spans="1:7">
       <c r="A435" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B435" s="39" t="s">
-        <v>716</v>
-      </c>
-      <c r="C435" s="43" t="s">
-        <v>668</v>
-      </c>
-      <c r="D435" s="39" t="s">
-        <v>598</v>
-      </c>
-      <c r="E435" s="39"/>
-      <c r="F435" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G435" s="43"/>
+        <v>717</v>
+      </c>
+      <c r="C435" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D435" s="40"/>
+      <c r="E435" s="40"/>
+      <c r="F435" s="40"/>
+      <c r="G435" s="40"/>
     </row>
     <row r="436" spans="1:7">
       <c r="A436" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B436" s="39" t="s">
-        <v>717</v>
-      </c>
-      <c r="C436" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="D436" s="40"/>
-      <c r="E436" s="40"/>
-      <c r="F436" s="40"/>
-      <c r="G436" s="40"/>
+        <v>718</v>
+      </c>
+      <c r="C436" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="D436" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E436" s="39"/>
+      <c r="F436" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G436" s="43" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B437" s="39" t="s">
-        <v>718</v>
-      </c>
-      <c r="C437" s="43" t="s">
-        <v>602</v>
+        <v>719</v>
+      </c>
+      <c r="C437" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="D437" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E437" s="39"/>
+        <v>1065</v>
+      </c>
+      <c r="E437" s="39" t="s">
+        <v>1221</v>
+      </c>
       <c r="F437" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G437" s="43" t="s">
-        <v>1110</v>
-      </c>
+      <c r="G437" s="39"/>
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B438" s="39" t="s">
-        <v>719</v>
-      </c>
-      <c r="C438" s="39" t="s">
-        <v>604</v>
-      </c>
-      <c r="D438" s="39" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E438" s="39" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F438" s="39" t="s">
+        <v>720</v>
+      </c>
+      <c r="C438" s="40" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D438" s="40"/>
+      <c r="E438" s="40"/>
+      <c r="F438" s="40"/>
+      <c r="G438" s="40"/>
+    </row>
+    <row r="439" spans="1:7" ht="30">
+      <c r="A439" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B439" s="39" t="s">
+        <v>725</v>
+      </c>
+      <c r="C439" s="39" t="s">
+        <v>615</v>
+      </c>
+      <c r="D439" s="39" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E439" s="39" t="s">
+        <v>616</v>
+      </c>
+      <c r="F439" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G438" s="39"/>
-    </row>
-    <row r="439" spans="1:7">
-      <c r="A439" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B439" s="39" t="s">
-        <v>720</v>
-      </c>
-      <c r="C439" s="40" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D439" s="40"/>
-      <c r="E439" s="40"/>
-      <c r="F439" s="40"/>
-      <c r="G439" s="40"/>
-    </row>
-    <row r="440" spans="1:7" ht="30">
+      <c r="G439" s="39"/>
+    </row>
+    <row r="440" spans="1:7">
       <c r="A440" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B440" s="39" t="s">
-        <v>725</v>
-      </c>
-      <c r="C440" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D440" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E440" s="39" t="s">
-        <v>616</v>
-      </c>
-      <c r="F440" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G440" s="39"/>
+      <c r="B440" s="39">
+        <v>11.5</v>
+      </c>
+      <c r="C440" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D440" s="40"/>
+      <c r="E440" s="40"/>
+      <c r="F440" s="40"/>
+      <c r="G440" s="38"/>
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B441" s="39">
-        <v>11.5</v>
-      </c>
-      <c r="C441" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D441" s="40"/>
-      <c r="E441" s="40"/>
-      <c r="F441" s="40"/>
-      <c r="G441" s="38"/>
+      <c r="B441" s="39" t="s">
+        <v>726</v>
+      </c>
+      <c r="C441" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D441" s="39"/>
+      <c r="E441" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="F441" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G441" s="43"/>
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B442" s="39" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C442" s="43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D442" s="39"/>
       <c r="E442" s="43" t="s">
@@ -16478,10 +16484,10 @@
         <v>56</v>
       </c>
       <c r="B443" s="39" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C443" s="43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D443" s="39"/>
       <c r="E443" s="43" t="s">
@@ -16496,45 +16502,45 @@
       <c r="A444" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B444" s="39" t="s">
-        <v>728</v>
-      </c>
-      <c r="C444" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D444" s="39"/>
-      <c r="E444" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="F444" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G444" s="43"/>
+      <c r="B444" s="39">
+        <v>11.6</v>
+      </c>
+      <c r="C444" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D444" s="40"/>
+      <c r="E444" s="38"/>
+      <c r="F444" s="40"/>
+      <c r="G444" s="38"/>
     </row>
     <row r="445" spans="1:7">
       <c r="A445" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B445" s="39">
-        <v>11.6</v>
-      </c>
-      <c r="C445" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D445" s="40"/>
-      <c r="E445" s="38"/>
-      <c r="F445" s="40"/>
-      <c r="G445" s="38"/>
+      <c r="B445" s="39" t="s">
+        <v>729</v>
+      </c>
+      <c r="C445" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D445" s="39"/>
+      <c r="E445" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="F445" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G445" s="43"/>
     </row>
     <row r="446" spans="1:7">
       <c r="A446" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B446" s="39" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C446" s="43" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D446" s="39"/>
       <c r="E446" s="43" t="s">
@@ -16549,81 +16555,81 @@
       <c r="A447" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B447" s="39" t="s">
-        <v>730</v>
-      </c>
-      <c r="C447" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D447" s="39"/>
-      <c r="E447" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="F447" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G447" s="43"/>
+      <c r="B447" s="39">
+        <v>11.7</v>
+      </c>
+      <c r="C447" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D447" s="40"/>
+      <c r="E447" s="40"/>
+      <c r="F447" s="40"/>
+      <c r="G447" s="38"/>
     </row>
     <row r="448" spans="1:7">
       <c r="A448" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B448" s="39">
-        <v>11.7</v>
-      </c>
-      <c r="C448" s="38" t="s">
-        <v>51</v>
+      <c r="B448" s="39" t="s">
+        <v>731</v>
+      </c>
+      <c r="C448" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="D448" s="40"/>
       <c r="E448" s="40"/>
       <c r="F448" s="40"/>
-      <c r="G448" s="38"/>
-    </row>
-    <row r="449" spans="1:7">
+      <c r="G448" s="40"/>
+    </row>
+    <row r="449" spans="1:7" ht="105">
       <c r="A449" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B449" s="39" t="s">
-        <v>731</v>
-      </c>
-      <c r="C449" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D449" s="40"/>
-      <c r="E449" s="40"/>
-      <c r="F449" s="40"/>
-      <c r="G449" s="40"/>
-    </row>
-    <row r="450" spans="1:7" ht="105">
+        <v>732</v>
+      </c>
+      <c r="C449" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="D449" s="39">
+        <v>78.3</v>
+      </c>
+      <c r="E449" s="39"/>
+      <c r="F449" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G449" s="43" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" ht="30">
       <c r="A450" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B450" s="39" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C450" s="43" t="s">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="D450" s="39">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E450" s="39"/>
       <c r="F450" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G450" s="43" t="s">
-        <v>1107</v>
-      </c>
+      <c r="G450" s="43"/>
     </row>
     <row r="451" spans="1:7" ht="30">
       <c r="A451" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B451" s="39" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C451" s="43" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="D451" s="39">
         <v>78.099999999999994</v>
@@ -16634,107 +16640,107 @@
       </c>
       <c r="G451" s="43"/>
     </row>
-    <row r="452" spans="1:7" ht="30">
+    <row r="452" spans="1:7">
       <c r="A452" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B452" s="39" t="s">
-        <v>734</v>
-      </c>
-      <c r="C452" s="43" t="s">
-        <v>655</v>
-      </c>
-      <c r="D452" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E452" s="39"/>
-      <c r="F452" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G452" s="43"/>
+        <v>735</v>
+      </c>
+      <c r="C452" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D452" s="40"/>
+      <c r="E452" s="40"/>
+      <c r="F452" s="40"/>
+      <c r="G452" s="40"/>
     </row>
     <row r="453" spans="1:7">
       <c r="A453" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B453" s="39" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C453" s="40" t="s">
-        <v>43</v>
+        <v>624</v>
       </c>
       <c r="D453" s="40"/>
       <c r="E453" s="40"/>
       <c r="F453" s="40"/>
       <c r="G453" s="40"/>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" ht="30">
       <c r="A454" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B454" s="39" t="s">
-        <v>736</v>
-      </c>
-      <c r="C454" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D454" s="40"/>
-      <c r="E454" s="40"/>
-      <c r="F454" s="40"/>
-      <c r="G454" s="40"/>
-    </row>
-    <row r="455" spans="1:7" ht="30">
+        <v>737</v>
+      </c>
+      <c r="C454" s="43" t="s">
+        <v>738</v>
+      </c>
+      <c r="D454" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="E454" s="39"/>
+      <c r="F454" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G454" s="43" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7">
       <c r="A455" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B455" s="39" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C455" s="43" t="s">
-        <v>738</v>
+        <v>690</v>
       </c>
       <c r="D455" s="39" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E455" s="39"/>
       <c r="F455" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G455" s="43" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7">
+      <c r="G455" s="43"/>
+    </row>
+    <row r="456" spans="1:7" ht="30">
       <c r="A456" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B456" s="39" t="s">
-        <v>739</v>
-      </c>
-      <c r="C456" s="43" t="s">
-        <v>690</v>
+        <v>740</v>
+      </c>
+      <c r="C456" s="39" t="s">
+        <v>741</v>
       </c>
       <c r="D456" s="39" t="s">
-        <v>560</v>
+        <v>1067</v>
       </c>
       <c r="E456" s="39"/>
       <c r="F456" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G456" s="43"/>
-    </row>
-    <row r="457" spans="1:7" ht="30">
+      <c r="G456" s="39"/>
+    </row>
+    <row r="457" spans="1:7" ht="45">
       <c r="A457" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B457" s="39" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C457" s="39" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D457" s="39" t="s">
-        <v>1067</v>
+        <v>598</v>
       </c>
       <c r="E457" s="39"/>
       <c r="F457" s="39" t="s">
@@ -16742,54 +16748,54 @@
       </c>
       <c r="G457" s="39"/>
     </row>
-    <row r="458" spans="1:7" ht="45">
+    <row r="458" spans="1:7">
       <c r="A458" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B458" s="39" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C458" s="39" t="s">
-        <v>743</v>
-      </c>
-      <c r="D458" s="39" t="s">
-        <v>598</v>
-      </c>
+        <v>1082</v>
+      </c>
+      <c r="D458" s="39"/>
       <c r="E458" s="39"/>
       <c r="F458" s="39" t="s">
         <v>1126</v>
       </c>
       <c r="G458" s="39"/>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" ht="60">
       <c r="A459" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B459" s="39" t="s">
-        <v>744</v>
+        <v>1083</v>
       </c>
       <c r="C459" s="39" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D459" s="39"/>
+        <v>745</v>
+      </c>
+      <c r="D459" s="39" t="s">
+        <v>566</v>
+      </c>
       <c r="E459" s="39"/>
       <c r="F459" s="39" t="s">
         <v>1126</v>
       </c>
       <c r="G459" s="39"/>
     </row>
-    <row r="460" spans="1:7" ht="60">
+    <row r="460" spans="1:7" ht="30">
       <c r="A460" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B460" s="39" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C460" s="39" t="s">
-        <v>745</v>
+        <v>1081</v>
       </c>
       <c r="D460" s="39" t="s">
-        <v>566</v>
+        <v>700</v>
       </c>
       <c r="E460" s="39"/>
       <c r="F460" s="39" t="s">
@@ -16797,128 +16803,128 @@
       </c>
       <c r="G460" s="39"/>
     </row>
-    <row r="461" spans="1:7" ht="30">
+    <row r="461" spans="1:7">
       <c r="A461" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B461" s="39" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C461" s="39" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D461" s="39" t="s">
-        <v>700</v>
-      </c>
-      <c r="E461" s="39"/>
-      <c r="F461" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G461" s="39"/>
+        <v>747</v>
+      </c>
+      <c r="C461" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D461" s="40"/>
+      <c r="E461" s="40"/>
+      <c r="F461" s="40"/>
+      <c r="G461" s="40"/>
     </row>
     <row r="462" spans="1:7">
       <c r="A462" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B462" s="39" t="s">
-        <v>747</v>
-      </c>
-      <c r="C462" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="D462" s="40"/>
-      <c r="E462" s="40"/>
-      <c r="F462" s="40"/>
-      <c r="G462" s="40"/>
+        <v>748</v>
+      </c>
+      <c r="C462" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="D462" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E462" s="39"/>
+      <c r="F462" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G462" s="43" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="463" spans="1:7">
       <c r="A463" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B463" s="39" t="s">
-        <v>748</v>
-      </c>
-      <c r="C463" s="43" t="s">
-        <v>602</v>
+        <v>749</v>
+      </c>
+      <c r="C463" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="D463" s="39" t="s">
-        <v>577</v>
+        <v>1065</v>
       </c>
       <c r="E463" s="39"/>
       <c r="F463" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G463" s="43" t="s">
-        <v>1110</v>
-      </c>
+      <c r="G463" s="39"/>
     </row>
     <row r="464" spans="1:7">
       <c r="A464" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B464" s="39" t="s">
-        <v>749</v>
-      </c>
-      <c r="C464" s="39" t="s">
-        <v>604</v>
-      </c>
-      <c r="D464" s="39" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E464" s="39"/>
-      <c r="F464" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G464" s="39"/>
+        <v>750</v>
+      </c>
+      <c r="C464" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="D464" s="40"/>
+      <c r="E464" s="40"/>
+      <c r="F464" s="40"/>
+      <c r="G464" s="40"/>
     </row>
     <row r="465" spans="1:7">
       <c r="A465" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B465" s="39" t="s">
-        <v>750</v>
-      </c>
-      <c r="C465" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="D465" s="40"/>
-      <c r="E465" s="40"/>
-      <c r="F465" s="40"/>
-      <c r="G465" s="40"/>
-    </row>
-    <row r="466" spans="1:7">
+        <v>751</v>
+      </c>
+      <c r="C465" s="43" t="s">
+        <v>570</v>
+      </c>
+      <c r="D465" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="E465" s="39"/>
+      <c r="F465" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G465" s="43" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" ht="30">
       <c r="A466" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B466" s="39" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C466" s="43" t="s">
-        <v>570</v>
+        <v>645</v>
       </c>
       <c r="D466" s="39" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E466" s="39"/>
       <c r="F466" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G466" s="43" t="s">
-        <v>1119</v>
-      </c>
+      <c r="G466" s="43"/>
     </row>
     <row r="467" spans="1:7" ht="30">
       <c r="A467" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B467" s="39" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C467" s="43" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="D467" s="39" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E467" s="39"/>
       <c r="F467" s="39" t="s">
@@ -16926,62 +16932,43 @@
       </c>
       <c r="G467" s="43"/>
     </row>
-    <row r="468" spans="1:7" ht="30">
+    <row r="468" spans="1:7">
       <c r="A468" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B468" s="39" t="s">
-        <v>753</v>
-      </c>
-      <c r="C468" s="43" t="s">
-        <v>611</v>
+        <v>754</v>
+      </c>
+      <c r="C468" s="39" t="s">
+        <v>613</v>
       </c>
       <c r="D468" s="39" t="s">
-        <v>577</v>
+        <v>1068</v>
       </c>
       <c r="E468" s="39"/>
       <c r="F468" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G468" s="43"/>
-    </row>
-    <row r="469" spans="1:7">
+      <c r="G468" s="39"/>
+    </row>
+    <row r="469" spans="1:7" ht="30">
       <c r="A469" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B469" s="39" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C469" s="39" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D469" s="39" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E469" s="39"/>
       <c r="F469" s="39" t="s">
         <v>1126</v>
       </c>
       <c r="G469" s="39"/>
-    </row>
-    <row r="470" spans="1:7" ht="30">
-      <c r="A470" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B470" s="39" t="s">
-        <v>755</v>
-      </c>
-      <c r="C470" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D470" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E470" s="39"/>
-      <c r="F470" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G470" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -16994,7 +16981,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -17081,9 +17070,7 @@
       <c r="D4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>756</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="3" t="s">
         <v>764</v>
       </c>
@@ -17141,7 +17128,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_Production_Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance-pkix-11\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99035DF0-8C32-4F08-8CC6-09D1C78BD672}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9B671B-7481-4AAE-8F02-173747C1B410}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="1309">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -8516,10 +8516,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G469"/>
+  <dimension ref="A1:G466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:XFD429"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212:XFD212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -11768,101 +11768,101 @@
       <c r="F175" s="39"/>
       <c r="G175" s="39"/>
     </row>
-    <row r="176" spans="1:7" ht="45">
+    <row r="176" spans="1:7" ht="30">
       <c r="A176" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B176" s="39" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C176" s="39" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D176" s="39">
-        <v>76.45</v>
+        <v>76.459999999999994</v>
       </c>
       <c r="E176" s="39"/>
       <c r="F176" s="39"/>
       <c r="G176" s="39"/>
     </row>
-    <row r="177" spans="1:7" ht="30">
+    <row r="177" spans="1:7">
       <c r="A177" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B177" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="C177" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D177" s="39">
-        <v>76.459999999999994</v>
-      </c>
-      <c r="E177" s="39"/>
-      <c r="F177" s="39"/>
-      <c r="G177" s="39"/>
+      <c r="B177" s="39">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C177" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D177" s="40"/>
+      <c r="E177" s="40"/>
+      <c r="F177" s="40"/>
+      <c r="G177" s="41"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B178" s="39">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C178" s="41" t="s">
-        <v>23</v>
+      <c r="B178" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="C178" s="40" t="s">
+        <v>24</v>
       </c>
       <c r="D178" s="40"/>
       <c r="E178" s="40"/>
       <c r="F178" s="40"/>
-      <c r="G178" s="41"/>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="G178" s="40"/>
+    </row>
+    <row r="179" spans="1:7" ht="30">
       <c r="A179" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B179" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="C179" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D179" s="40"/>
-      <c r="E179" s="40"/>
-      <c r="F179" s="40"/>
-      <c r="G179" s="40"/>
-    </row>
-    <row r="180" spans="1:7" ht="30">
+        <v>309</v>
+      </c>
+      <c r="C179" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="D179" s="39">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E179" s="39"/>
+      <c r="F179" s="39"/>
+      <c r="G179" s="39" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B180" s="39" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C180" s="39" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D180" s="39">
-        <v>76.099999999999994</v>
+        <v>76.2</v>
       </c>
       <c r="E180" s="39"/>
       <c r="F180" s="39"/>
-      <c r="G180" s="39" t="s">
-        <v>1099</v>
-      </c>
+      <c r="G180" s="39"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B181" s="39" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C181" s="39" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D181" s="39">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="E181" s="39"/>
       <c r="F181" s="39"/>
@@ -11873,13 +11873,13 @@
         <v>56</v>
       </c>
       <c r="B182" s="39" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C182" s="39" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D182" s="39">
-        <v>76.3</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E182" s="39"/>
       <c r="F182" s="39"/>
@@ -11890,115 +11890,115 @@
         <v>56</v>
       </c>
       <c r="B183" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="C183" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="D183" s="39">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="E183" s="39"/>
-      <c r="F183" s="39"/>
-      <c r="G183" s="39"/>
-    </row>
-    <row r="184" spans="1:7">
+        <v>313</v>
+      </c>
+      <c r="C183" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="40"/>
+      <c r="E183" s="40"/>
+      <c r="F183" s="40"/>
+      <c r="G183" s="40"/>
+    </row>
+    <row r="184" spans="1:7" ht="45">
       <c r="A184" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B184" s="39" t="s">
-        <v>313</v>
-      </c>
-      <c r="C184" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="40"/>
-      <c r="E184" s="40"/>
-      <c r="F184" s="40"/>
-      <c r="G184" s="40"/>
-    </row>
-    <row r="185" spans="1:7" ht="45">
+        <v>314</v>
+      </c>
+      <c r="C184" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="D184" s="39">
+        <v>76.5</v>
+      </c>
+      <c r="E184" s="39"/>
+      <c r="F184" s="39"/>
+      <c r="G184" s="39" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="30">
       <c r="A185" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B185" s="39" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C185" s="39" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D185" s="39">
-        <v>76.5</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="E185" s="39"/>
       <c r="F185" s="39"/>
-      <c r="G185" s="39" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="30">
+      <c r="G185" s="39"/>
+    </row>
+    <row r="186" spans="1:7" ht="45">
       <c r="A186" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B186" s="39" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C186" s="39" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D186" s="39">
-        <v>76.599999999999994</v>
+        <v>76.7</v>
       </c>
       <c r="E186" s="39"/>
       <c r="F186" s="39"/>
       <c r="G186" s="39"/>
     </row>
-    <row r="187" spans="1:7" ht="45">
+    <row r="187" spans="1:7" ht="30">
       <c r="A187" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B187" s="39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C187" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="D187" s="39">
-        <v>76.7</v>
+        <v>1077</v>
+      </c>
+      <c r="D187" s="39" t="s">
+        <v>923</v>
       </c>
       <c r="E187" s="39"/>
       <c r="F187" s="39"/>
       <c r="G187" s="39"/>
     </row>
-    <row r="188" spans="1:7" ht="30">
+    <row r="188" spans="1:7" ht="45">
       <c r="A188" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B188" s="39" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C188" s="39" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D188" s="39" t="s">
-        <v>923</v>
+        <v>293</v>
+      </c>
+      <c r="D188" s="39">
+        <v>76.39</v>
       </c>
       <c r="E188" s="39"/>
       <c r="F188" s="39"/>
       <c r="G188" s="39"/>
     </row>
-    <row r="189" spans="1:7" ht="45">
+    <row r="189" spans="1:7" ht="30">
       <c r="A189" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B189" s="39" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C189" s="39" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D189" s="39">
-        <v>76.39</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E189" s="39"/>
       <c r="F189" s="39"/>
@@ -12009,181 +12009,181 @@
         <v>56</v>
       </c>
       <c r="B190" s="39" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C190" s="39" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D190" s="39">
-        <v>76.400000000000006</v>
+        <v>76.41</v>
       </c>
       <c r="E190" s="39"/>
       <c r="F190" s="39"/>
       <c r="G190" s="39"/>
     </row>
-    <row r="191" spans="1:7" ht="30">
+    <row r="191" spans="1:7" ht="45">
       <c r="A191" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B191" s="39" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C191" s="39" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D191" s="39">
-        <v>76.41</v>
+        <v>76.42</v>
       </c>
       <c r="E191" s="39"/>
       <c r="F191" s="39"/>
       <c r="G191" s="39"/>
     </row>
-    <row r="192" spans="1:7" ht="45">
+    <row r="192" spans="1:7">
       <c r="A192" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B192" s="39" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C192" s="39" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D192" s="39">
-        <v>76.42</v>
+        <v>76.430000000000007</v>
       </c>
       <c r="E192" s="39"/>
       <c r="F192" s="39"/>
       <c r="G192" s="39"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" ht="75">
       <c r="A193" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B193" s="39" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C193" s="39" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="D193" s="39">
-        <v>76.430000000000007</v>
+        <v>76.44</v>
       </c>
       <c r="E193" s="39"/>
       <c r="F193" s="39"/>
       <c r="G193" s="39"/>
     </row>
-    <row r="194" spans="1:7" ht="75">
+    <row r="194" spans="1:7" ht="30">
       <c r="A194" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B194" s="39" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C194" s="39" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D194" s="39">
-        <v>76.44</v>
+        <v>76.459999999999994</v>
       </c>
       <c r="E194" s="39"/>
       <c r="F194" s="39"/>
       <c r="G194" s="39"/>
     </row>
-    <row r="195" spans="1:7" ht="45">
+    <row r="195" spans="1:7">
       <c r="A195" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B195" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="C195" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="D195" s="39">
-        <v>76.45</v>
-      </c>
-      <c r="E195" s="39"/>
-      <c r="F195" s="39"/>
-      <c r="G195" s="39"/>
-    </row>
-    <row r="196" spans="1:7" ht="30">
+      <c r="B195" s="39">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C195" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" s="40"/>
+      <c r="E195" s="40"/>
+      <c r="F195" s="40"/>
+      <c r="G195" s="40"/>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B196" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="C196" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D196" s="39">
-        <v>76.459999999999994</v>
-      </c>
-      <c r="E196" s="39"/>
-      <c r="F196" s="39"/>
-      <c r="G196" s="39"/>
-    </row>
-    <row r="197" spans="1:7">
+        <v>330</v>
+      </c>
+      <c r="C196" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D196" s="40"/>
+      <c r="E196" s="40"/>
+      <c r="F196" s="40"/>
+      <c r="G196" s="40"/>
+    </row>
+    <row r="197" spans="1:7" ht="30">
       <c r="A197" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B197" s="39">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C197" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D197" s="40"/>
-      <c r="E197" s="40"/>
-      <c r="F197" s="40"/>
-      <c r="G197" s="40"/>
+      <c r="B197" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="C197" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="D197" s="39">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E197" s="39"/>
+      <c r="F197" s="39"/>
+      <c r="G197" s="39" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B198" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="C198" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D198" s="40"/>
-      <c r="E198" s="40"/>
-      <c r="F198" s="40"/>
-      <c r="G198" s="40"/>
-    </row>
-    <row r="199" spans="1:7" ht="30">
+        <v>332</v>
+      </c>
+      <c r="C198" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="D198" s="39">
+        <v>76.2</v>
+      </c>
+      <c r="E198" s="39"/>
+      <c r="F198" s="39"/>
+      <c r="G198" s="39"/>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B199" s="39" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C199" s="39" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D199" s="39">
-        <v>76.099999999999994</v>
+        <v>76.3</v>
       </c>
       <c r="E199" s="39"/>
       <c r="F199" s="39"/>
-      <c r="G199" s="39" t="s">
-        <v>1099</v>
-      </c>
+      <c r="G199" s="39"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B200" s="39" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C200" s="39" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D200" s="39">
-        <v>76.2</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E200" s="39"/>
       <c r="F200" s="39"/>
@@ -12194,98 +12194,98 @@
         <v>56</v>
       </c>
       <c r="B201" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="C201" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="D201" s="39">
-        <v>76.3</v>
-      </c>
-      <c r="E201" s="39"/>
-      <c r="F201" s="39"/>
-      <c r="G201" s="39"/>
-    </row>
-    <row r="202" spans="1:7">
+        <v>335</v>
+      </c>
+      <c r="C201" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" s="40"/>
+      <c r="E201" s="40"/>
+      <c r="F201" s="40"/>
+      <c r="G201" s="40"/>
+    </row>
+    <row r="202" spans="1:7" ht="30">
       <c r="A202" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B202" s="39" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C202" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="D202" s="39">
-        <v>76.400000000000006</v>
+        <v>337</v>
+      </c>
+      <c r="D202" s="39" t="s">
+        <v>842</v>
       </c>
       <c r="E202" s="39"/>
       <c r="F202" s="39"/>
-      <c r="G202" s="39"/>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="G202" s="39" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="30">
       <c r="A203" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B203" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="C203" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D203" s="40"/>
-      <c r="E203" s="40"/>
-      <c r="F203" s="40"/>
-      <c r="G203" s="40"/>
+        <v>338</v>
+      </c>
+      <c r="C203" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="D203" s="39">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="E203" s="39"/>
+      <c r="F203" s="39"/>
+      <c r="G203" s="39"/>
     </row>
     <row r="204" spans="1:7" ht="30">
       <c r="A204" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B204" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C204" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="D204" s="39" t="s">
-        <v>842</v>
+        <v>340</v>
+      </c>
+      <c r="D204" s="39">
+        <v>76.7</v>
       </c>
       <c r="E204" s="39"/>
       <c r="F204" s="39"/>
-      <c r="G204" s="39" t="s">
-        <v>1101</v>
-      </c>
+      <c r="G204" s="39"/>
     </row>
     <row r="205" spans="1:7" ht="30">
       <c r="A205" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B205" s="39" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C205" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="D205" s="39">
-        <v>76.599999999999994</v>
+        <v>342</v>
+      </c>
+      <c r="D205" s="39" t="s">
+        <v>923</v>
       </c>
       <c r="E205" s="39"/>
       <c r="F205" s="39"/>
       <c r="G205" s="39"/>
     </row>
-    <row r="206" spans="1:7" ht="30">
+    <row r="206" spans="1:7" ht="45">
       <c r="A206" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B206" s="39" t="s">
-        <v>339</v>
+        <v>1297</v>
       </c>
       <c r="C206" s="39" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="D206" s="39">
-        <v>76.7</v>
+        <v>76.39</v>
       </c>
       <c r="E206" s="39"/>
       <c r="F206" s="39"/>
@@ -12296,215 +12296,215 @@
         <v>56</v>
       </c>
       <c r="B207" s="39" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C207" s="39" t="s">
-        <v>342</v>
-      </c>
-      <c r="D207" s="39" t="s">
-        <v>923</v>
+        <v>295</v>
+      </c>
+      <c r="D207" s="39">
+        <v>76.400000000000006</v>
       </c>
       <c r="E207" s="39"/>
       <c r="F207" s="39"/>
       <c r="G207" s="39"/>
     </row>
-    <row r="208" spans="1:7" ht="45">
+    <row r="208" spans="1:7" ht="30">
       <c r="A208" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B208" s="39" t="s">
-        <v>1297</v>
+        <v>344</v>
       </c>
       <c r="C208" s="39" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="D208" s="39">
-        <v>76.39</v>
+        <v>76.41</v>
       </c>
       <c r="E208" s="39"/>
       <c r="F208" s="39"/>
       <c r="G208" s="39"/>
     </row>
-    <row r="209" spans="1:7" ht="30">
+    <row r="209" spans="1:7" ht="45">
       <c r="A209" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B209" s="39" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C209" s="39" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="D209" s="39">
-        <v>76.400000000000006</v>
+        <v>76.42</v>
       </c>
       <c r="E209" s="39"/>
       <c r="F209" s="39"/>
       <c r="G209" s="39"/>
     </row>
-    <row r="210" spans="1:7" ht="30">
+    <row r="210" spans="1:7">
       <c r="A210" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B210" s="39" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C210" s="39" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D210" s="39">
-        <v>76.41</v>
+        <v>76.430000000000007</v>
       </c>
       <c r="E210" s="39"/>
       <c r="F210" s="39"/>
       <c r="G210" s="39"/>
     </row>
-    <row r="211" spans="1:7" ht="45">
+    <row r="211" spans="1:7" ht="75">
       <c r="A211" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B211" s="39" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C211" s="39" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="D211" s="39">
-        <v>76.42</v>
+        <v>76.44</v>
       </c>
       <c r="E211" s="39"/>
       <c r="F211" s="39"/>
       <c r="G211" s="39"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" ht="30">
       <c r="A212" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B212" s="39" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C212" s="39" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="D212" s="39">
-        <v>76.430000000000007</v>
+        <v>76.459999999999994</v>
       </c>
       <c r="E212" s="39"/>
       <c r="F212" s="39"/>
       <c r="G212" s="39"/>
     </row>
-    <row r="213" spans="1:7" ht="75">
+    <row r="213" spans="1:7">
       <c r="A213" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B213" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="C213" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="D213" s="39">
-        <v>76.44</v>
-      </c>
-      <c r="E213" s="39"/>
-      <c r="F213" s="39"/>
-      <c r="G213" s="39"/>
-    </row>
-    <row r="214" spans="1:7" ht="45">
+      <c r="B213" s="39">
+        <v>9.4</v>
+      </c>
+      <c r="C213" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="D213" s="40"/>
+      <c r="E213" s="40"/>
+      <c r="F213" s="40"/>
+      <c r="G213" s="42"/>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B214" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="C214" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="D214" s="39">
-        <v>76.45</v>
-      </c>
-      <c r="E214" s="39"/>
-      <c r="F214" s="39"/>
-      <c r="G214" s="39"/>
+        <v>353</v>
+      </c>
+      <c r="C214" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="D214" s="40"/>
+      <c r="E214" s="40"/>
+      <c r="F214" s="40"/>
+      <c r="G214" s="40"/>
     </row>
     <row r="215" spans="1:7" ht="30">
       <c r="A215" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B215" s="39" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C215" s="39" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="D215" s="39">
-        <v>76.459999999999994</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="E215" s="39"/>
       <c r="F215" s="39"/>
-      <c r="G215" s="39"/>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="G215" s="39" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="30">
       <c r="A216" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B216" s="39">
-        <v>9.4</v>
-      </c>
-      <c r="C216" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="D216" s="40"/>
-      <c r="E216" s="40"/>
-      <c r="F216" s="40"/>
-      <c r="G216" s="42"/>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="B216" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="C216" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="D216" s="39">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E216" s="39"/>
+      <c r="F216" s="39"/>
+      <c r="G216" s="39"/>
+    </row>
+    <row r="217" spans="1:7" ht="30">
       <c r="A217" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B217" s="39" t="s">
-        <v>353</v>
-      </c>
-      <c r="C217" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="D217" s="40"/>
-      <c r="E217" s="40"/>
-      <c r="F217" s="40"/>
-      <c r="G217" s="40"/>
-    </row>
-    <row r="218" spans="1:7" ht="30">
+        <v>359</v>
+      </c>
+      <c r="C217" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="D217" s="39">
+        <v>76.11</v>
+      </c>
+      <c r="E217" s="39"/>
+      <c r="F217" s="39"/>
+      <c r="G217" s="39"/>
+    </row>
+    <row r="218" spans="1:7" ht="60">
       <c r="A218" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B218" s="39" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C218" s="39" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D218" s="39">
-        <v>76.900000000000006</v>
+        <v>76.12</v>
       </c>
       <c r="E218" s="39"/>
       <c r="F218" s="39"/>
-      <c r="G218" s="39" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="30">
+      <c r="G218" s="39"/>
+    </row>
+    <row r="219" spans="1:7" ht="60">
       <c r="A219" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B219" s="39" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C219" s="39" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D219" s="39">
-        <v>76.099999999999994</v>
+        <v>76.12</v>
       </c>
       <c r="E219" s="39"/>
       <c r="F219" s="39"/>
@@ -12515,66 +12515,70 @@
         <v>56</v>
       </c>
       <c r="B220" s="39" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C220" s="39" t="s">
-        <v>360</v>
-      </c>
-      <c r="D220" s="39">
-        <v>76.11</v>
+        <v>365</v>
+      </c>
+      <c r="D220" s="39" t="s">
+        <v>863</v>
       </c>
       <c r="E220" s="39"/>
       <c r="F220" s="39"/>
       <c r="G220" s="39"/>
     </row>
-    <row r="221" spans="1:7" ht="60">
+    <row r="221" spans="1:7">
       <c r="A221" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B221" s="39" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C221" s="39" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D221" s="39">
-        <v>76.12</v>
+        <v>76.14</v>
       </c>
       <c r="E221" s="39"/>
       <c r="F221" s="39"/>
       <c r="G221" s="39"/>
     </row>
-    <row r="222" spans="1:7" ht="60">
+    <row r="222" spans="1:7" ht="45">
       <c r="A222" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B222" s="39" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C222" s="39" t="s">
-        <v>362</v>
-      </c>
-      <c r="D222" s="39">
-        <v>76.12</v>
-      </c>
-      <c r="E222" s="39"/>
+        <v>1057</v>
+      </c>
+      <c r="D222" s="39" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E222" s="39" t="s">
+        <v>1063</v>
+      </c>
       <c r="F222" s="39"/>
       <c r="G222" s="39"/>
     </row>
-    <row r="223" spans="1:7" ht="30">
+    <row r="223" spans="1:7" ht="45">
       <c r="A223" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B223" s="39" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C223" s="39" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D223" s="39" t="s">
-        <v>863</v>
-      </c>
-      <c r="E223" s="39"/>
+        <v>1199</v>
+      </c>
+      <c r="E223" s="39" t="s">
+        <v>1063</v>
+      </c>
       <c r="F223" s="39"/>
       <c r="G223" s="39"/>
     </row>
@@ -12583,53 +12587,49 @@
         <v>56</v>
       </c>
       <c r="B224" s="39" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C224" s="39" t="s">
-        <v>367</v>
+        <v>1064</v>
       </c>
       <c r="D224" s="39">
-        <v>76.14</v>
+        <v>76.16</v>
       </c>
       <c r="E224" s="39"/>
       <c r="F224" s="39"/>
       <c r="G224" s="39"/>
     </row>
-    <row r="225" spans="1:7" ht="45">
+    <row r="225" spans="1:7">
       <c r="A225" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B225" s="39" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C225" s="39" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D225" s="39" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E225" s="39" t="s">
-        <v>1063</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="D225" s="39">
+        <v>76.17</v>
+      </c>
+      <c r="E225" s="39"/>
       <c r="F225" s="39"/>
       <c r="G225" s="39"/>
     </row>
-    <row r="226" spans="1:7" ht="45">
+    <row r="226" spans="1:7">
       <c r="A226" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B226" s="39" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C226" s="39" t="s">
-        <v>371</v>
-      </c>
-      <c r="D226" s="39" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E226" s="39" t="s">
-        <v>1063</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="D226" s="39">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="E226" s="39"/>
       <c r="F226" s="39"/>
       <c r="G226" s="39"/>
     </row>
@@ -12638,115 +12638,117 @@
         <v>56</v>
       </c>
       <c r="B227" s="39" t="s">
-        <v>372</v>
-      </c>
-      <c r="C227" s="39" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D227" s="39">
-        <v>76.16</v>
-      </c>
-      <c r="E227" s="39"/>
-      <c r="F227" s="39"/>
-      <c r="G227" s="39"/>
+        <v>379</v>
+      </c>
+      <c r="C227" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="D227" s="40"/>
+      <c r="E227" s="40"/>
+      <c r="F227" s="40"/>
+      <c r="G227" s="40"/>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B228" s="39" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C228" s="39" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D228" s="39">
-        <v>76.17</v>
+        <v>76.19</v>
       </c>
       <c r="E228" s="39"/>
       <c r="F228" s="39"/>
-      <c r="G228" s="39"/>
+      <c r="G228" s="39" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B229" s="39" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C229" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="D229" s="39">
-        <v>76.180000000000007</v>
+        <v>384</v>
+      </c>
+      <c r="D229" s="39" t="s">
+        <v>876</v>
       </c>
       <c r="E229" s="39"/>
       <c r="F229" s="39"/>
       <c r="G229" s="39"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" ht="30">
       <c r="A230" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B230" s="39" t="s">
-        <v>379</v>
-      </c>
-      <c r="C230" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="D230" s="40"/>
-      <c r="E230" s="40"/>
-      <c r="F230" s="40"/>
-      <c r="G230" s="40"/>
+        <v>385</v>
+      </c>
+      <c r="C230" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="D230" s="39">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="E230" s="39"/>
+      <c r="F230" s="39"/>
+      <c r="G230" s="39"/>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B231" s="39" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C231" s="39" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D231" s="39">
-        <v>76.19</v>
+        <v>76.22</v>
       </c>
       <c r="E231" s="39"/>
       <c r="F231" s="39"/>
-      <c r="G231" s="39" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="G231" s="39"/>
+    </row>
+    <row r="232" spans="1:7" ht="30">
       <c r="A232" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B232" s="39" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C232" s="39" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D232" s="39" t="s">
-        <v>876</v>
-      </c>
-      <c r="E232" s="39"/>
+        <v>954</v>
+      </c>
+      <c r="E232" s="39" t="s">
+        <v>1088</v>
+      </c>
       <c r="F232" s="39"/>
       <c r="G232" s="39"/>
     </row>
-    <row r="233" spans="1:7" ht="30">
+    <row r="233" spans="1:7">
       <c r="A233" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B233" s="39" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C233" s="39" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D233" s="39">
-        <v>76.209999999999994</v>
+        <v>76.23</v>
       </c>
       <c r="E233" s="39"/>
       <c r="F233" s="39"/>
@@ -12757,13 +12759,13 @@
         <v>56</v>
       </c>
       <c r="B234" s="39" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C234" s="39" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D234" s="39">
-        <v>76.22</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="E234" s="39"/>
       <c r="F234" s="39"/>
@@ -12774,17 +12776,15 @@
         <v>56</v>
       </c>
       <c r="B235" s="39" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C235" s="39" t="s">
-        <v>390</v>
-      </c>
-      <c r="D235" s="39" t="s">
-        <v>954</v>
-      </c>
-      <c r="E235" s="39" t="s">
-        <v>1088</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="D235" s="39">
+        <v>76.25</v>
+      </c>
+      <c r="E235" s="39"/>
       <c r="F235" s="39"/>
       <c r="G235" s="39"/>
     </row>
@@ -12793,13 +12793,13 @@
         <v>56</v>
       </c>
       <c r="B236" s="39" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C236" s="39" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D236" s="39">
-        <v>76.23</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="E236" s="39"/>
       <c r="F236" s="39"/>
@@ -12810,30 +12810,30 @@
         <v>56</v>
       </c>
       <c r="B237" s="39" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C237" s="39" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D237" s="39">
-        <v>76.239999999999995</v>
+        <v>76.27</v>
       </c>
       <c r="E237" s="39"/>
       <c r="F237" s="39"/>
       <c r="G237" s="39"/>
     </row>
-    <row r="238" spans="1:7" ht="30">
+    <row r="238" spans="1:7">
       <c r="A238" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B238" s="39" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C238" s="39" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D238" s="39">
-        <v>76.25</v>
+        <v>76.28</v>
       </c>
       <c r="E238" s="39"/>
       <c r="F238" s="39"/>
@@ -12844,44 +12844,44 @@
         <v>56</v>
       </c>
       <c r="B239" s="39" t="s">
-        <v>397</v>
-      </c>
-      <c r="C239" s="39" t="s">
-        <v>398</v>
-      </c>
-      <c r="D239" s="39">
-        <v>76.260000000000005</v>
-      </c>
-      <c r="E239" s="39"/>
-      <c r="F239" s="39"/>
-      <c r="G239" s="39"/>
+        <v>403</v>
+      </c>
+      <c r="C239" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="D239" s="40"/>
+      <c r="E239" s="40"/>
+      <c r="F239" s="40"/>
+      <c r="G239" s="40"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B240" s="39" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C240" s="39" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D240" s="39">
-        <v>76.27</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="E240" s="39"/>
       <c r="F240" s="39"/>
-      <c r="G240" s="39"/>
+      <c r="G240" s="39" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B241" s="39" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C241" s="39" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D241" s="39">
         <v>76.28</v>
@@ -12894,77 +12894,75 @@
       <c r="A242" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B242" s="39" t="s">
-        <v>403</v>
-      </c>
-      <c r="C242" s="40" t="s">
-        <v>404</v>
+      <c r="B242" s="39">
+        <v>9.5</v>
+      </c>
+      <c r="C242" s="38" t="s">
+        <v>409</v>
       </c>
       <c r="D242" s="40"/>
       <c r="E242" s="40"/>
       <c r="F242" s="40"/>
       <c r="G242" s="40"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" ht="30">
       <c r="A243" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B243" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="C243" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="D243" s="39">
-        <v>76.239999999999995</v>
-      </c>
-      <c r="E243" s="39"/>
+        <v>410</v>
+      </c>
+      <c r="C243" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="D243" s="39"/>
+      <c r="E243" s="39" t="s">
+        <v>268</v>
+      </c>
       <c r="F243" s="39"/>
-      <c r="G243" s="39" t="s">
-        <v>1103</v>
-      </c>
+      <c r="G243" s="39"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B244" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="C244" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="D244" s="39">
-        <v>76.28</v>
-      </c>
+      <c r="B244" s="39">
+        <v>9.6</v>
+      </c>
+      <c r="C244" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D244" s="39"/>
       <c r="E244" s="39"/>
       <c r="F244" s="39"/>
-      <c r="G244" s="39"/>
+      <c r="G244" s="42"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B245" s="39">
-        <v>9.5</v>
-      </c>
-      <c r="C245" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="D245" s="40"/>
-      <c r="E245" s="40"/>
-      <c r="F245" s="40"/>
-      <c r="G245" s="40"/>
-    </row>
-    <row r="246" spans="1:7" ht="30">
+      <c r="B245" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="C245" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D245" s="39"/>
+      <c r="E245" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="F245" s="39"/>
+      <c r="G245" s="39"/>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B246" s="39" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C246" s="43" t="s">
-        <v>411</v>
+        <v>31</v>
       </c>
       <c r="D246" s="39"/>
       <c r="E246" s="39" t="s">
@@ -12978,25 +12976,25 @@
         <v>56</v>
       </c>
       <c r="B247" s="39">
-        <v>9.6</v>
-      </c>
-      <c r="C247" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D247" s="39"/>
-      <c r="E247" s="39"/>
-      <c r="F247" s="39"/>
-      <c r="G247" s="42"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C247" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D247" s="40"/>
+      <c r="E247" s="40"/>
+      <c r="F247" s="40"/>
+      <c r="G247" s="40"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B248" s="39" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C248" s="43" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D248" s="39"/>
       <c r="E248" s="39" t="s">
@@ -13010,10 +13008,10 @@
         <v>56</v>
       </c>
       <c r="B249" s="39" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C249" s="43" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D249" s="39"/>
       <c r="E249" s="39" t="s">
@@ -13026,386 +13024,388 @@
       <c r="A250" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B250" s="39">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C250" s="38" t="s">
-        <v>32</v>
+      <c r="B250" s="36" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C250" s="37" t="s">
+        <v>35</v>
       </c>
       <c r="D250" s="40"/>
       <c r="E250" s="40"/>
       <c r="F250" s="40"/>
-      <c r="G250" s="40"/>
+      <c r="G250" s="44"/>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B251" s="39" t="s">
-        <v>414</v>
-      </c>
-      <c r="C251" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D251" s="39"/>
-      <c r="E251" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="F251" s="39"/>
-      <c r="G251" s="39"/>
+      <c r="B251" s="39">
+        <v>10.1</v>
+      </c>
+      <c r="C251" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" s="40"/>
+      <c r="E251" s="40"/>
+      <c r="F251" s="40"/>
+      <c r="G251" s="40"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B252" s="39" t="s">
-        <v>415</v>
-      </c>
-      <c r="C252" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D252" s="39"/>
-      <c r="E252" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="F252" s="39"/>
-      <c r="G252" s="39"/>
-    </row>
-    <row r="253" spans="1:7">
+        <v>416</v>
+      </c>
+      <c r="C252" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D252" s="40"/>
+      <c r="E252" s="40"/>
+      <c r="F252" s="40"/>
+      <c r="G252" s="40"/>
+    </row>
+    <row r="253" spans="1:7" ht="60">
       <c r="A253" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B253" s="36" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C253" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D253" s="40"/>
-      <c r="E253" s="40"/>
-      <c r="F253" s="40"/>
-      <c r="G253" s="44"/>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="B253" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="C253" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="D253" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="E253" s="39"/>
+      <c r="F253" s="39"/>
+      <c r="G253" s="43" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="30">
       <c r="A254" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B254" s="39">
-        <v>10.1</v>
-      </c>
-      <c r="C254" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D254" s="40"/>
-      <c r="E254" s="40"/>
-      <c r="F254" s="40"/>
-      <c r="G254" s="40"/>
-    </row>
-    <row r="255" spans="1:7">
+      <c r="B254" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="C254" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="D254" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="E254" s="39"/>
+      <c r="F254" s="39"/>
+      <c r="G254" s="43"/>
+    </row>
+    <row r="255" spans="1:7" ht="45">
       <c r="A255" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B255" s="39" t="s">
-        <v>416</v>
-      </c>
-      <c r="C255" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D255" s="40"/>
-      <c r="E255" s="40"/>
-      <c r="F255" s="40"/>
-      <c r="G255" s="40"/>
-    </row>
-    <row r="256" spans="1:7" ht="60">
+        <v>423</v>
+      </c>
+      <c r="C255" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="D255" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="E255" s="45" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F255" s="39"/>
+      <c r="G255" s="43"/>
+    </row>
+    <row r="256" spans="1:7" ht="45">
       <c r="A256" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B256" s="39" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C256" s="43" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="D256" s="39" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E256" s="39"/>
       <c r="F256" s="39"/>
-      <c r="G256" s="43" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="30">
+      <c r="G256" s="43"/>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B257" s="39" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C257" s="43" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="D257" s="39" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E257" s="39"/>
       <c r="F257" s="39"/>
       <c r="G257" s="43"/>
     </row>
-    <row r="258" spans="1:7" ht="45">
+    <row r="258" spans="1:7" ht="30">
       <c r="A258" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B258" s="39" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C258" s="43" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="D258" s="39" t="s">
-        <v>425</v>
-      </c>
-      <c r="E258" s="45" t="s">
-        <v>1206</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="E258" s="39"/>
       <c r="F258" s="39"/>
       <c r="G258" s="43"/>
     </row>
-    <row r="259" spans="1:7" ht="45">
+    <row r="259" spans="1:7" ht="75">
       <c r="A259" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B259" s="39" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C259" s="43" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="D259" s="39" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E259" s="39"/>
       <c r="F259" s="39"/>
       <c r="G259" s="43"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" ht="30">
       <c r="A260" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B260" s="39" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C260" s="43" t="s">
-        <v>430</v>
+        <v>1207</v>
       </c>
       <c r="D260" s="39" t="s">
-        <v>431</v>
-      </c>
-      <c r="E260" s="39"/>
+        <v>440</v>
+      </c>
+      <c r="E260" s="45" t="s">
+        <v>1206</v>
+      </c>
       <c r="F260" s="39"/>
       <c r="G260" s="43"/>
     </row>
-    <row r="261" spans="1:7" ht="30">
+    <row r="261" spans="1:7" ht="45">
       <c r="A261" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B261" s="39" t="s">
-        <v>432</v>
+        <v>1208</v>
       </c>
       <c r="C261" s="43" t="s">
-        <v>433</v>
+        <v>1209</v>
       </c>
       <c r="D261" s="39" t="s">
-        <v>434</v>
+        <v>1210</v>
       </c>
       <c r="E261" s="39"/>
       <c r="F261" s="39"/>
       <c r="G261" s="43"/>
     </row>
-    <row r="262" spans="1:7" ht="75">
+    <row r="262" spans="1:7" ht="105">
       <c r="A262" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B262" s="39" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C262" s="43" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D262" s="39" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E262" s="39"/>
       <c r="F262" s="39"/>
       <c r="G262" s="43"/>
     </row>
-    <row r="263" spans="1:7" ht="30">
+    <row r="263" spans="1:7" ht="75">
       <c r="A263" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B263" s="39" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C263" s="43" t="s">
-        <v>1207</v>
+        <v>445</v>
       </c>
       <c r="D263" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="E263" s="45" t="s">
-        <v>1206</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="E263" s="39"/>
       <c r="F263" s="39"/>
       <c r="G263" s="43"/>
     </row>
-    <row r="264" spans="1:7" ht="45">
+    <row r="264" spans="1:7" ht="105">
       <c r="A264" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B264" s="39" t="s">
-        <v>1208</v>
+        <v>450</v>
       </c>
       <c r="C264" s="43" t="s">
-        <v>1209</v>
+        <v>448</v>
       </c>
       <c r="D264" s="39" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E264" s="39"/>
+        <v>449</v>
+      </c>
+      <c r="E264" s="45" t="s">
+        <v>1206</v>
+      </c>
       <c r="F264" s="39"/>
       <c r="G264" s="43"/>
     </row>
-    <row r="265" spans="1:7" ht="105">
+    <row r="265" spans="1:7" ht="30">
       <c r="A265" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B265" s="39" t="s">
-        <v>441</v>
+        <v>1211</v>
       </c>
       <c r="C265" s="43" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="D265" s="39" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="E265" s="39"/>
       <c r="F265" s="39"/>
       <c r="G265" s="43"/>
     </row>
-    <row r="266" spans="1:7" ht="75">
+    <row r="266" spans="1:7">
       <c r="A266" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B266" s="39" t="s">
-        <v>444</v>
-      </c>
-      <c r="C266" s="43" t="s">
-        <v>445</v>
-      </c>
-      <c r="D266" s="39" t="s">
-        <v>446</v>
-      </c>
-      <c r="E266" s="39"/>
-      <c r="F266" s="39"/>
-      <c r="G266" s="43"/>
-    </row>
-    <row r="267" spans="1:7" ht="105">
+      <c r="B266" s="39">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C266" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="D266" s="40"/>
+      <c r="E266" s="40"/>
+      <c r="F266" s="40"/>
+      <c r="G266" s="40"/>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B267" s="39" t="s">
-        <v>450</v>
-      </c>
-      <c r="C267" s="43" t="s">
-        <v>448</v>
-      </c>
-      <c r="D267" s="39" t="s">
-        <v>449</v>
-      </c>
-      <c r="E267" s="45" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F267" s="39"/>
-      <c r="G267" s="43"/>
-    </row>
-    <row r="268" spans="1:7" ht="30">
+        <v>454</v>
+      </c>
+      <c r="C267" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D267" s="40"/>
+      <c r="E267" s="40"/>
+      <c r="F267" s="40"/>
+      <c r="G267" s="40"/>
+    </row>
+    <row r="268" spans="1:7" ht="75">
       <c r="A268" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B268" s="39" t="s">
-        <v>1211</v>
+        <v>455</v>
       </c>
       <c r="C268" s="43" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D268" s="39" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="E268" s="39"/>
       <c r="F268" s="39"/>
-      <c r="G268" s="43"/>
+      <c r="G268" s="43" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B269" s="39">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C269" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="D269" s="40"/>
-      <c r="E269" s="40"/>
-      <c r="F269" s="40"/>
-      <c r="G269" s="40"/>
-    </row>
-    <row r="270" spans="1:7">
+      <c r="B269" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="C269" s="43" t="s">
+        <v>458</v>
+      </c>
+      <c r="D269" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="E269" s="39"/>
+      <c r="F269" s="39"/>
+      <c r="G269" s="43"/>
+    </row>
+    <row r="270" spans="1:7" ht="30">
       <c r="A270" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B270" s="39" t="s">
-        <v>454</v>
-      </c>
-      <c r="C270" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D270" s="40"/>
-      <c r="E270" s="40"/>
-      <c r="F270" s="40"/>
-      <c r="G270" s="40"/>
-    </row>
-    <row r="271" spans="1:7" ht="75">
+        <v>459</v>
+      </c>
+      <c r="C270" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="D270" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="E270" s="39"/>
+      <c r="F270" s="39"/>
+      <c r="G270" s="43"/>
+    </row>
+    <row r="271" spans="1:7" ht="45">
       <c r="A271" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B271" s="39" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C271" s="43" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D271" s="39" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E271" s="39"/>
       <c r="F271" s="39"/>
-      <c r="G271" s="43" t="s">
-        <v>1105</v>
-      </c>
+      <c r="G271" s="43"/>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B272" s="39" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C272" s="43" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="D272" s="39" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E272" s="39"/>
       <c r="F272" s="39"/>
@@ -13416,47 +13416,47 @@
         <v>56</v>
       </c>
       <c r="B273" s="39" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C273" s="43" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="D273" s="39" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="E273" s="39"/>
       <c r="F273" s="39"/>
       <c r="G273" s="43"/>
     </row>
-    <row r="274" spans="1:7" ht="45">
+    <row r="274" spans="1:7" ht="30">
       <c r="A274" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B274" s="39" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C274" s="43" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D274" s="39" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E274" s="39"/>
       <c r="F274" s="39"/>
       <c r="G274" s="43"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" ht="45">
       <c r="A275" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B275" s="39" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C275" s="43" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="D275" s="39" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="E275" s="39"/>
       <c r="F275" s="39"/>
@@ -13467,251 +13467,251 @@
         <v>56</v>
       </c>
       <c r="B276" s="39" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C276" s="43" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="D276" s="39" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="E276" s="39"/>
       <c r="F276" s="39"/>
       <c r="G276" s="43"/>
     </row>
-    <row r="277" spans="1:7" ht="30">
+    <row r="277" spans="1:7" ht="45">
       <c r="A277" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B277" s="39" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C277" s="43" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D277" s="39" t="s">
-        <v>437</v>
+        <v>1210</v>
       </c>
       <c r="E277" s="39"/>
       <c r="F277" s="39"/>
       <c r="G277" s="43"/>
     </row>
-    <row r="278" spans="1:7" ht="45">
+    <row r="278" spans="1:7" ht="60">
       <c r="A278" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B278" s="39" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C278" s="43" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D278" s="39" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="E278" s="39"/>
       <c r="F278" s="39"/>
       <c r="G278" s="43"/>
     </row>
-    <row r="279" spans="1:7" ht="30">
+    <row r="279" spans="1:7" ht="75">
       <c r="A279" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B279" s="39" t="s">
-        <v>469</v>
-      </c>
-      <c r="C279" s="43" t="s">
-        <v>470</v>
+        <v>477</v>
+      </c>
+      <c r="C279" s="39" t="s">
+        <v>478</v>
       </c>
       <c r="D279" s="39" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="E279" s="39"/>
       <c r="F279" s="39"/>
-      <c r="G279" s="43"/>
-    </row>
-    <row r="280" spans="1:7" ht="45">
+      <c r="G279" s="39"/>
+    </row>
+    <row r="280" spans="1:7" ht="90">
       <c r="A280" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B280" s="39" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C280" s="43" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D280" s="39" t="s">
-        <v>1210</v>
+        <v>449</v>
       </c>
       <c r="E280" s="39"/>
       <c r="F280" s="39"/>
       <c r="G280" s="43"/>
     </row>
-    <row r="281" spans="1:7" ht="60">
+    <row r="281" spans="1:7" ht="105">
       <c r="A281" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B281" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="C281" s="43" t="s">
-        <v>475</v>
+        <v>481</v>
+      </c>
+      <c r="C281" s="39" t="s">
+        <v>482</v>
       </c>
       <c r="D281" s="39" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="E281" s="39"/>
       <c r="F281" s="39"/>
-      <c r="G281" s="43"/>
-    </row>
-    <row r="282" spans="1:7" ht="75">
+      <c r="G281" s="39"/>
+    </row>
+    <row r="282" spans="1:7" ht="105">
       <c r="A282" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B282" s="39" t="s">
-        <v>477</v>
-      </c>
-      <c r="C282" s="39" t="s">
-        <v>478</v>
+        <v>483</v>
+      </c>
+      <c r="C282" s="43" t="s">
+        <v>484</v>
       </c>
       <c r="D282" s="39" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="E282" s="39"/>
-      <c r="F282" s="39"/>
-      <c r="G282" s="39"/>
-    </row>
-    <row r="283" spans="1:7" ht="90">
+      <c r="F282" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G282" s="43"/>
+    </row>
+    <row r="283" spans="1:7" ht="75">
       <c r="A283" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B283" s="39" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C283" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="D283" s="39" t="s">
-        <v>449</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="D283" s="39"/>
       <c r="E283" s="39"/>
       <c r="F283" s="39"/>
-      <c r="G283" s="43"/>
-    </row>
-    <row r="284" spans="1:7" ht="105">
+      <c r="G283" s="43" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B284" s="39" t="s">
-        <v>481</v>
-      </c>
-      <c r="C284" s="39" t="s">
-        <v>482</v>
-      </c>
-      <c r="D284" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="E284" s="39"/>
-      <c r="F284" s="39"/>
-      <c r="G284" s="39"/>
-    </row>
-    <row r="285" spans="1:7" ht="105">
+      <c r="B284" s="39">
+        <v>10.3</v>
+      </c>
+      <c r="C284" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D284" s="40"/>
+      <c r="E284" s="40"/>
+      <c r="F284" s="40"/>
+      <c r="G284" s="40"/>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B285" s="39" t="s">
-        <v>483</v>
-      </c>
-      <c r="C285" s="43" t="s">
-        <v>484</v>
-      </c>
-      <c r="D285" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="E285" s="39"/>
-      <c r="F285" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G285" s="43"/>
+        <v>489</v>
+      </c>
+      <c r="C285" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D285" s="40"/>
+      <c r="E285" s="40"/>
+      <c r="F285" s="40"/>
+      <c r="G285" s="40"/>
     </row>
     <row r="286" spans="1:7" ht="75">
       <c r="A286" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B286" s="39" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C286" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="D286" s="39"/>
+        <v>456</v>
+      </c>
+      <c r="D286" s="39" t="s">
+        <v>419</v>
+      </c>
       <c r="E286" s="39"/>
       <c r="F286" s="39"/>
       <c r="G286" s="43" t="s">
-        <v>1298</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B287" s="39">
-        <v>10.3</v>
-      </c>
-      <c r="C287" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D287" s="40"/>
-      <c r="E287" s="40"/>
-      <c r="F287" s="40"/>
-      <c r="G287" s="40"/>
-    </row>
-    <row r="288" spans="1:7">
+      <c r="B287" s="39" t="s">
+        <v>491</v>
+      </c>
+      <c r="C287" s="43" t="s">
+        <v>458</v>
+      </c>
+      <c r="D287" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="E287" s="39"/>
+      <c r="F287" s="39"/>
+      <c r="G287" s="43"/>
+    </row>
+    <row r="288" spans="1:7" ht="30">
       <c r="A288" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B288" s="39" t="s">
-        <v>489</v>
-      </c>
-      <c r="C288" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D288" s="40"/>
-      <c r="E288" s="40"/>
-      <c r="F288" s="40"/>
-      <c r="G288" s="40"/>
-    </row>
-    <row r="289" spans="1:7" ht="75">
+        <v>492</v>
+      </c>
+      <c r="C288" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="D288" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="E288" s="39"/>
+      <c r="F288" s="39"/>
+      <c r="G288" s="43"/>
+    </row>
+    <row r="289" spans="1:7" ht="45">
       <c r="A289" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B289" s="39" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C289" s="43" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D289" s="39" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E289" s="39"/>
       <c r="F289" s="39"/>
-      <c r="G289" s="43" t="s">
-        <v>1105</v>
-      </c>
+      <c r="G289" s="43"/>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B290" s="39" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C290" s="43" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="D290" s="39" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E290" s="39"/>
       <c r="F290" s="39"/>
@@ -13722,47 +13722,47 @@
         <v>56</v>
       </c>
       <c r="B291" s="39" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C291" s="43" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="D291" s="39" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="E291" s="39"/>
       <c r="F291" s="39"/>
       <c r="G291" s="43"/>
     </row>
-    <row r="292" spans="1:7" ht="45">
+    <row r="292" spans="1:7" ht="30">
       <c r="A292" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B292" s="39" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C292" s="43" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D292" s="39" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E292" s="39"/>
       <c r="F292" s="39"/>
       <c r="G292" s="43"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" ht="45">
       <c r="A293" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B293" s="39" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C293" s="43" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="D293" s="39" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="E293" s="39"/>
       <c r="F293" s="39"/>
@@ -13773,234 +13773,234 @@
         <v>56</v>
       </c>
       <c r="B294" s="39" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C294" s="43" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="D294" s="39" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="E294" s="39"/>
       <c r="F294" s="39"/>
       <c r="G294" s="43"/>
     </row>
-    <row r="295" spans="1:7" ht="30">
+    <row r="295" spans="1:7" ht="45">
       <c r="A295" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B295" s="39" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C295" s="43" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D295" s="39" t="s">
-        <v>437</v>
+        <v>1210</v>
       </c>
       <c r="E295" s="39"/>
       <c r="F295" s="39"/>
       <c r="G295" s="43"/>
     </row>
-    <row r="296" spans="1:7" ht="45">
+    <row r="296" spans="1:7" ht="60">
       <c r="A296" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B296" s="39" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C296" s="43" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D296" s="39" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="E296" s="39"/>
       <c r="F296" s="39"/>
       <c r="G296" s="43"/>
     </row>
-    <row r="297" spans="1:7" ht="30">
+    <row r="297" spans="1:7" ht="75">
       <c r="A297" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B297" s="39" t="s">
-        <v>498</v>
-      </c>
-      <c r="C297" s="43" t="s">
-        <v>470</v>
+        <v>501</v>
+      </c>
+      <c r="C297" s="39" t="s">
+        <v>478</v>
       </c>
       <c r="D297" s="39" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="E297" s="39"/>
       <c r="F297" s="39"/>
-      <c r="G297" s="43"/>
-    </row>
-    <row r="298" spans="1:7" ht="45">
+      <c r="G297" s="39"/>
+    </row>
+    <row r="298" spans="1:7" ht="90">
       <c r="A298" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B298" s="39" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C298" s="43" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D298" s="39" t="s">
-        <v>1210</v>
+        <v>449</v>
       </c>
       <c r="E298" s="39"/>
       <c r="F298" s="39"/>
       <c r="G298" s="43"/>
     </row>
-    <row r="299" spans="1:7" ht="60">
+    <row r="299" spans="1:7" ht="105">
       <c r="A299" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B299" s="39" t="s">
-        <v>500</v>
-      </c>
-      <c r="C299" s="43" t="s">
-        <v>475</v>
+        <v>503</v>
+      </c>
+      <c r="C299" s="39" t="s">
+        <v>482</v>
       </c>
       <c r="D299" s="39" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="E299" s="39"/>
       <c r="F299" s="39"/>
-      <c r="G299" s="43"/>
-    </row>
-    <row r="300" spans="1:7" ht="75">
+      <c r="G299" s="39"/>
+    </row>
+    <row r="300" spans="1:7" ht="105">
       <c r="A300" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B300" s="39" t="s">
-        <v>501</v>
-      </c>
-      <c r="C300" s="39" t="s">
-        <v>478</v>
+        <v>504</v>
+      </c>
+      <c r="C300" s="43" t="s">
+        <v>484</v>
       </c>
       <c r="D300" s="39" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="E300" s="39"/>
-      <c r="F300" s="39"/>
-      <c r="G300" s="39"/>
-    </row>
-    <row r="301" spans="1:7" ht="90">
+      <c r="F300" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G300" s="43"/>
+    </row>
+    <row r="301" spans="1:7" ht="75">
       <c r="A301" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B301" s="39" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C301" s="43" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D301" s="39" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="E301" s="39"/>
-      <c r="F301" s="39"/>
+      <c r="F301" s="59" t="s">
+        <v>1173</v>
+      </c>
       <c r="G301" s="43"/>
     </row>
-    <row r="302" spans="1:7" ht="105">
+    <row r="302" spans="1:7">
       <c r="A302" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B302" s="39" t="s">
-        <v>503</v>
-      </c>
-      <c r="C302" s="39" t="s">
-        <v>482</v>
-      </c>
-      <c r="D302" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="E302" s="39"/>
-      <c r="F302" s="39"/>
-      <c r="G302" s="39"/>
-    </row>
-    <row r="303" spans="1:7" ht="105">
+      <c r="B302" s="39">
+        <v>10.4</v>
+      </c>
+      <c r="C302" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D302" s="40"/>
+      <c r="E302" s="40"/>
+      <c r="F302" s="40"/>
+      <c r="G302" s="40"/>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B303" s="39" t="s">
-        <v>504</v>
-      </c>
-      <c r="C303" s="43" t="s">
-        <v>484</v>
-      </c>
-      <c r="D303" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="E303" s="39"/>
-      <c r="F303" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G303" s="43"/>
-    </row>
-    <row r="304" spans="1:7" ht="75">
+        <v>506</v>
+      </c>
+      <c r="C303" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D303" s="40"/>
+      <c r="E303" s="40"/>
+      <c r="F303" s="40"/>
+      <c r="G303" s="40"/>
+    </row>
+    <row r="304" spans="1:7" ht="45">
       <c r="A304" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B304" s="39" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C304" s="43" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="D304" s="39" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="E304" s="39"/>
-      <c r="F304" s="59" t="s">
-        <v>1173</v>
-      </c>
+      <c r="F304" s="39"/>
       <c r="G304" s="43"/>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B305" s="39">
-        <v>10.4</v>
-      </c>
-      <c r="C305" s="38" t="s">
-        <v>10</v>
+      <c r="B305" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="C305" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="D305" s="40"/>
       <c r="E305" s="40"/>
       <c r="F305" s="40"/>
       <c r="G305" s="40"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" ht="45">
       <c r="A306" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B306" s="39" t="s">
-        <v>506</v>
-      </c>
-      <c r="C306" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D306" s="40"/>
-      <c r="E306" s="40"/>
-      <c r="F306" s="40"/>
-      <c r="G306" s="40"/>
-    </row>
-    <row r="307" spans="1:7" ht="45">
+        <v>511</v>
+      </c>
+      <c r="C306" s="39" t="s">
+        <v>512</v>
+      </c>
+      <c r="D306" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="E306" s="46"/>
+      <c r="F306" s="46"/>
+      <c r="G306" s="39" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="30">
       <c r="A307" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B307" s="39" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C307" s="43" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D307" s="39" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="E307" s="39"/>
       <c r="F307" s="39"/>
@@ -14011,47 +14011,47 @@
         <v>56</v>
       </c>
       <c r="B308" s="39" t="s">
-        <v>510</v>
-      </c>
-      <c r="C308" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D308" s="40"/>
-      <c r="E308" s="40"/>
-      <c r="F308" s="40"/>
-      <c r="G308" s="40"/>
-    </row>
-    <row r="309" spans="1:7" ht="45">
+        <v>516</v>
+      </c>
+      <c r="C308" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D308" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="E308" s="39"/>
+      <c r="F308" s="39"/>
+      <c r="G308" s="43"/>
+    </row>
+    <row r="309" spans="1:7" ht="60">
       <c r="A309" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B309" s="39" t="s">
-        <v>511</v>
-      </c>
-      <c r="C309" s="39" t="s">
-        <v>512</v>
+        <v>519</v>
+      </c>
+      <c r="C309" s="43" t="s">
+        <v>520</v>
       </c>
       <c r="D309" s="39" t="s">
-        <v>419</v>
-      </c>
-      <c r="E309" s="46"/>
-      <c r="F309" s="46"/>
-      <c r="G309" s="39" t="s">
-        <v>1106</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="E309" s="39"/>
+      <c r="F309" s="39"/>
+      <c r="G309" s="43"/>
     </row>
     <row r="310" spans="1:7" ht="30">
       <c r="A310" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B310" s="39" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="C310" s="43" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="D310" s="39" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="E310" s="39"/>
       <c r="F310" s="39"/>
@@ -14062,147 +14062,147 @@
         <v>56</v>
       </c>
       <c r="B311" s="39" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C311" s="43" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="D311" s="39" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="E311" s="39"/>
       <c r="F311" s="39"/>
       <c r="G311" s="43"/>
     </row>
-    <row r="312" spans="1:7" ht="60">
+    <row r="312" spans="1:7" ht="105">
       <c r="A312" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B312" s="39" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C312" s="43" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="D312" s="39" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E312" s="39"/>
       <c r="F312" s="39"/>
       <c r="G312" s="43"/>
     </row>
-    <row r="313" spans="1:7" ht="30">
+    <row r="313" spans="1:7">
       <c r="A313" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B313" s="39" t="s">
-        <v>522</v>
-      </c>
-      <c r="C313" s="43" t="s">
-        <v>523</v>
-      </c>
-      <c r="D313" s="39" t="s">
-        <v>524</v>
-      </c>
-      <c r="E313" s="39"/>
-      <c r="F313" s="39"/>
-      <c r="G313" s="43"/>
+      <c r="B313" s="39">
+        <v>10.5</v>
+      </c>
+      <c r="C313" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D313" s="40"/>
+      <c r="E313" s="40"/>
+      <c r="F313" s="40"/>
+      <c r="G313" s="48"/>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B314" s="39" t="s">
-        <v>525</v>
-      </c>
-      <c r="C314" s="43" t="s">
-        <v>526</v>
-      </c>
-      <c r="D314" s="39" t="s">
-        <v>471</v>
-      </c>
-      <c r="E314" s="39"/>
-      <c r="F314" s="39"/>
-      <c r="G314" s="43"/>
-    </row>
-    <row r="315" spans="1:7" ht="105">
+        <v>530</v>
+      </c>
+      <c r="C314" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D314" s="40"/>
+      <c r="E314" s="40"/>
+      <c r="F314" s="40"/>
+      <c r="G314" s="48"/>
+    </row>
+    <row r="315" spans="1:7" ht="75">
       <c r="A315" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B315" s="39" t="s">
-        <v>527</v>
-      </c>
-      <c r="C315" s="43" t="s">
-        <v>528</v>
+        <v>531</v>
+      </c>
+      <c r="C315" s="39" t="s">
+        <v>456</v>
       </c>
       <c r="D315" s="39" t="s">
-        <v>529</v>
+        <v>419</v>
       </c>
       <c r="E315" s="39"/>
       <c r="F315" s="39"/>
-      <c r="G315" s="43"/>
+      <c r="G315" s="39" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B316" s="39">
-        <v>10.5</v>
-      </c>
-      <c r="C316" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D316" s="40"/>
-      <c r="E316" s="40"/>
-      <c r="F316" s="40"/>
-      <c r="G316" s="48"/>
-    </row>
-    <row r="317" spans="1:7">
+      <c r="B316" s="39" t="s">
+        <v>532</v>
+      </c>
+      <c r="C316" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="D316" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="E316" s="39"/>
+      <c r="F316" s="39"/>
+      <c r="G316" s="39"/>
+    </row>
+    <row r="317" spans="1:7" ht="30">
       <c r="A317" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B317" s="39" t="s">
-        <v>530</v>
-      </c>
-      <c r="C317" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D317" s="40"/>
-      <c r="E317" s="40"/>
-      <c r="F317" s="40"/>
-      <c r="G317" s="48"/>
-    </row>
-    <row r="318" spans="1:7" ht="75">
+        <v>533</v>
+      </c>
+      <c r="C317" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="D317" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="E317" s="39"/>
+      <c r="F317" s="39"/>
+      <c r="G317" s="39"/>
+    </row>
+    <row r="318" spans="1:7" ht="45">
       <c r="A318" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B318" s="39" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C318" s="39" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D318" s="39" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E318" s="39"/>
       <c r="F318" s="39"/>
-      <c r="G318" s="39" t="s">
-        <v>1105</v>
-      </c>
+      <c r="G318" s="39"/>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B319" s="39" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C319" s="39" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="D319" s="39" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E319" s="39"/>
       <c r="F319" s="39"/>
@@ -14213,47 +14213,47 @@
         <v>56</v>
       </c>
       <c r="B320" s="39" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C320" s="39" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="D320" s="39" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E320" s="39"/>
       <c r="F320" s="39"/>
       <c r="G320" s="39"/>
     </row>
-    <row r="321" spans="1:7" ht="45">
+    <row r="321" spans="1:7" ht="30">
       <c r="A321" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B321" s="39" t="s">
-        <v>534</v>
+        <v>1212</v>
       </c>
       <c r="C321" s="39" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D321" s="39" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E321" s="39"/>
       <c r="F321" s="39"/>
       <c r="G321" s="39"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" ht="45">
       <c r="A322" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B322" s="39" t="s">
-        <v>535</v>
+        <v>1213</v>
       </c>
       <c r="C322" s="39" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="D322" s="39" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="E322" s="39"/>
       <c r="F322" s="39"/>
@@ -14264,293 +14264,297 @@
         <v>56</v>
       </c>
       <c r="B323" s="39" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C323" s="39" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="D323" s="39" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="E323" s="39"/>
       <c r="F323" s="39"/>
       <c r="G323" s="39"/>
     </row>
-    <row r="324" spans="1:7" ht="30">
+    <row r="324" spans="1:7" ht="45">
       <c r="A324" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B324" s="39" t="s">
-        <v>1212</v>
+        <v>542</v>
       </c>
       <c r="C324" s="39" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D324" s="39" t="s">
-        <v>437</v>
+        <v>1210</v>
       </c>
       <c r="E324" s="39"/>
       <c r="F324" s="39"/>
       <c r="G324" s="39"/>
     </row>
-    <row r="325" spans="1:7" ht="45">
+    <row r="325" spans="1:7" ht="60">
       <c r="A325" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B325" s="39" t="s">
-        <v>1213</v>
+        <v>543</v>
       </c>
       <c r="C325" s="39" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D325" s="39" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="E325" s="39"/>
       <c r="F325" s="39"/>
       <c r="G325" s="39"/>
     </row>
-    <row r="326" spans="1:7" ht="30">
+    <row r="326" spans="1:7" ht="75">
       <c r="A326" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B326" s="39" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C326" s="39" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D326" s="39" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="E326" s="39"/>
       <c r="F326" s="39"/>
       <c r="G326" s="39"/>
     </row>
-    <row r="327" spans="1:7" ht="45">
+    <row r="327" spans="1:7" ht="90">
       <c r="A327" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B327" s="39" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C327" s="39" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D327" s="39" t="s">
-        <v>1210</v>
+        <v>449</v>
       </c>
       <c r="E327" s="39"/>
       <c r="F327" s="39"/>
       <c r="G327" s="39"/>
     </row>
-    <row r="328" spans="1:7" ht="60">
+    <row r="328" spans="1:7" ht="105">
       <c r="A328" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B328" s="39" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C328" s="39" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D328" s="39" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="E328" s="39"/>
       <c r="F328" s="39"/>
       <c r="G328" s="39"/>
     </row>
-    <row r="329" spans="1:7" ht="75">
+    <row r="329" spans="1:7" ht="105">
       <c r="A329" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B329" s="39" t="s">
-        <v>544</v>
+        <v>1214</v>
       </c>
       <c r="C329" s="39" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D329" s="39" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="E329" s="39"/>
-      <c r="F329" s="39"/>
+      <c r="F329" s="39" t="s">
+        <v>1126</v>
+      </c>
       <c r="G329" s="39"/>
     </row>
-    <row r="330" spans="1:7" ht="90">
+    <row r="330" spans="1:7" ht="75">
       <c r="A330" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B330" s="39" t="s">
-        <v>545</v>
+        <v>1215</v>
       </c>
       <c r="C330" s="39" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D330" s="39" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="E330" s="39"/>
-      <c r="F330" s="39"/>
+      <c r="F330" s="59" t="s">
+        <v>1299</v>
+      </c>
       <c r="G330" s="39"/>
     </row>
-    <row r="331" spans="1:7" ht="105">
+    <row r="331" spans="1:7">
       <c r="A331" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B331" s="39" t="s">
-        <v>546</v>
-      </c>
-      <c r="C331" s="39" t="s">
-        <v>482</v>
-      </c>
-      <c r="D331" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="E331" s="39"/>
-      <c r="F331" s="39"/>
-      <c r="G331" s="39"/>
-    </row>
-    <row r="332" spans="1:7" ht="105">
+      <c r="B331" s="36" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C331" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D331" s="40"/>
+      <c r="E331" s="40"/>
+      <c r="F331" s="40"/>
+      <c r="G331" s="49"/>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B332" s="39" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C332" s="39" t="s">
-        <v>484</v>
-      </c>
-      <c r="D332" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="E332" s="39"/>
-      <c r="F332" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G332" s="39"/>
-    </row>
-    <row r="333" spans="1:7" ht="75">
+      <c r="B332" s="39">
+        <v>11.1</v>
+      </c>
+      <c r="C332" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D332" s="40"/>
+      <c r="E332" s="40"/>
+      <c r="F332" s="40"/>
+      <c r="G332" s="48"/>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B333" s="39" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C333" s="39" t="s">
-        <v>487</v>
-      </c>
-      <c r="D333" s="39" t="s">
-        <v>488</v>
-      </c>
-      <c r="E333" s="39"/>
-      <c r="F333" s="59" t="s">
-        <v>1299</v>
-      </c>
-      <c r="G333" s="39"/>
-    </row>
-    <row r="334" spans="1:7">
+        <v>547</v>
+      </c>
+      <c r="C333" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D333" s="40"/>
+      <c r="E333" s="40"/>
+      <c r="F333" s="40"/>
+      <c r="G333" s="48"/>
+    </row>
+    <row r="334" spans="1:7" ht="120">
       <c r="A334" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B334" s="36" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C334" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D334" s="40"/>
-      <c r="E334" s="40"/>
-      <c r="F334" s="40"/>
-      <c r="G334" s="49"/>
-    </row>
-    <row r="335" spans="1:7">
+      <c r="B334" s="39" t="s">
+        <v>548</v>
+      </c>
+      <c r="C334" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="D334" s="39">
+        <v>78.3</v>
+      </c>
+      <c r="E334" s="39" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F334" s="39" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G334" s="43" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" ht="60">
       <c r="A335" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B335" s="39">
-        <v>11.1</v>
-      </c>
-      <c r="C335" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D335" s="40"/>
-      <c r="E335" s="40"/>
-      <c r="F335" s="40"/>
-      <c r="G335" s="48"/>
-    </row>
-    <row r="336" spans="1:7">
+      <c r="B335" s="39" t="s">
+        <v>550</v>
+      </c>
+      <c r="C335" s="43" t="s">
+        <v>551</v>
+      </c>
+      <c r="D335" s="39">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E335" s="39" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F335" s="39" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G335" s="43"/>
+    </row>
+    <row r="336" spans="1:7" ht="30">
       <c r="A336" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B336" s="39" t="s">
-        <v>547</v>
-      </c>
-      <c r="C336" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D336" s="40"/>
-      <c r="E336" s="40"/>
-      <c r="F336" s="40"/>
-      <c r="G336" s="48"/>
-    </row>
-    <row r="337" spans="1:7" ht="120">
+        <v>552</v>
+      </c>
+      <c r="C336" s="43" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D336" s="39">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E336" s="39"/>
+      <c r="F336" s="39" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G336" s="43"/>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B337" s="39" t="s">
-        <v>548</v>
-      </c>
-      <c r="C337" s="43" t="s">
-        <v>549</v>
-      </c>
-      <c r="D337" s="39">
-        <v>78.3</v>
-      </c>
-      <c r="E337" s="39" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F337" s="39" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G337" s="43" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" ht="60">
+        <v>554</v>
+      </c>
+      <c r="C337" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D337" s="40"/>
+      <c r="E337" s="40"/>
+      <c r="F337" s="40"/>
+      <c r="G337" s="40"/>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B338" s="39" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C338" s="43" t="s">
-        <v>551</v>
-      </c>
-      <c r="D338" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E338" s="39" t="s">
-        <v>1217</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="D338" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="E338" s="39"/>
       <c r="F338" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G338" s="43"/>
-    </row>
-    <row r="339" spans="1:7" ht="30">
+      <c r="G338" s="43" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B339" s="39" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C339" s="43" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D339" s="39">
-        <v>78.099999999999994</v>
+        <v>559</v>
+      </c>
+      <c r="D339" s="39" t="s">
+        <v>560</v>
       </c>
       <c r="E339" s="39"/>
       <c r="F339" s="39" t="s">
@@ -14563,87 +14567,87 @@
         <v>56</v>
       </c>
       <c r="B340" s="39" t="s">
-        <v>554</v>
-      </c>
-      <c r="C340" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D340" s="40"/>
-      <c r="E340" s="40"/>
-      <c r="F340" s="40"/>
-      <c r="G340" s="40"/>
-    </row>
-    <row r="341" spans="1:7">
+        <v>561</v>
+      </c>
+      <c r="C340" s="39" t="s">
+        <v>562</v>
+      </c>
+      <c r="D340" s="39" t="s">
+        <v>563</v>
+      </c>
+      <c r="E340" s="39"/>
+      <c r="F340" s="39" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G340" s="39"/>
+    </row>
+    <row r="341" spans="1:7" ht="45">
       <c r="A341" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B341" s="39" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="C341" s="43" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="D341" s="39" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="E341" s="39"/>
       <c r="F341" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G341" s="43" t="s">
-        <v>1108</v>
-      </c>
+      <c r="G341" s="43"/>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B342" s="39" t="s">
-        <v>558</v>
-      </c>
-      <c r="C342" s="43" t="s">
-        <v>559</v>
-      </c>
-      <c r="D342" s="39" t="s">
-        <v>560</v>
-      </c>
-      <c r="E342" s="39"/>
-      <c r="F342" s="39" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G342" s="43"/>
+        <v>567</v>
+      </c>
+      <c r="C342" s="40" t="s">
+        <v>568</v>
+      </c>
+      <c r="D342" s="40"/>
+      <c r="E342" s="40"/>
+      <c r="F342" s="40"/>
+      <c r="G342" s="40"/>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B343" s="39" t="s">
-        <v>561</v>
-      </c>
-      <c r="C343" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
+      </c>
+      <c r="C343" s="43" t="s">
+        <v>570</v>
       </c>
       <c r="D343" s="39" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="E343" s="39"/>
       <c r="F343" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G343" s="39"/>
-    </row>
-    <row r="344" spans="1:7" ht="45">
+      <c r="G343" s="43" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" ht="30">
       <c r="A344" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B344" s="39" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C344" s="43" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D344" s="39" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="E344" s="39"/>
       <c r="F344" s="39" t="s">
@@ -14656,87 +14660,87 @@
         <v>56</v>
       </c>
       <c r="B345" s="39" t="s">
-        <v>567</v>
-      </c>
-      <c r="C345" s="40" t="s">
-        <v>568</v>
-      </c>
-      <c r="D345" s="40"/>
-      <c r="E345" s="40"/>
-      <c r="F345" s="40"/>
-      <c r="G345" s="40"/>
-    </row>
-    <row r="346" spans="1:7">
+        <v>575</v>
+      </c>
+      <c r="C345" s="43" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D345" s="39" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E345" s="39"/>
+      <c r="F345" s="39" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G345" s="43"/>
+    </row>
+    <row r="346" spans="1:7" ht="45">
       <c r="A346" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B346" s="39" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="C346" s="43" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D346" s="39" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E346" s="39"/>
       <c r="F346" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G346" s="43" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" ht="30">
+      <c r="G346" s="43"/>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B347" s="39" t="s">
-        <v>572</v>
-      </c>
-      <c r="C347" s="43" t="s">
-        <v>573</v>
-      </c>
-      <c r="D347" s="39" t="s">
-        <v>574</v>
-      </c>
-      <c r="E347" s="39"/>
-      <c r="F347" s="39" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G347" s="43"/>
-    </row>
-    <row r="348" spans="1:7">
+        <v>584</v>
+      </c>
+      <c r="C347" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="D347" s="40"/>
+      <c r="E347" s="40"/>
+      <c r="F347" s="40"/>
+      <c r="G347" s="40"/>
+    </row>
+    <row r="348" spans="1:7" ht="90">
       <c r="A348" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B348" s="39" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C348" s="43" t="s">
-        <v>1069</v>
+        <v>588</v>
       </c>
       <c r="D348" s="39" t="s">
-        <v>1068</v>
+        <v>586</v>
       </c>
       <c r="E348" s="39"/>
       <c r="F348" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G348" s="43"/>
-    </row>
-    <row r="349" spans="1:7" ht="45">
+      <c r="G348" s="43" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" ht="60">
       <c r="A349" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B349" s="39" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="C349" s="43" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D349" s="39" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E349" s="39"/>
       <c r="F349" s="39" t="s">
@@ -14744,54 +14748,56 @@
       </c>
       <c r="G349" s="43"/>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" ht="30">
       <c r="A350" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B350" s="39" t="s">
-        <v>584</v>
-      </c>
-      <c r="C350" s="40" t="s">
-        <v>585</v>
-      </c>
-      <c r="D350" s="40"/>
-      <c r="E350" s="40"/>
-      <c r="F350" s="40"/>
-      <c r="G350" s="40"/>
-    </row>
-    <row r="351" spans="1:7" ht="90">
+        <v>591</v>
+      </c>
+      <c r="C350" s="39" t="s">
+        <v>592</v>
+      </c>
+      <c r="D350" s="39" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E350" s="39"/>
+      <c r="F350" s="39" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G350" s="39"/>
+    </row>
+    <row r="351" spans="1:7" ht="45">
       <c r="A351" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B351" s="39" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C351" s="43" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D351" s="39" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="E351" s="39"/>
       <c r="F351" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G351" s="43" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" ht="60">
+      <c r="G351" s="43"/>
+    </row>
+    <row r="352" spans="1:7" ht="30">
       <c r="A352" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B352" s="39" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="C352" s="43" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="D352" s="39" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="E352" s="39"/>
       <c r="F352" s="39" t="s">
@@ -14799,72 +14805,70 @@
       </c>
       <c r="G352" s="43"/>
     </row>
-    <row r="353" spans="1:7" ht="30">
+    <row r="353" spans="1:7">
       <c r="A353" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B353" s="39" t="s">
-        <v>591</v>
-      </c>
-      <c r="C353" s="39" t="s">
-        <v>592</v>
-      </c>
-      <c r="D353" s="39" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E353" s="39"/>
-      <c r="F353" s="39" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G353" s="39"/>
-    </row>
-    <row r="354" spans="1:7" ht="45">
+        <v>599</v>
+      </c>
+      <c r="C353" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D353" s="40"/>
+      <c r="E353" s="40"/>
+      <c r="F353" s="40"/>
+      <c r="G353" s="40"/>
+    </row>
+    <row r="354" spans="1:7">
       <c r="A354" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B354" s="39" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="C354" s="43" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="D354" s="39" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="E354" s="39"/>
       <c r="F354" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G354" s="43"/>
-    </row>
-    <row r="355" spans="1:7" ht="30">
+      <c r="G354" s="39" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
       <c r="A355" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B355" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="C355" s="43" t="s">
-        <v>597</v>
+        <v>603</v>
+      </c>
+      <c r="C355" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="D355" s="39" t="s">
-        <v>598</v>
+        <v>1065</v>
       </c>
       <c r="E355" s="39"/>
       <c r="F355" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G355" s="43"/>
+      <c r="G355" s="39"/>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B356" s="39" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C356" s="40" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D356" s="40"/>
       <c r="E356" s="40"/>
@@ -14876,313 +14880,315 @@
         <v>56</v>
       </c>
       <c r="B357" s="39" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C357" s="43" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="D357" s="39" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E357" s="39"/>
       <c r="F357" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G357" s="39" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7">
+      <c r="G357" s="43" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" ht="30">
       <c r="A358" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B358" s="39" t="s">
-        <v>603</v>
-      </c>
-      <c r="C358" s="39" t="s">
-        <v>604</v>
+        <v>608</v>
+      </c>
+      <c r="C358" s="43" t="s">
+        <v>609</v>
       </c>
       <c r="D358" s="39" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E358" s="39"/>
+        <v>1070</v>
+      </c>
+      <c r="E358" s="46"/>
       <c r="F358" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G358" s="39"/>
-    </row>
-    <row r="359" spans="1:7">
+      <c r="G358" s="43"/>
+    </row>
+    <row r="359" spans="1:7" ht="30">
       <c r="A359" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B359" s="39" t="s">
-        <v>605</v>
-      </c>
-      <c r="C359" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="D359" s="40"/>
-      <c r="E359" s="40"/>
-      <c r="F359" s="40"/>
-      <c r="G359" s="40"/>
+        <v>610</v>
+      </c>
+      <c r="C359" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D359" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E359" s="39"/>
+      <c r="F359" s="39" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G359" s="43"/>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B360" s="39" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C360" s="43" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="D360" s="39" t="s">
-        <v>571</v>
+        <v>1068</v>
       </c>
       <c r="E360" s="39"/>
       <c r="F360" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G360" s="43" t="s">
-        <v>1111</v>
-      </c>
+      <c r="G360" s="43"/>
     </row>
     <row r="361" spans="1:7" ht="30">
       <c r="A361" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B361" s="39" t="s">
-        <v>608</v>
-      </c>
-      <c r="C361" s="43" t="s">
-        <v>609</v>
+        <v>614</v>
+      </c>
+      <c r="C361" s="39" t="s">
+        <v>615</v>
       </c>
       <c r="D361" s="39" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E361" s="46"/>
+        <v>1066</v>
+      </c>
+      <c r="E361" s="39" t="s">
+        <v>616</v>
+      </c>
       <c r="F361" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G361" s="43"/>
-    </row>
-    <row r="362" spans="1:7" ht="30">
+      <c r="G361" s="39"/>
+    </row>
+    <row r="362" spans="1:7">
       <c r="A362" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B362" s="39" t="s">
-        <v>610</v>
-      </c>
-      <c r="C362" s="43" t="s">
-        <v>611</v>
-      </c>
-      <c r="D362" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E362" s="39"/>
-      <c r="F362" s="39" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G362" s="43"/>
+      <c r="B362" s="39">
+        <v>11.2</v>
+      </c>
+      <c r="C362" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D362" s="40"/>
+      <c r="E362" s="40"/>
+      <c r="F362" s="40"/>
+      <c r="G362" s="40"/>
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B363" s="39" t="s">
-        <v>612</v>
-      </c>
-      <c r="C363" s="43" t="s">
-        <v>613</v>
-      </c>
-      <c r="D363" s="39" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E363" s="39"/>
-      <c r="F363" s="39" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G363" s="43"/>
-    </row>
-    <row r="364" spans="1:7" ht="30">
+        <v>617</v>
+      </c>
+      <c r="C363" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D363" s="40"/>
+      <c r="E363" s="40"/>
+      <c r="F363" s="40"/>
+      <c r="G363" s="40"/>
+    </row>
+    <row r="364" spans="1:7" ht="120">
       <c r="A364" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B364" s="39" t="s">
-        <v>614</v>
-      </c>
-      <c r="C364" s="39" t="s">
-        <v>615</v>
+        <v>618</v>
+      </c>
+      <c r="C364" s="43" t="s">
+        <v>549</v>
       </c>
       <c r="D364" s="39" t="s">
-        <v>1066</v>
+        <v>1003</v>
       </c>
       <c r="E364" s="39" t="s">
-        <v>616</v>
+        <v>1206</v>
       </c>
       <c r="F364" s="39" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G364" s="39"/>
-    </row>
-    <row r="365" spans="1:7">
+        <v>1176</v>
+      </c>
+      <c r="G364" s="43" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" ht="75">
       <c r="A365" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B365" s="39">
-        <v>11.2</v>
-      </c>
-      <c r="C365" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D365" s="40"/>
-      <c r="E365" s="40"/>
-      <c r="F365" s="40"/>
-      <c r="G365" s="40"/>
-    </row>
-    <row r="366" spans="1:7">
+      <c r="B365" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="C365" s="43" t="s">
+        <v>620</v>
+      </c>
+      <c r="D365" s="39" t="s">
+        <v>998</v>
+      </c>
+      <c r="E365" s="39" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F365" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G365" s="43"/>
+    </row>
+    <row r="366" spans="1:7" ht="30">
       <c r="A366" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B366" s="39" t="s">
-        <v>617</v>
-      </c>
-      <c r="C366" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D366" s="40"/>
-      <c r="E366" s="40"/>
-      <c r="F366" s="40"/>
-      <c r="G366" s="40"/>
-    </row>
-    <row r="367" spans="1:7" ht="120">
+        <v>621</v>
+      </c>
+      <c r="C366" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="D366" s="39">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E366" s="39" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F366" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G366" s="43"/>
+    </row>
+    <row r="367" spans="1:7">
       <c r="A367" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B367" s="39" t="s">
-        <v>618</v>
-      </c>
-      <c r="C367" s="43" t="s">
-        <v>549</v>
-      </c>
-      <c r="D367" s="39" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E367" s="39" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F367" s="39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G367" s="43" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" ht="75">
+        <v>622</v>
+      </c>
+      <c r="C367" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D367" s="40"/>
+      <c r="E367" s="40"/>
+      <c r="F367" s="40"/>
+      <c r="G367" s="40"/>
+    </row>
+    <row r="368" spans="1:7">
       <c r="A368" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B368" s="39" t="s">
-        <v>619</v>
-      </c>
-      <c r="C368" s="43" t="s">
-        <v>620</v>
-      </c>
-      <c r="D368" s="39" t="s">
-        <v>998</v>
-      </c>
-      <c r="E368" s="39" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F368" s="39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G368" s="43"/>
-    </row>
-    <row r="369" spans="1:7" ht="30">
+        <v>623</v>
+      </c>
+      <c r="C368" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D368" s="40"/>
+      <c r="E368" s="40"/>
+      <c r="F368" s="40"/>
+      <c r="G368" s="40"/>
+    </row>
+    <row r="369" spans="1:7">
       <c r="A369" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B369" s="39" t="s">
-        <v>621</v>
-      </c>
-      <c r="C369" s="43" t="s">
-        <v>553</v>
-      </c>
-      <c r="D369" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E369" s="39" t="s">
-        <v>1206</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="C369" s="39" t="s">
+        <v>626</v>
+      </c>
+      <c r="D369" s="39" t="s">
+        <v>627</v>
+      </c>
+      <c r="E369" s="39"/>
       <c r="F369" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="G369" s="43"/>
-    </row>
-    <row r="370" spans="1:7">
+      <c r="G369" s="43" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" ht="30">
       <c r="A370" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B370" s="39" t="s">
-        <v>622</v>
-      </c>
-      <c r="C370" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D370" s="40"/>
-      <c r="E370" s="40"/>
-      <c r="F370" s="40"/>
-      <c r="G370" s="40"/>
-    </row>
-    <row r="371" spans="1:7">
+        <v>628</v>
+      </c>
+      <c r="C370" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="D370" s="39" t="s">
+        <v>630</v>
+      </c>
+      <c r="E370" s="39"/>
+      <c r="F370" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G370" s="43"/>
+    </row>
+    <row r="371" spans="1:7" ht="45">
       <c r="A371" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B371" s="39" t="s">
-        <v>623</v>
-      </c>
-      <c r="C371" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D371" s="40"/>
-      <c r="E371" s="40"/>
-      <c r="F371" s="40"/>
-      <c r="G371" s="40"/>
-    </row>
-    <row r="372" spans="1:7">
+        <v>631</v>
+      </c>
+      <c r="C371" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="D371" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="E371" s="39"/>
+      <c r="F371" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G371" s="43"/>
+    </row>
+    <row r="372" spans="1:7" ht="45">
       <c r="A372" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B372" s="39" t="s">
-        <v>625</v>
-      </c>
-      <c r="C372" s="39" t="s">
-        <v>626</v>
+        <v>633</v>
+      </c>
+      <c r="C372" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="D372" s="39" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
       <c r="E372" s="39"/>
       <c r="F372" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="G372" s="43" t="s">
-        <v>1112</v>
-      </c>
+      <c r="G372" s="43"/>
     </row>
     <row r="373" spans="1:7" ht="30">
       <c r="A373" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B373" s="39" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C373" s="43" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="D373" s="39" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
       <c r="E373" s="39"/>
       <c r="F373" s="39" t="s">
@@ -15195,13 +15201,13 @@
         <v>56</v>
       </c>
       <c r="B374" s="39" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C374" s="43" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D374" s="39" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="E374" s="39"/>
       <c r="F374" s="39" t="s">
@@ -15209,72 +15215,72 @@
       </c>
       <c r="G374" s="43"/>
     </row>
-    <row r="375" spans="1:7" ht="45">
+    <row r="375" spans="1:7">
       <c r="A375" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B375" s="39" t="s">
-        <v>633</v>
-      </c>
-      <c r="C375" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="D375" s="39" t="s">
-        <v>595</v>
-      </c>
-      <c r="E375" s="39"/>
-      <c r="F375" s="39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G375" s="43"/>
-    </row>
-    <row r="376" spans="1:7" ht="30">
+        <v>639</v>
+      </c>
+      <c r="C375" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D375" s="40"/>
+      <c r="E375" s="40"/>
+      <c r="F375" s="40"/>
+      <c r="G375" s="40"/>
+    </row>
+    <row r="376" spans="1:7">
       <c r="A376" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B376" s="39" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C376" s="43" t="s">
-        <v>636</v>
+        <v>602</v>
       </c>
       <c r="D376" s="39" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="E376" s="39"/>
       <c r="F376" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="G376" s="43"/>
-    </row>
-    <row r="377" spans="1:7" ht="45">
+      <c r="G376" s="43" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
       <c r="A377" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B377" s="39" t="s">
-        <v>637</v>
-      </c>
-      <c r="C377" s="43" t="s">
-        <v>638</v>
+        <v>641</v>
+      </c>
+      <c r="C377" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="D377" s="39" t="s">
-        <v>566</v>
-      </c>
-      <c r="E377" s="39"/>
+        <v>1065</v>
+      </c>
+      <c r="E377" s="39" t="s">
+        <v>1221</v>
+      </c>
       <c r="F377" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="G377" s="43"/>
+      <c r="G377" s="39"/>
     </row>
     <row r="378" spans="1:7">
       <c r="A378" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B378" s="39" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C378" s="40" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D378" s="40"/>
       <c r="E378" s="40"/>
@@ -15286,315 +15292,315 @@
         <v>56</v>
       </c>
       <c r="B379" s="39" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C379" s="43" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="D379" s="39" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E379" s="39"/>
       <c r="F379" s="39" t="s">
         <v>1176</v>
       </c>
       <c r="G379" s="43" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" ht="30">
       <c r="A380" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B380" s="39" t="s">
-        <v>641</v>
-      </c>
-      <c r="C380" s="39" t="s">
-        <v>604</v>
+        <v>644</v>
+      </c>
+      <c r="C380" s="43" t="s">
+        <v>645</v>
       </c>
       <c r="D380" s="39" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E380" s="39" t="s">
-        <v>1221</v>
-      </c>
+        <v>1070</v>
+      </c>
+      <c r="E380" s="46"/>
       <c r="F380" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="G380" s="39"/>
-    </row>
-    <row r="381" spans="1:7">
+      <c r="G380" s="43"/>
+    </row>
+    <row r="381" spans="1:7" ht="30">
       <c r="A381" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B381" s="39" t="s">
-        <v>642</v>
-      </c>
-      <c r="C381" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="D381" s="40"/>
-      <c r="E381" s="40"/>
-      <c r="F381" s="40"/>
-      <c r="G381" s="40"/>
+        <v>646</v>
+      </c>
+      <c r="C381" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D381" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E381" s="39"/>
+      <c r="F381" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G381" s="43"/>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B382" s="39" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C382" s="43" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="D382" s="39" t="s">
-        <v>571</v>
+        <v>1068</v>
       </c>
       <c r="E382" s="39"/>
       <c r="F382" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="G382" s="43" t="s">
-        <v>1111</v>
-      </c>
+      <c r="G382" s="39"/>
     </row>
     <row r="383" spans="1:7" ht="30">
       <c r="A383" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B383" s="39" t="s">
-        <v>644</v>
-      </c>
-      <c r="C383" s="43" t="s">
-        <v>645</v>
+        <v>648</v>
+      </c>
+      <c r="C383" s="39" t="s">
+        <v>615</v>
       </c>
       <c r="D383" s="39" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E383" s="46"/>
+        <v>1066</v>
+      </c>
+      <c r="E383" s="39" t="s">
+        <v>616</v>
+      </c>
       <c r="F383" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="G383" s="43"/>
-    </row>
-    <row r="384" spans="1:7" ht="30">
+      <c r="G383" s="39"/>
+    </row>
+    <row r="384" spans="1:7">
       <c r="A384" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B384" s="39" t="s">
-        <v>646</v>
-      </c>
-      <c r="C384" s="43" t="s">
-        <v>611</v>
-      </c>
-      <c r="D384" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E384" s="39"/>
-      <c r="F384" s="39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G384" s="43"/>
+      <c r="B384" s="39">
+        <v>11.3</v>
+      </c>
+      <c r="C384" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D384" s="40"/>
+      <c r="E384" s="40"/>
+      <c r="F384" s="40"/>
+      <c r="G384" s="40"/>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B385" s="39" t="s">
-        <v>647</v>
-      </c>
-      <c r="C385" s="43" t="s">
-        <v>613</v>
-      </c>
-      <c r="D385" s="39" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E385" s="39"/>
-      <c r="F385" s="39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G385" s="39"/>
-    </row>
-    <row r="386" spans="1:7" ht="30">
+        <v>649</v>
+      </c>
+      <c r="C385" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D385" s="40"/>
+      <c r="E385" s="40"/>
+      <c r="F385" s="40"/>
+      <c r="G385" s="40"/>
+    </row>
+    <row r="386" spans="1:7" ht="105">
       <c r="A386" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B386" s="39" t="s">
-        <v>648</v>
-      </c>
-      <c r="C386" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D386" s="39" t="s">
-        <v>1066</v>
+        <v>650</v>
+      </c>
+      <c r="C386" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="D386" s="39">
+        <v>78.3</v>
       </c>
       <c r="E386" s="39" t="s">
-        <v>616</v>
+        <v>1206</v>
       </c>
       <c r="F386" s="39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G386" s="39"/>
-    </row>
-    <row r="387" spans="1:7">
+        <v>1179</v>
+      </c>
+      <c r="G386" s="43" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" ht="60">
       <c r="A387" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B387" s="39">
-        <v>11.3</v>
-      </c>
-      <c r="C387" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D387" s="40"/>
-      <c r="E387" s="40"/>
-      <c r="F387" s="40"/>
-      <c r="G387" s="40"/>
-    </row>
-    <row r="388" spans="1:7">
+      <c r="B387" s="39" t="s">
+        <v>652</v>
+      </c>
+      <c r="C387" s="39" t="s">
+        <v>653</v>
+      </c>
+      <c r="D387" s="39" t="s">
+        <v>998</v>
+      </c>
+      <c r="E387" s="39" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F387" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G387" s="39"/>
+    </row>
+    <row r="388" spans="1:7" ht="30">
       <c r="A388" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B388" s="39" t="s">
-        <v>649</v>
-      </c>
-      <c r="C388" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D388" s="40"/>
-      <c r="E388" s="40"/>
-      <c r="F388" s="40"/>
-      <c r="G388" s="40"/>
-    </row>
-    <row r="389" spans="1:7" ht="105">
+        <v>654</v>
+      </c>
+      <c r="C388" s="43" t="s">
+        <v>655</v>
+      </c>
+      <c r="D388" s="39">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E388" s="39" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F388" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G388" s="43"/>
+    </row>
+    <row r="389" spans="1:7">
       <c r="A389" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B389" s="39" t="s">
-        <v>650</v>
-      </c>
-      <c r="C389" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="D389" s="39">
-        <v>78.3</v>
-      </c>
-      <c r="E389" s="39" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F389" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G389" s="43" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" ht="60">
+        <v>656</v>
+      </c>
+      <c r="C389" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D389" s="40"/>
+      <c r="E389" s="40"/>
+      <c r="F389" s="40"/>
+      <c r="G389" s="40"/>
+    </row>
+    <row r="390" spans="1:7">
       <c r="A390" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B390" s="39" t="s">
-        <v>652</v>
-      </c>
-      <c r="C390" s="39" t="s">
-        <v>653</v>
-      </c>
-      <c r="D390" s="39" t="s">
-        <v>998</v>
-      </c>
-      <c r="E390" s="39" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F390" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G390" s="39"/>
-    </row>
-    <row r="391" spans="1:7" ht="30">
+        <v>657</v>
+      </c>
+      <c r="C390" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D390" s="40"/>
+      <c r="E390" s="40"/>
+      <c r="F390" s="40"/>
+      <c r="G390" s="40"/>
+    </row>
+    <row r="391" spans="1:7" ht="45">
       <c r="A391" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B391" s="39" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C391" s="43" t="s">
-        <v>655</v>
-      </c>
-      <c r="D391" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E391" s="39" t="s">
-        <v>1206</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="D391" s="39" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E391" s="39"/>
       <c r="F391" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="G391" s="43"/>
-    </row>
-    <row r="392" spans="1:7">
+      <c r="G391" s="43" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" ht="45">
       <c r="A392" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B392" s="39" t="s">
-        <v>656</v>
-      </c>
-      <c r="C392" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D392" s="40"/>
-      <c r="E392" s="40"/>
-      <c r="F392" s="40"/>
-      <c r="G392" s="40"/>
+        <v>660</v>
+      </c>
+      <c r="C392" s="43" t="s">
+        <v>661</v>
+      </c>
+      <c r="D392" s="39" t="s">
+        <v>662</v>
+      </c>
+      <c r="E392" s="39"/>
+      <c r="F392" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G392" s="43"/>
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B393" s="39" t="s">
-        <v>657</v>
-      </c>
-      <c r="C393" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D393" s="40"/>
-      <c r="E393" s="40"/>
-      <c r="F393" s="40"/>
-      <c r="G393" s="40"/>
+        <v>663</v>
+      </c>
+      <c r="C393" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="D393" s="39" t="s">
+        <v>560</v>
+      </c>
+      <c r="E393" s="39"/>
+      <c r="F393" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G393" s="43"/>
     </row>
     <row r="394" spans="1:7" ht="45">
       <c r="A394" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B394" s="39" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="C394" s="43" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="D394" s="39" t="s">
-        <v>1036</v>
+        <v>583</v>
       </c>
       <c r="E394" s="39"/>
       <c r="F394" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="G394" s="43" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" ht="45">
+      <c r="G394" s="43"/>
+    </row>
+    <row r="395" spans="1:7" ht="30">
       <c r="A395" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B395" s="39" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="C395" s="43" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="D395" s="39" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="E395" s="39"/>
       <c r="F395" s="39" t="s">
@@ -15602,18 +15608,18 @@
       </c>
       <c r="G395" s="43"/>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" ht="45">
       <c r="A396" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B396" s="39" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="C396" s="43" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="D396" s="39" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="E396" s="39"/>
       <c r="F396" s="39" t="s">
@@ -15621,72 +15627,72 @@
       </c>
       <c r="G396" s="43"/>
     </row>
-    <row r="397" spans="1:7" ht="45">
+    <row r="397" spans="1:7">
       <c r="A397" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B397" s="39" t="s">
-        <v>665</v>
-      </c>
-      <c r="C397" s="43" t="s">
-        <v>666</v>
-      </c>
-      <c r="D397" s="39" t="s">
-        <v>583</v>
-      </c>
-      <c r="E397" s="39"/>
-      <c r="F397" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G397" s="43"/>
-    </row>
-    <row r="398" spans="1:7" ht="30">
+        <v>670</v>
+      </c>
+      <c r="C397" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D397" s="40"/>
+      <c r="E397" s="40"/>
+      <c r="F397" s="40"/>
+      <c r="G397" s="40"/>
+    </row>
+    <row r="398" spans="1:7">
       <c r="A398" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B398" s="39" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C398" s="43" t="s">
-        <v>668</v>
+        <v>602</v>
       </c>
       <c r="D398" s="39" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="E398" s="39"/>
       <c r="F398" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="G398" s="43"/>
-    </row>
-    <row r="399" spans="1:7" ht="45">
+      <c r="G398" s="43" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
       <c r="A399" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B399" s="39" t="s">
-        <v>669</v>
-      </c>
-      <c r="C399" s="43" t="s">
-        <v>638</v>
+        <v>672</v>
+      </c>
+      <c r="C399" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="D399" s="39" t="s">
-        <v>566</v>
-      </c>
-      <c r="E399" s="39"/>
+        <v>1065</v>
+      </c>
+      <c r="E399" s="39" t="s">
+        <v>1221</v>
+      </c>
       <c r="F399" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="G399" s="43"/>
+      <c r="G399" s="39"/>
     </row>
     <row r="400" spans="1:7">
       <c r="A400" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B400" s="39" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C400" s="40" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D400" s="40"/>
       <c r="E400" s="40"/>
@@ -15698,353 +15704,351 @@
         <v>56</v>
       </c>
       <c r="B401" s="39" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C401" s="43" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="D401" s="39" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E401" s="39"/>
       <c r="F401" s="39" t="s">
         <v>1179</v>
       </c>
       <c r="G401" s="43" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" ht="30">
       <c r="A402" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B402" s="39" t="s">
-        <v>672</v>
-      </c>
-      <c r="C402" s="39" t="s">
-        <v>604</v>
+        <v>675</v>
+      </c>
+      <c r="C402" s="43" t="s">
+        <v>645</v>
       </c>
       <c r="D402" s="39" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E402" s="39" t="s">
-        <v>1221</v>
-      </c>
+        <v>1070</v>
+      </c>
+      <c r="E402" s="46"/>
       <c r="F402" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="G402" s="39"/>
-    </row>
-    <row r="403" spans="1:7">
+      <c r="G402" s="43"/>
+    </row>
+    <row r="403" spans="1:7" ht="30">
       <c r="A403" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B403" s="39" t="s">
-        <v>673</v>
-      </c>
-      <c r="C403" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="D403" s="40"/>
-      <c r="E403" s="40"/>
-      <c r="F403" s="40"/>
-      <c r="G403" s="40"/>
+        <v>676</v>
+      </c>
+      <c r="C403" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D403" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E403" s="39"/>
+      <c r="F403" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G403" s="43"/>
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B404" s="39" t="s">
-        <v>674</v>
-      </c>
-      <c r="C404" s="43" t="s">
-        <v>570</v>
+        <v>677</v>
+      </c>
+      <c r="C404" s="39" t="s">
+        <v>613</v>
       </c>
       <c r="D404" s="39" t="s">
-        <v>571</v>
+        <v>1068</v>
       </c>
       <c r="E404" s="39"/>
       <c r="F404" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="G404" s="43" t="s">
-        <v>1111</v>
-      </c>
+      <c r="G404" s="39"/>
     </row>
     <row r="405" spans="1:7" ht="30">
       <c r="A405" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B405" s="39" t="s">
-        <v>675</v>
-      </c>
-      <c r="C405" s="43" t="s">
-        <v>645</v>
+        <v>678</v>
+      </c>
+      <c r="C405" s="39" t="s">
+        <v>615</v>
       </c>
       <c r="D405" s="39" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E405" s="46"/>
+        <v>1066</v>
+      </c>
+      <c r="E405" s="39" t="s">
+        <v>616</v>
+      </c>
       <c r="F405" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="G405" s="43"/>
-    </row>
-    <row r="406" spans="1:7" ht="30">
+      <c r="G405" s="39"/>
+    </row>
+    <row r="406" spans="1:7">
       <c r="A406" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B406" s="39" t="s">
-        <v>676</v>
-      </c>
-      <c r="C406" s="43" t="s">
-        <v>611</v>
-      </c>
-      <c r="D406" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E406" s="39"/>
-      <c r="F406" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G406" s="43"/>
+      <c r="B406" s="39">
+        <v>11.4</v>
+      </c>
+      <c r="C406" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D406" s="40"/>
+      <c r="E406" s="40"/>
+      <c r="F406" s="40"/>
+      <c r="G406" s="40"/>
     </row>
     <row r="407" spans="1:7">
       <c r="A407" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B407" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="C407" s="39" t="s">
-        <v>613</v>
-      </c>
-      <c r="D407" s="39" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E407" s="39"/>
-      <c r="F407" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G407" s="39"/>
-    </row>
-    <row r="408" spans="1:7" ht="30">
+        <v>679</v>
+      </c>
+      <c r="C407" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D407" s="40"/>
+      <c r="E407" s="40"/>
+      <c r="F407" s="40"/>
+      <c r="G407" s="40"/>
+    </row>
+    <row r="408" spans="1:7" ht="105">
       <c r="A408" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B408" s="39" t="s">
-        <v>678</v>
-      </c>
-      <c r="C408" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D408" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E408" s="39" t="s">
-        <v>616</v>
+        <v>680</v>
+      </c>
+      <c r="C408" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="D408" s="39">
+        <v>78.3</v>
+      </c>
+      <c r="E408" s="6" t="s">
+        <v>1223</v>
       </c>
       <c r="F408" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G408" s="39"/>
-    </row>
-    <row r="409" spans="1:7">
+        <v>1182</v>
+      </c>
+      <c r="G408" s="43" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" ht="90">
       <c r="A409" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B409" s="39">
-        <v>11.4</v>
-      </c>
-      <c r="C409" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D409" s="40"/>
-      <c r="E409" s="40"/>
-      <c r="F409" s="40"/>
-      <c r="G409" s="40"/>
-    </row>
-    <row r="410" spans="1:7">
+      <c r="B409" s="39" t="s">
+        <v>681</v>
+      </c>
+      <c r="C409" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="D409" s="39">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E409" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F409" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G409" s="43"/>
+    </row>
+    <row r="410" spans="1:7" ht="30">
       <c r="A410" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B410" s="39" t="s">
-        <v>679</v>
-      </c>
-      <c r="C410" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D410" s="40"/>
-      <c r="E410" s="40"/>
-      <c r="F410" s="40"/>
-      <c r="G410" s="40"/>
-    </row>
-    <row r="411" spans="1:7" ht="105">
+        <v>683</v>
+      </c>
+      <c r="C410" s="43" t="s">
+        <v>655</v>
+      </c>
+      <c r="D410" s="39">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E410" s="39" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F410" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G410" s="43"/>
+    </row>
+    <row r="411" spans="1:7">
       <c r="A411" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B411" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="C411" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="D411" s="39">
-        <v>78.3</v>
-      </c>
-      <c r="E411" s="6" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F411" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G411" s="43" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" ht="90">
+        <v>684</v>
+      </c>
+      <c r="C411" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D411" s="40"/>
+      <c r="E411" s="40"/>
+      <c r="F411" s="40"/>
+      <c r="G411" s="40"/>
+    </row>
+    <row r="412" spans="1:7">
       <c r="A412" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B412" s="39" t="s">
-        <v>681</v>
-      </c>
-      <c r="C412" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="D412" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E412" s="39" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F412" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G412" s="43"/>
-    </row>
-    <row r="413" spans="1:7" ht="30">
+        <v>685</v>
+      </c>
+      <c r="C412" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D412" s="40"/>
+      <c r="E412" s="40"/>
+      <c r="F412" s="40"/>
+      <c r="G412" s="40"/>
+    </row>
+    <row r="413" spans="1:7">
       <c r="A413" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B413" s="39" t="s">
-        <v>683</v>
-      </c>
-      <c r="C413" s="43" t="s">
-        <v>655</v>
-      </c>
-      <c r="D413" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E413" s="39" t="s">
-        <v>1206</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="C413" s="39" t="s">
+        <v>626</v>
+      </c>
+      <c r="D413" s="39" t="s">
+        <v>627</v>
+      </c>
+      <c r="E413" s="39"/>
       <c r="F413" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G413" s="43"/>
+      <c r="G413" s="39" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="414" spans="1:7">
       <c r="A414" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B414" s="39" t="s">
-        <v>684</v>
-      </c>
-      <c r="C414" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D414" s="40"/>
-      <c r="E414" s="40"/>
-      <c r="F414" s="40"/>
-      <c r="G414" s="40"/>
+        <v>687</v>
+      </c>
+      <c r="C414" s="43" t="s">
+        <v>688</v>
+      </c>
+      <c r="D414" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="E414" s="39"/>
+      <c r="F414" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G414" s="43"/>
     </row>
     <row r="415" spans="1:7">
       <c r="A415" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B415" s="39" t="s">
-        <v>685</v>
-      </c>
-      <c r="C415" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D415" s="40"/>
-      <c r="E415" s="40"/>
-      <c r="F415" s="40"/>
-      <c r="G415" s="40"/>
-    </row>
-    <row r="416" spans="1:7">
+        <v>689</v>
+      </c>
+      <c r="C415" s="43" t="s">
+        <v>690</v>
+      </c>
+      <c r="D415" s="39" t="s">
+        <v>560</v>
+      </c>
+      <c r="E415" s="39"/>
+      <c r="F415" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G415" s="43"/>
+    </row>
+    <row r="416" spans="1:7" ht="30">
       <c r="A416" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B416" s="39" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C416" s="39" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
       <c r="D416" s="39" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="E416" s="39"/>
       <c r="F416" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G416" s="39" t="s">
-        <v>1114</v>
-      </c>
+      <c r="G416" s="39"/>
     </row>
     <row r="417" spans="1:7">
       <c r="A417" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B417" s="39" t="s">
-        <v>687</v>
-      </c>
-      <c r="C417" s="43" t="s">
-        <v>688</v>
-      </c>
-      <c r="D417" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="E417" s="39"/>
-      <c r="F417" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G417" s="43"/>
-    </row>
-    <row r="418" spans="1:7">
+        <v>693</v>
+      </c>
+      <c r="C417" s="40" t="s">
+        <v>694</v>
+      </c>
+      <c r="D417" s="40"/>
+      <c r="E417" s="40"/>
+      <c r="F417" s="40"/>
+      <c r="G417" s="40"/>
+    </row>
+    <row r="418" spans="1:7" ht="30">
       <c r="A418" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B418" s="39" t="s">
-        <v>689</v>
-      </c>
-      <c r="C418" s="43" t="s">
-        <v>690</v>
+        <v>695</v>
+      </c>
+      <c r="C418" s="39" t="s">
+        <v>1289</v>
       </c>
       <c r="D418" s="39" t="s">
-        <v>560</v>
+        <v>697</v>
       </c>
       <c r="E418" s="39"/>
       <c r="F418" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G418" s="43"/>
+      <c r="G418" s="39" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="419" spans="1:7" ht="30">
       <c r="A419" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B419" s="39" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="C419" s="39" t="s">
-        <v>692</v>
+        <v>1290</v>
       </c>
       <c r="D419" s="39" t="s">
-        <v>566</v>
+        <v>700</v>
       </c>
       <c r="E419" s="39"/>
       <c r="F419" s="39" t="s">
@@ -16052,128 +16056,130 @@
       </c>
       <c r="G419" s="39"/>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" ht="30">
       <c r="A420" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B420" s="39" t="s">
-        <v>693</v>
-      </c>
-      <c r="C420" s="40" t="s">
-        <v>694</v>
-      </c>
-      <c r="D420" s="40"/>
-      <c r="E420" s="40"/>
-      <c r="F420" s="40"/>
-      <c r="G420" s="40"/>
-    </row>
-    <row r="421" spans="1:7" ht="30">
+        <v>701</v>
+      </c>
+      <c r="C420" s="39" t="s">
+        <v>702</v>
+      </c>
+      <c r="D420" s="39" t="s">
+        <v>700</v>
+      </c>
+      <c r="E420" s="39"/>
+      <c r="F420" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G420" s="39"/>
+    </row>
+    <row r="421" spans="1:7">
       <c r="A421" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B421" s="39" t="s">
-        <v>695</v>
-      </c>
-      <c r="C421" s="39" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D421" s="39" t="s">
-        <v>697</v>
-      </c>
-      <c r="E421" s="39"/>
-      <c r="F421" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G421" s="39" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" ht="30">
+        <v>703</v>
+      </c>
+      <c r="C421" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="D421" s="40"/>
+      <c r="E421" s="40"/>
+      <c r="F421" s="40"/>
+      <c r="G421" s="40"/>
+    </row>
+    <row r="422" spans="1:7">
       <c r="A422" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B422" s="39" t="s">
-        <v>698</v>
-      </c>
-      <c r="C422" s="39" t="s">
-        <v>1290</v>
+        <v>704</v>
+      </c>
+      <c r="C422" s="43" t="s">
+        <v>570</v>
       </c>
       <c r="D422" s="39" t="s">
-        <v>700</v>
+        <v>571</v>
       </c>
       <c r="E422" s="39"/>
       <c r="F422" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G422" s="39"/>
-    </row>
-    <row r="423" spans="1:7" ht="30">
+      <c r="G422" s="43" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
       <c r="A423" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B423" s="39" t="s">
-        <v>701</v>
-      </c>
-      <c r="C423" s="39" t="s">
-        <v>702</v>
+        <v>705</v>
+      </c>
+      <c r="C423" s="43" t="s">
+        <v>706</v>
       </c>
       <c r="D423" s="39" t="s">
-        <v>700</v>
+        <v>574</v>
       </c>
       <c r="E423" s="39"/>
       <c r="F423" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G423" s="39"/>
-    </row>
-    <row r="424" spans="1:7">
+      <c r="G423" s="43"/>
+    </row>
+    <row r="424" spans="1:7" ht="30">
       <c r="A424" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B424" s="39" t="s">
-        <v>703</v>
-      </c>
-      <c r="C424" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="D424" s="40"/>
-      <c r="E424" s="40"/>
-      <c r="F424" s="40"/>
-      <c r="G424" s="40"/>
+        <v>707</v>
+      </c>
+      <c r="C424" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D424" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E424" s="39"/>
+      <c r="F424" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G424" s="43"/>
     </row>
     <row r="425" spans="1:7">
       <c r="A425" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B425" s="39" t="s">
-        <v>704</v>
-      </c>
-      <c r="C425" s="43" t="s">
-        <v>570</v>
+        <v>708</v>
+      </c>
+      <c r="C425" s="39" t="s">
+        <v>613</v>
       </c>
       <c r="D425" s="39" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="E425" s="39"/>
       <c r="F425" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G425" s="43" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7">
+      <c r="G425" s="39"/>
+    </row>
+    <row r="426" spans="1:7" ht="45">
       <c r="A426" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B426" s="39" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="C426" s="43" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
       <c r="D426" s="39" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="E426" s="39"/>
       <c r="F426" s="39" t="s">
@@ -16181,56 +16187,54 @@
       </c>
       <c r="G426" s="43"/>
     </row>
-    <row r="427" spans="1:7" ht="30">
+    <row r="427" spans="1:7">
       <c r="A427" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B427" s="39" t="s">
-        <v>707</v>
-      </c>
-      <c r="C427" s="43" t="s">
-        <v>611</v>
-      </c>
-      <c r="D427" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E427" s="39"/>
-      <c r="F427" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G427" s="43"/>
-    </row>
-    <row r="428" spans="1:7">
+        <v>711</v>
+      </c>
+      <c r="C427" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="D427" s="40"/>
+      <c r="E427" s="40"/>
+      <c r="F427" s="40"/>
+      <c r="G427" s="40"/>
+    </row>
+    <row r="428" spans="1:7" ht="90">
       <c r="A428" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B428" s="39" t="s">
-        <v>708</v>
-      </c>
-      <c r="C428" s="39" t="s">
-        <v>613</v>
+        <v>712</v>
+      </c>
+      <c r="C428" s="43" t="s">
+        <v>588</v>
       </c>
       <c r="D428" s="39" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="E428" s="39"/>
       <c r="F428" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G428" s="39"/>
-    </row>
-    <row r="429" spans="1:7" ht="45">
+      <c r="G428" s="43" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" ht="60">
       <c r="A429" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B429" s="39" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C429" s="43" t="s">
-        <v>666</v>
+        <v>590</v>
       </c>
       <c r="D429" s="39" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E429" s="39"/>
       <c r="F429" s="39" t="s">
@@ -16238,237 +16242,235 @@
       </c>
       <c r="G429" s="43"/>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" ht="30">
       <c r="A430" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B430" s="39" t="s">
-        <v>711</v>
-      </c>
-      <c r="C430" s="40" t="s">
-        <v>585</v>
-      </c>
-      <c r="D430" s="40"/>
-      <c r="E430" s="40"/>
-      <c r="F430" s="40"/>
-      <c r="G430" s="40"/>
-    </row>
-    <row r="431" spans="1:7" ht="90">
+        <v>714</v>
+      </c>
+      <c r="C430" s="43" t="s">
+        <v>715</v>
+      </c>
+      <c r="D430" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="E430" s="39"/>
+      <c r="F430" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G430" s="43" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" ht="30">
       <c r="A431" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B431" s="39" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C431" s="43" t="s">
-        <v>588</v>
+        <v>668</v>
       </c>
       <c r="D431" s="39" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="E431" s="39"/>
       <c r="F431" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G431" s="43" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" ht="60">
+      <c r="G431" s="43"/>
+    </row>
+    <row r="432" spans="1:7">
       <c r="A432" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B432" s="39" t="s">
-        <v>713</v>
-      </c>
-      <c r="C432" s="43" t="s">
-        <v>590</v>
-      </c>
-      <c r="D432" s="39" t="s">
-        <v>586</v>
-      </c>
-      <c r="E432" s="39"/>
-      <c r="F432" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G432" s="43"/>
-    </row>
-    <row r="433" spans="1:7" ht="30">
+        <v>717</v>
+      </c>
+      <c r="C432" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D432" s="40"/>
+      <c r="E432" s="40"/>
+      <c r="F432" s="40"/>
+      <c r="G432" s="40"/>
+    </row>
+    <row r="433" spans="1:7">
       <c r="A433" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B433" s="39" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C433" s="43" t="s">
-        <v>715</v>
+        <v>602</v>
       </c>
       <c r="D433" s="39" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E433" s="39"/>
       <c r="F433" s="39" t="s">
         <v>1182</v>
       </c>
       <c r="G433" s="43" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" ht="30">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
       <c r="A434" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B434" s="39" t="s">
-        <v>716</v>
-      </c>
-      <c r="C434" s="43" t="s">
-        <v>668</v>
+        <v>719</v>
+      </c>
+      <c r="C434" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="D434" s="39" t="s">
-        <v>598</v>
-      </c>
-      <c r="E434" s="39"/>
+        <v>1065</v>
+      </c>
+      <c r="E434" s="39" t="s">
+        <v>1221</v>
+      </c>
       <c r="F434" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G434" s="43"/>
+      <c r="G434" s="39"/>
     </row>
     <row r="435" spans="1:7">
       <c r="A435" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B435" s="39" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C435" s="40" t="s">
-        <v>600</v>
+        <v>1075</v>
       </c>
       <c r="D435" s="40"/>
       <c r="E435" s="40"/>
       <c r="F435" s="40"/>
       <c r="G435" s="40"/>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" ht="30">
       <c r="A436" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B436" s="39" t="s">
-        <v>718</v>
-      </c>
-      <c r="C436" s="43" t="s">
-        <v>602</v>
+        <v>725</v>
+      </c>
+      <c r="C436" s="39" t="s">
+        <v>615</v>
       </c>
       <c r="D436" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E436" s="39"/>
+        <v>1066</v>
+      </c>
+      <c r="E436" s="39" t="s">
+        <v>616</v>
+      </c>
       <c r="F436" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G436" s="43" t="s">
-        <v>1110</v>
-      </c>
+      <c r="G436" s="39"/>
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B437" s="39" t="s">
-        <v>719</v>
-      </c>
-      <c r="C437" s="39" t="s">
-        <v>604</v>
-      </c>
-      <c r="D437" s="39" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E437" s="39" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F437" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G437" s="39"/>
+      <c r="B437" s="39">
+        <v>11.5</v>
+      </c>
+      <c r="C437" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D437" s="40"/>
+      <c r="E437" s="40"/>
+      <c r="F437" s="40"/>
+      <c r="G437" s="38"/>
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B438" s="39" t="s">
-        <v>720</v>
-      </c>
-      <c r="C438" s="40" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D438" s="40"/>
-      <c r="E438" s="40"/>
-      <c r="F438" s="40"/>
-      <c r="G438" s="40"/>
-    </row>
-    <row r="439" spans="1:7" ht="30">
+        <v>726</v>
+      </c>
+      <c r="C438" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D438" s="39"/>
+      <c r="E438" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="F438" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G438" s="43"/>
+    </row>
+    <row r="439" spans="1:7">
       <c r="A439" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B439" s="39" t="s">
-        <v>725</v>
-      </c>
-      <c r="C439" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D439" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E439" s="39" t="s">
-        <v>616</v>
+        <v>727</v>
+      </c>
+      <c r="C439" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D439" s="39"/>
+      <c r="E439" s="43" t="s">
+        <v>268</v>
       </c>
       <c r="F439" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G439" s="39"/>
+      <c r="G439" s="43"/>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B440" s="39">
-        <v>11.5</v>
-      </c>
-      <c r="C440" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D440" s="40"/>
-      <c r="E440" s="40"/>
-      <c r="F440" s="40"/>
-      <c r="G440" s="38"/>
+      <c r="B440" s="39" t="s">
+        <v>728</v>
+      </c>
+      <c r="C440" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D440" s="39"/>
+      <c r="E440" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="F440" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G440" s="43"/>
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B441" s="39" t="s">
-        <v>726</v>
-      </c>
-      <c r="C441" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D441" s="39"/>
-      <c r="E441" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="F441" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G441" s="43"/>
+      <c r="B441" s="39">
+        <v>11.6</v>
+      </c>
+      <c r="C441" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D441" s="40"/>
+      <c r="E441" s="38"/>
+      <c r="F441" s="40"/>
+      <c r="G441" s="38"/>
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B442" s="39" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C442" s="43" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D442" s="39"/>
       <c r="E442" s="43" t="s">
@@ -16484,10 +16486,10 @@
         <v>56</v>
       </c>
       <c r="B443" s="39" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C443" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D443" s="39"/>
       <c r="E443" s="43" t="s">
@@ -16503,13 +16505,13 @@
         <v>56</v>
       </c>
       <c r="B444" s="39">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C444" s="38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D444" s="40"/>
-      <c r="E444" s="38"/>
+      <c r="E444" s="40"/>
       <c r="F444" s="40"/>
       <c r="G444" s="38"/>
     </row>
@@ -16518,210 +16520,212 @@
         <v>56</v>
       </c>
       <c r="B445" s="39" t="s">
-        <v>729</v>
-      </c>
-      <c r="C445" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D445" s="39"/>
-      <c r="E445" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="F445" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G445" s="43"/>
-    </row>
-    <row r="446" spans="1:7">
+        <v>731</v>
+      </c>
+      <c r="C445" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D445" s="40"/>
+      <c r="E445" s="40"/>
+      <c r="F445" s="40"/>
+      <c r="G445" s="40"/>
+    </row>
+    <row r="446" spans="1:7" ht="105">
       <c r="A446" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B446" s="39" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C446" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D446" s="39"/>
-      <c r="E446" s="43" t="s">
-        <v>268</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="D446" s="39">
+        <v>78.3</v>
+      </c>
+      <c r="E446" s="39"/>
       <c r="F446" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G446" s="43"/>
-    </row>
-    <row r="447" spans="1:7">
+        <v>1126</v>
+      </c>
+      <c r="G446" s="43" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" ht="30">
       <c r="A447" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B447" s="39">
-        <v>11.7</v>
-      </c>
-      <c r="C447" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D447" s="40"/>
-      <c r="E447" s="40"/>
-      <c r="F447" s="40"/>
-      <c r="G447" s="38"/>
-    </row>
-    <row r="448" spans="1:7">
+      <c r="B447" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="C447" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="D447" s="39">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E447" s="39"/>
+      <c r="F447" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G447" s="43"/>
+    </row>
+    <row r="448" spans="1:7" ht="30">
       <c r="A448" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B448" s="39" t="s">
-        <v>731</v>
-      </c>
-      <c r="C448" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D448" s="40"/>
-      <c r="E448" s="40"/>
-      <c r="F448" s="40"/>
-      <c r="G448" s="40"/>
-    </row>
-    <row r="449" spans="1:7" ht="105">
+        <v>734</v>
+      </c>
+      <c r="C448" s="43" t="s">
+        <v>655</v>
+      </c>
+      <c r="D448" s="39">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E448" s="39"/>
+      <c r="F448" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G448" s="43"/>
+    </row>
+    <row r="449" spans="1:7">
       <c r="A449" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B449" s="39" t="s">
-        <v>732</v>
-      </c>
-      <c r="C449" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="D449" s="39">
-        <v>78.3</v>
-      </c>
-      <c r="E449" s="39"/>
-      <c r="F449" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G449" s="43" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7" ht="30">
+        <v>735</v>
+      </c>
+      <c r="C449" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D449" s="40"/>
+      <c r="E449" s="40"/>
+      <c r="F449" s="40"/>
+      <c r="G449" s="40"/>
+    </row>
+    <row r="450" spans="1:7">
       <c r="A450" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B450" s="39" t="s">
-        <v>733</v>
-      </c>
-      <c r="C450" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="D450" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E450" s="39"/>
-      <c r="F450" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G450" s="43"/>
+        <v>736</v>
+      </c>
+      <c r="C450" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D450" s="40"/>
+      <c r="E450" s="40"/>
+      <c r="F450" s="40"/>
+      <c r="G450" s="40"/>
     </row>
     <row r="451" spans="1:7" ht="30">
       <c r="A451" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B451" s="39" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C451" s="43" t="s">
-        <v>655</v>
-      </c>
-      <c r="D451" s="39">
-        <v>78.099999999999994</v>
+        <v>738</v>
+      </c>
+      <c r="D451" s="39" t="s">
+        <v>557</v>
       </c>
       <c r="E451" s="39"/>
       <c r="F451" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G451" s="43"/>
+      <c r="G451" s="43" t="s">
+        <v>1118</v>
+      </c>
     </row>
     <row r="452" spans="1:7">
       <c r="A452" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B452" s="39" t="s">
-        <v>735</v>
-      </c>
-      <c r="C452" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D452" s="40"/>
-      <c r="E452" s="40"/>
-      <c r="F452" s="40"/>
-      <c r="G452" s="40"/>
-    </row>
-    <row r="453" spans="1:7">
+        <v>739</v>
+      </c>
+      <c r="C452" s="43" t="s">
+        <v>690</v>
+      </c>
+      <c r="D452" s="39" t="s">
+        <v>560</v>
+      </c>
+      <c r="E452" s="39"/>
+      <c r="F452" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G452" s="43"/>
+    </row>
+    <row r="453" spans="1:7" ht="30">
       <c r="A453" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B453" s="39" t="s">
-        <v>736</v>
-      </c>
-      <c r="C453" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D453" s="40"/>
-      <c r="E453" s="40"/>
-      <c r="F453" s="40"/>
-      <c r="G453" s="40"/>
-    </row>
-    <row r="454" spans="1:7" ht="30">
+        <v>740</v>
+      </c>
+      <c r="C453" s="39" t="s">
+        <v>741</v>
+      </c>
+      <c r="D453" s="39" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E453" s="39"/>
+      <c r="F453" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G453" s="39"/>
+    </row>
+    <row r="454" spans="1:7" ht="45">
       <c r="A454" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B454" s="39" t="s">
-        <v>737</v>
-      </c>
-      <c r="C454" s="43" t="s">
-        <v>738</v>
+        <v>742</v>
+      </c>
+      <c r="C454" s="39" t="s">
+        <v>743</v>
       </c>
       <c r="D454" s="39" t="s">
-        <v>557</v>
+        <v>598</v>
       </c>
       <c r="E454" s="39"/>
       <c r="F454" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G454" s="43" t="s">
-        <v>1118</v>
-      </c>
+      <c r="G454" s="39"/>
     </row>
     <row r="455" spans="1:7">
       <c r="A455" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B455" s="39" t="s">
-        <v>739</v>
-      </c>
-      <c r="C455" s="43" t="s">
-        <v>690</v>
-      </c>
-      <c r="D455" s="39" t="s">
-        <v>560</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="C455" s="39" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D455" s="39"/>
       <c r="E455" s="39"/>
       <c r="F455" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G455" s="43"/>
-    </row>
-    <row r="456" spans="1:7" ht="30">
+      <c r="G455" s="39"/>
+    </row>
+    <row r="456" spans="1:7" ht="60">
       <c r="A456" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B456" s="39" t="s">
-        <v>740</v>
+        <v>1083</v>
       </c>
       <c r="C456" s="39" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D456" s="39" t="s">
-        <v>1067</v>
+        <v>566</v>
       </c>
       <c r="E456" s="39"/>
       <c r="F456" s="39" t="s">
@@ -16729,18 +16733,18 @@
       </c>
       <c r="G456" s="39"/>
     </row>
-    <row r="457" spans="1:7" ht="45">
+    <row r="457" spans="1:7" ht="30">
       <c r="A457" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B457" s="39" t="s">
-        <v>742</v>
+        <v>1084</v>
       </c>
       <c r="C457" s="39" t="s">
-        <v>743</v>
+        <v>1081</v>
       </c>
       <c r="D457" s="39" t="s">
-        <v>598</v>
+        <v>700</v>
       </c>
       <c r="E457" s="39"/>
       <c r="F457" s="39" t="s">
@@ -16753,49 +16757,49 @@
         <v>56</v>
       </c>
       <c r="B458" s="39" t="s">
-        <v>744</v>
-      </c>
-      <c r="C458" s="39" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D458" s="39"/>
-      <c r="E458" s="39"/>
-      <c r="F458" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G458" s="39"/>
-    </row>
-    <row r="459" spans="1:7" ht="60">
+        <v>747</v>
+      </c>
+      <c r="C458" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D458" s="40"/>
+      <c r="E458" s="40"/>
+      <c r="F458" s="40"/>
+      <c r="G458" s="40"/>
+    </row>
+    <row r="459" spans="1:7">
       <c r="A459" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B459" s="39" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C459" s="39" t="s">
-        <v>745</v>
+        <v>748</v>
+      </c>
+      <c r="C459" s="43" t="s">
+        <v>602</v>
       </c>
       <c r="D459" s="39" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="E459" s="39"/>
       <c r="F459" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G459" s="39"/>
-    </row>
-    <row r="460" spans="1:7" ht="30">
+      <c r="G459" s="43" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7">
       <c r="A460" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B460" s="39" t="s">
-        <v>1084</v>
+        <v>749</v>
       </c>
       <c r="C460" s="39" t="s">
-        <v>1081</v>
+        <v>604</v>
       </c>
       <c r="D460" s="39" t="s">
-        <v>700</v>
+        <v>1065</v>
       </c>
       <c r="E460" s="39"/>
       <c r="F460" s="39" t="s">
@@ -16808,10 +16812,10 @@
         <v>56</v>
       </c>
       <c r="B461" s="39" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C461" s="40" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D461" s="40"/>
       <c r="E461" s="40"/>
@@ -16823,152 +16827,97 @@
         <v>56</v>
       </c>
       <c r="B462" s="39" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C462" s="43" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="D462" s="39" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E462" s="39"/>
       <c r="F462" s="39" t="s">
         <v>1126</v>
       </c>
       <c r="G462" s="43" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" ht="30">
       <c r="A463" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B463" s="39" t="s">
-        <v>749</v>
-      </c>
-      <c r="C463" s="39" t="s">
-        <v>604</v>
+        <v>752</v>
+      </c>
+      <c r="C463" s="43" t="s">
+        <v>645</v>
       </c>
       <c r="D463" s="39" t="s">
-        <v>1065</v>
+        <v>574</v>
       </c>
       <c r="E463" s="39"/>
       <c r="F463" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G463" s="39"/>
-    </row>
-    <row r="464" spans="1:7">
+      <c r="G463" s="43"/>
+    </row>
+    <row r="464" spans="1:7" ht="30">
       <c r="A464" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B464" s="39" t="s">
-        <v>750</v>
-      </c>
-      <c r="C464" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="D464" s="40"/>
-      <c r="E464" s="40"/>
-      <c r="F464" s="40"/>
-      <c r="G464" s="40"/>
+        <v>753</v>
+      </c>
+      <c r="C464" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D464" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E464" s="39"/>
+      <c r="F464" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G464" s="43"/>
     </row>
     <row r="465" spans="1:7">
       <c r="A465" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B465" s="39" t="s">
-        <v>751</v>
-      </c>
-      <c r="C465" s="43" t="s">
-        <v>570</v>
+        <v>754</v>
+      </c>
+      <c r="C465" s="39" t="s">
+        <v>613</v>
       </c>
       <c r="D465" s="39" t="s">
-        <v>571</v>
+        <v>1068</v>
       </c>
       <c r="E465" s="39"/>
       <c r="F465" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G465" s="43" t="s">
-        <v>1119</v>
-      </c>
+      <c r="G465" s="39"/>
     </row>
     <row r="466" spans="1:7" ht="30">
       <c r="A466" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B466" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="C466" s="43" t="s">
-        <v>645</v>
+        <v>755</v>
+      </c>
+      <c r="C466" s="39" t="s">
+        <v>615</v>
       </c>
       <c r="D466" s="39" t="s">
-        <v>574</v>
+        <v>1066</v>
       </c>
       <c r="E466" s="39"/>
       <c r="F466" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G466" s="43"/>
-    </row>
-    <row r="467" spans="1:7" ht="30">
-      <c r="A467" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B467" s="39" t="s">
-        <v>753</v>
-      </c>
-      <c r="C467" s="43" t="s">
-        <v>611</v>
-      </c>
-      <c r="D467" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E467" s="39"/>
-      <c r="F467" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G467" s="43"/>
-    </row>
-    <row r="468" spans="1:7">
-      <c r="A468" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B468" s="39" t="s">
-        <v>754</v>
-      </c>
-      <c r="C468" s="39" t="s">
-        <v>613</v>
-      </c>
-      <c r="D468" s="39" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E468" s="39"/>
-      <c r="F468" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G468" s="39"/>
-    </row>
-    <row r="469" spans="1:7" ht="30">
-      <c r="A469" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B469" s="39" t="s">
-        <v>755</v>
-      </c>
-      <c r="C469" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D469" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E469" s="39"/>
-      <c r="F469" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G469" s="39"/>
+      <c r="G466" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
